--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14D87A-32C1-46C2-8FD4-FDB9D84CAB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8FEA1-C845-42FD-AC3D-9C659FE7CE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,12 +197,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{83FAFF48-7F09-4707-A4CA-5D467CC980FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>幻月:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：移除所有同类buff
+1:只移除自己
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -395,7 +423,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>降低所有受到的伤害{0}点，持续2秒。</t>
+    <t>吸收{0}点伤害，持续2秒。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeType</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +477,21 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -747,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +819,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -820,8 +871,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -870,8 +924,11 @@
       <c r="Q2" t="s">
         <v>32</v>
       </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -894,7 +951,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -932,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -961,7 +1018,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -990,7 +1047,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1013,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1042,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1065,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1088,7 +1145,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1105,7 +1162,7 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1114,13 +1171,16 @@
         <v>35</v>
       </c>
       <c r="J11">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1149,7 +1209,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8FEA1-C845-42FD-AC3D-9C659FE7CE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C16908C-E92B-4F84-BD5A-53F427A693B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -432,6 +432,14 @@
   </si>
   <si>
     <t>removeType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣剑会在攻击时协同攻击</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -798,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1206,6 +1214,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C16908C-E92B-4F84-BD5A-53F427A693B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF2EC5-5E07-4222-88B1-87A7E10E0499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -440,6 +440,14 @@
   </si>
   <si>
     <t>圣剑会在攻击时协同攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻滚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避所有伤害</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -806,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,6 +1239,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF2EC5-5E07-4222-88B1-87A7E10E0499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66501D9D-8C9B-4A14-BE94-F0B0F0AD1DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,33 @@
     <author>幻月</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{100E0E28-5DA4-458C-BD79-CE218895066A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>幻月:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+{0} = value
+{1} = time
+{2} = maxNum
+{3} = delay</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
@@ -455,7 +482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +534,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -817,7 +857,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1236,7 +1276,7 @@
         <v>50</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66501D9D-8C9B-4A14-BE94-F0B0F0AD1DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41FC8E9-F03B-488D-9DFE-EA4BB7198D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -42,6 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,6 +61,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -67,6 +70,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,6 +86,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -90,6 +95,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,15 +112,15 @@
 数值反弹受到的伤害=11,
 死亡后复活并恢复百分比生命=12,
 吸收一定数量的伤害=13,
-影响韧性 =14,
-影响抗性 =15,
-影响穿透=16,
+影响召唤物持续时间 =14,
+影响召唤物强度 =15,
+影响召唤物攻速=16,
 影响暴击增益 =17,
 影响闪避 =18,
 数值吸收伤害 =19,
 百分比吸收伤害 =20,
 数值受伤回复 =21,
-百分比影响急速=22,
+影响全局能量消耗=22,
 百分比影响暴击 =23,
 百分比影响命中 =24,
 百分比影响韧性 =25,
@@ -131,6 +137,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -139,6 +146,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -161,6 +169,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -169,6 +178,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -184,6 +194,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -192,6 +203,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -206,6 +218,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -214,6 +227,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -257,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -366,6 +380,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -376,6 +391,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -477,12 +493,40 @@
     <t>闪避所有伤害</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>气定神闲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有卡牌的能量消耗降低2点,持续15秒。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热仪式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热仪式-速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有仆从的伤害提高2点,攻击速度提升30%,持续10秒.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有仆从的持续时间延长10秒.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀新星</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +538,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -501,23 +546,27 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -534,19 +583,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -854,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1305,6 +1341,107 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1003</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1004</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1005</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1006</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>0.3</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41FC8E9-F03B-488D-9DFE-EA4BB7198D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62DDC04-E2E4-4AEB-B5AE-E392FC44DC77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 数值受伤回复 =21,
 影响全局能量消耗=22,
 百分比影响暴击 =23,
-百分比影响命中 =24,
+影响补牌数量 =24,
 百分比影响韧性 =25,
 百分比影响抗性 =26,
 百分比影响穿透 =27,
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -518,7 +518,44 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>闪耀新星</t>
+    <t>小齿轮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>补牌数+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>破釜沉舟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈之盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲值不再会随时间自动消失</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层获得4点护甲</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -890,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1247,9 +1284,6 @@
       <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
@@ -1263,10 +1297,10 @@
         <v>35</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1367,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1375,7 +1409,7 @@
         <v>1004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>69</v>
@@ -1439,6 +1473,76 @@
         <v>0.3</v>
       </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1007</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1008</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1009</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1010</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22">
         <v>1</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62DDC04-E2E4-4AEB-B5AE-E392FC44DC77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A033268A-0EC9-4957-B405-1A3D3E5DB0DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1331,6 +1331,9 @@
       <c r="Q12">
         <v>1</v>
       </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1374,6 +1377,9 @@
       <c r="M14">
         <v>1</v>
       </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1403,6 +1409,9 @@
       <c r="M15">
         <v>-1</v>
       </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1426,8 +1435,11 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1005</v>
       </c>
@@ -1450,13 +1462,16 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N17">
         <v>1006</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1006</v>
       </c>
@@ -1476,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1007</v>
       </c>
@@ -1498,15 +1513,18 @@
       <c r="M19">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1008</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1009</v>
       </c>
@@ -1529,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1010</v>
       </c>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A033268A-0EC9-4957-B405-1A3D3E5DB0DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5AAD03-6F72-4340-AE57-EE3367E9F316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -556,6 +556,38 @@
   </si>
   <si>
     <t>每层获得4点护甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>震撼登场</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入战斗后昏迷敌人3秒</t>
+  </si>
+  <si>
+    <r>
+      <t>Eff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ect_common_stun_01</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃罐头</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次补牌时恢复2点生命值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -927,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1564,6 +1596,49 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1011</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1012</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5AAD03-6F72-4340-AE57-EE3367E9F316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1ECCB5-69E6-4BAF-80B6-C77FFCB17A75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,10 +100,12 @@
           </rPr>
           <t xml:space="preserve">
 昏迷 =1,
-持续伤害or治疗=2,
+间隔释放技能=2,
+(可用于持续伤害/治疗）
 影响急速 =3,
 影响暴击 =4,
-影响命中 =5,
+失去所有护甲后增减buff =5,
+（value=要移除的buff,abilityID=要添加的buff)
 百分比增减受到的伤害 =6,
 百分比增减附加的伤害 =7,
 数值增减受到的伤害 =8,
@@ -123,10 +125,13 @@
 影响全局能量消耗=22,
 百分比影响暴击 =23,
 影响补牌数量 =24,
-百分比影响韧性 =25,
-百分比影响抗性 =26,
-百分比影响穿透 =27,
-百分比影响闪避 =28</t>
+影响护甲持续时间 =25,
+（护甲持续时间默认2秒，0=无限时间，其余 x: 持续时间变为2+x秒）
+效果结束时获得buff =26,
+效果结束时释放技能 =27,
+百分比影响闪避 =28,
+获得护甲后触发技能 =29
+当生命小于25%时触发技能=30</t>
         </r>
       </text>
     </comment>
@@ -271,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -313,9 +318,6 @@
   </si>
   <si>
     <t>从属BUFF</t>
-  </si>
-  <si>
-    <t>伤害技能</t>
   </si>
   <si>
     <t>效果延迟</t>
@@ -551,10 +553,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>护甲值不再会随时间自动消失</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>每层获得4点护甲</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -588,6 +586,103 @@
   </si>
   <si>
     <t>每次补牌时恢复2点生命值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲的持续时间变为无限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激怒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得护甲触发技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-巨石国王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得大量护甲,每当获得护甲便对敌人造成1点穿刺伤害,失去所有护甲后会昏迷3秒。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑惑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏迷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去所有护甲后获得昏迷buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_common_angry_01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常愤怒！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_common_angry_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>触发技能/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buff</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果结束时获得【激怒】Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏迷后激怒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法行动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当生命值小于25%时击晕对手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击晕玩家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏迷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_doubt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一脸懵逼,不知道发生了甚么事……</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -959,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -977,6 +1072,7 @@
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1023,70 +1119,70 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -1094,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1117,16 +1213,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
       </c>
       <c r="F4">
         <v>19</v>
@@ -1135,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>30</v>
@@ -1155,10 +1251,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1167,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>0.25</v>
@@ -1184,16 +1280,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1213,13 +1309,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1236,13 +1332,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1251,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>-10</v>
@@ -1265,13 +1361,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1288,7 +1384,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>21</v>
@@ -1311,13 +1407,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>19</v>
@@ -1326,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -1340,106 +1436,100 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>0.3</v>
-      </c>
-      <c r="L12" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1003</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>1002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -1447,25 +1537,31 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -1473,31 +1569,25 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F17">
-        <v>15</v>
-      </c>
-      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="J17">
         <v>10</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
       <c r="M17">
-        <v>-1</v>
-      </c>
-      <c r="N17">
-        <v>1006</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -1505,118 +1595,127 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
       <c r="J18">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18">
+        <v>1006</v>
+      </c>
+      <c r="R18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M19">
-        <v>-1</v>
-      </c>
-      <c r="R19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1008</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+        <v>1007</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1009</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21">
-        <v>19</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
+        <v>1008</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1624,19 +1723,223 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>1011</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>1012</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2001</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27">
+        <v>29</v>
+      </c>
+      <c r="O27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2002</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>2000</v>
+      </c>
+      <c r="N28">
+        <v>2001</v>
+      </c>
+      <c r="O28">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2003</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2005</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31">
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>2000</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2007</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1ECCB5-69E6-4BAF-80B6-C77FFCB17A75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0C7DF-BE30-42C3-8E4F-A89AE07736B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,8 @@
 效果结束时释放技能 =27,
 百分比影响闪避 =28,
 获得护甲后触发技能 =29
-当生命小于25%时触发技能=30</t>
+当生命小于25%时触发技能=30，
+成功格挡后触发技能 =31</t>
         </r>
       </text>
     </comment>
@@ -276,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -683,6 +684,22 @@
   </si>
   <si>
     <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能回收装置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当成功格挡时，回复1点能量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当成功格挡时，随机从牌堆抽一张牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>振荡装甲</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -770,13 +787,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1673,75 +1693,82 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1008</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+        <v>1013</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>31</v>
+      </c>
+      <c r="O21">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F22">
-        <v>19</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="O22">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
       </c>
       <c r="F23">
-        <v>25</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1749,16 +1776,25 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1766,179 +1802,196 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2000</v>
+        <v>1012</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26">
-        <v>19</v>
-      </c>
-      <c r="J26">
-        <v>30</v>
-      </c>
-      <c r="N26">
-        <v>2002</v>
+        <v>43</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F27">
-        <v>29</v>
-      </c>
-      <c r="O27">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="J27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>2002</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2002</v>
-      </c>
-      <c r="B28" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>2000</v>
-      </c>
-      <c r="N28">
-        <v>2001</v>
+        <v>29</v>
       </c>
       <c r="O28">
-        <v>2004</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>2000</v>
+      </c>
+      <c r="N29">
+        <v>2001</v>
+      </c>
+      <c r="O29">
+        <v>2004</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>2006</v>
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2005</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
+        <v>2004</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F31">
-        <v>19</v>
-      </c>
-      <c r="J31">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F32">
-        <v>26</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J32">
-        <v>2000</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>2001</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>2006</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>2000</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2007</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>30</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>29</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0C7DF-BE30-42C3-8E4F-A89AE07736B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{100E0E28-5DA4-458C-BD79-CE218895066A}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -41,9 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -70,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -79,14 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -95,7 +82,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -136,14 +122,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -152,7 +137,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -168,14 +152,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -184,7 +167,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -193,14 +175,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -209,7 +190,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -217,14 +197,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -233,7 +212,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -244,15 +222,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{83FAFF48-7F09-4707-A4CA-5D467CC980FA}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -260,9 +236,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -277,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -319,63 +293,6 @@
   </si>
   <si>
     <t>从属BUFF</t>
-  </si>
-  <si>
-    <t>效果延迟</t>
-  </si>
-  <si>
-    <t>buff组别</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>describe</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>prefab</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>effectInterval</t>
-  </si>
-  <si>
-    <t>genreList</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>valueGrow</t>
-  </si>
-  <si>
-    <t>triggerEffect</t>
-  </si>
-  <si>
-    <t>maxNum</t>
-  </si>
-  <si>
-    <t>childrenBuff</t>
-  </si>
-  <si>
-    <t>abilityID</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>groupType</t>
-  </si>
-  <si>
-    <t>尖刺外壳</t>
   </si>
   <si>
     <r>
@@ -383,7 +300,91 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>触发技能/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buff</t>
+    </r>
+  </si>
+  <si>
+    <t>效果延迟</t>
+  </si>
+  <si>
+    <t>buff组别</t>
+  </si>
+  <si>
+    <t>移除类型</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>prefab</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>effectInterval</t>
+  </si>
+  <si>
+    <t>genreList</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>valueGrow</t>
+  </si>
+  <si>
+    <t>triggerEffect</t>
+  </si>
+  <si>
+    <t>maxNum</t>
+  </si>
+  <si>
+    <t>childrenBuff</t>
+  </si>
+  <si>
+    <t>abilityID</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>groupType</t>
+  </si>
+  <si>
+    <t>removeType</t>
+  </si>
+  <si>
+    <t>尖刺外壳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,7 +395,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -456,6 +456,40 @@
     <t>炽热刺激-受伤回复</t>
   </si>
   <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>吸收{0}点伤害，持续2秒。</t>
+  </si>
+  <si>
+    <t>无法行动</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ect_common_stun_01</t>
+    </r>
+  </si>
+  <si>
+    <t>格挡2</t>
+  </si>
+  <si>
     <t>复活</t>
   </si>
   <si>
@@ -465,67 +499,50 @@
     <t>Effect_reborn_01</t>
   </si>
   <si>
-    <t>格挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸收{0}点伤害，持续2秒。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>removeType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>圣剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>圣剑会在攻击时协同攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>翻滚</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>闪避所有伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>气定神闲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有卡牌的能量消耗降低2点,持续15秒。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有卡牌的能量消耗降低2点,持续5秒。</t>
+  </si>
+  <si>
+    <t>爆</t>
+  </si>
+  <si>
+    <t>所有仆从的持续时间延长10秒.</t>
   </si>
   <si>
     <t>狂热仪式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有仆从的伤害提高2点,攻击速度提升30%,持续10秒.</t>
   </si>
   <si>
     <t>狂热仪式-速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有仆从的伤害提高2点,攻击速度提升30%,持续10秒.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有仆从的持续时间延长10秒.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小齿轮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>补牌数+</t>
     </r>
     <r>
@@ -533,181 +550,108 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能回收装置</t>
+  </si>
+  <si>
+    <t>每当成功格挡时，回复1点能量</t>
+  </si>
+  <si>
+    <t>振荡装甲</t>
+  </si>
+  <si>
+    <t>每当成功格挡时，随机从牌堆抽一张牌</t>
   </si>
   <si>
     <t>破釜沉舟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层获得4点护甲</t>
   </si>
   <si>
     <t>不屈之盾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每层获得4点护甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲的持续时间变为无限</t>
   </si>
   <si>
     <t>震撼登场</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>进入战斗后昏迷敌人3秒</t>
   </si>
   <si>
-    <r>
-      <t>Eff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ect_common_stun_01</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>樱桃罐头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每次补牌时恢复2点生命值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲的持续时间变为无限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>激怒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得大量护甲,每当获得护甲便对敌人造成1点穿刺伤害,失去所有护甲后会昏迷3秒。</t>
+  </si>
+  <si>
+    <t>Effect_common_angry_01</t>
+  </si>
+  <si>
+    <t>AI-巨石国王</t>
   </si>
   <si>
     <t>获得护甲触发技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI-巨石国王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得大量护甲,每当获得护甲便对敌人造成1点穿刺伤害,失去所有护甲后会昏迷3秒。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去所有护甲后获得昏迷buff</t>
   </si>
   <si>
     <t>疑惑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>昏迷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去所有护甲后获得昏迷buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_common_angry_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一脸懵逼,不知道发生了甚么事……</t>
+  </si>
+  <si>
+    <t>Effect_doubt</t>
   </si>
   <si>
     <t>非常愤怒！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
   </si>
   <si>
     <t>Effect_common_angry_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>触发技能/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>buff</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏迷后激怒</t>
   </si>
   <si>
     <t>效果结束时获得【激怒】Buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>昏迷后激怒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法行动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击晕玩家</t>
   </si>
   <si>
     <t>当生命值小于25%时击晕对手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>击晕玩家</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>昏迷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_doubt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一脸懵逼,不知道发生了甚么事……</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>动能回收装置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当成功格挡时，回复1点能量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当成功格挡时，随机从牌堆抽一张牌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>振荡装甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,65 +661,369 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -783,34 +1031,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1068,22 +1602,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
@@ -1096,7 +1630,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,86 +1674,86 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1228,21 +1762,21 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>19</v>
@@ -1251,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J4">
         <v>30</v>
@@ -1266,15 +1800,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1283,7 +1817,7 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>0.25</v>
@@ -1295,21 +1829,21 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1324,18 +1858,18 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1347,18 +1881,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1367,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>-10</v>
@@ -1376,18 +1910,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1399,12 +1933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>21</v>
@@ -1422,7 +1956,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1433,7 +1967,7 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>19</v>
@@ -1442,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -1454,21 +1988,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1480,525 +2014,557 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>1001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>0.3</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1001</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14">
+      <c r="M15">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:18">
+      <c r="A16">
         <v>1002</v>
       </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
         <v>18</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>100</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
         <v>1003</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>-1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1004</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
       </c>
       <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1004</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18">
         <v>14</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>10</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:18">
+      <c r="A19">
         <v>1005</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18">
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19">
         <v>15</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>-1</v>
-      </c>
-      <c r="N18">
-        <v>1006</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1006</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
       <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+      <c r="N19">
+        <v>1006</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>1006</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="J20">
         <v>0.3</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
         <v>1007</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20">
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
         <v>24</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="M20">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>-1</v>
       </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
         <v>1013</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21">
-        <v>31</v>
-      </c>
-      <c r="O21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1014</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <v>31</v>
       </c>
       <c r="O22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>1014</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="O23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
         <v>1009</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>1010</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>1011</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>1012</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>2000</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="N28">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>2001</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <v>29</v>
+      </c>
+      <c r="O29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>2002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>2000</v>
+      </c>
+      <c r="N30">
+        <v>2001</v>
+      </c>
+      <c r="O30">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>2003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
+        <v>2004</v>
+      </c>
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="F23">
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>2005</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33">
         <v>19</v>
       </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1010</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24">
-        <v>25</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1011</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>2006</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34">
+        <v>26</v>
+      </c>
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1012</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="J34">
         <v>2000</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27">
-        <v>19</v>
-      </c>
-      <c r="J27">
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>2007</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35">
         <v>30</v>
       </c>
-      <c r="N27">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2001</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28">
+      <c r="O35">
         <v>29</v>
       </c>
-      <c r="O28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2002</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>2000</v>
-      </c>
-      <c r="N29">
-        <v>2001</v>
-      </c>
-      <c r="O29">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2003</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2004</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2005</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32">
-        <v>19</v>
-      </c>
-      <c r="J32">
-        <v>30</v>
-      </c>
-      <c r="N32">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2006</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33">
-        <v>26</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="J33">
-        <v>2000</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2007</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34">
-        <v>30</v>
-      </c>
-      <c r="O34">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -456,7 +456,7 @@
     <t>炽热刺激-受伤回复</t>
   </si>
   <si>
-    <t>格挡</t>
+    <t>格挡4</t>
   </si>
   <si>
     <t>吸收{0}点伤害，持续2秒。</t>
@@ -490,6 +490,9 @@
     <t>格挡2</t>
   </si>
   <si>
+    <t>格挡6</t>
+  </si>
+  <si>
     <t>复活</t>
   </si>
   <si>
@@ -514,7 +517,7 @@
     <t>气定神闲</t>
   </si>
   <si>
-    <t>所有卡牌的能量消耗降低2点,持续5秒。</t>
+    <t>所有卡牌的能量消耗降低2点,持续6秒。</t>
   </si>
   <si>
     <t>爆</t>
@@ -640,16 +643,19 @@
   <si>
     <t>当生命值小于25%时击晕对手</t>
   </si>
+  <si>
+    <t>每当获得护甲时，造成6点伤害</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -667,8 +673,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,38 +715,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,14 +740,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -743,7 +747,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,18 +793,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -789,30 +816,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,187 +844,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,11 +1038,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,23 +1071,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,6 +1088,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,15 +1127,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1132,148 +1138,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1608,16 +1614,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="70.5" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
@@ -1849,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2048,106 +2054,106 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="F14">
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
         <v>12</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>0.3</v>
       </c>
-      <c r="L14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
         <v>1001</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16">
-        <v>1002</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="F16">
-        <v>18</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
       <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>1003</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2155,212 +2161,218 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
+        <v>1003</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
         <v>1004</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>14</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>10</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:18">
-      <c r="A19">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
         <v>1005</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>15</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>-1</v>
-      </c>
-      <c r="N19">
-        <v>1006</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <v>1006</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20">
-        <v>16</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="J20">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>-1</v>
+      </c>
+      <c r="N20">
+        <v>1006</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0.3</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>1007</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>24</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="M21">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>-1</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22">
-        <v>1013</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22">
-        <v>31</v>
-      </c>
-      <c r="O22">
-        <v>30</v>
+      <c r="R22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>31</v>
       </c>
       <c r="O23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>1014</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
+      <c r="O24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
         <v>1009</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24">
-        <v>19</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
-        <v>1010</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
       </c>
       <c r="F25">
-        <v>25</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
       <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2368,197 +2380,250 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
+        <v>1011</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
         <v>1012</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28">
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
         <v>2000</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28">
+      <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29">
         <v>19</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>8</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>2002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29">
-        <v>2001</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29">
-        <v>29</v>
-      </c>
-      <c r="O29">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
-        <v>2002</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
+        <v>2001</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C30" t="s">
         <v>93</v>
       </c>
       <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="O30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>2002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31">
         <v>5</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>2000</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>2001</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>2004</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
+    <row r="32" spans="1:5">
+      <c r="A32">
         <v>2003</v>
       </c>
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B32" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
         <v>52</v>
       </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32">
-        <v>2004</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>2006</v>
+      <c r="E32" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
+        <v>2004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
         <v>2005</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33">
+      <c r="E34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34">
         <v>19</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>8</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>2001</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34">
+    <row r="35" spans="1:13">
+      <c r="A35">
         <v>2006</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F34">
+      <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35">
         <v>26</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>3</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>2000</v>
       </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35">
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
         <v>2007</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F35">
+      <c r="C36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36">
         <v>30</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>29</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:15">
+      <c r="A37">
+        <v>2008</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -570,6 +570,24 @@
   </si>
   <si>
     <t>每当成功格挡时，随机从牌堆抽一张牌</t>
+  </si>
+  <si>
+    <t>自然转化器</t>
+  </si>
+  <si>
+    <t>成功格挡时，回复2点生命</t>
+  </si>
+  <si>
+    <t>电能装甲</t>
+  </si>
+  <si>
+    <t>成功格挡时，造成5点伤害</t>
+  </si>
+  <si>
+    <t>锯齿护臂</t>
+  </si>
+  <si>
+    <t>成功格挡时，造成2点伤害</t>
   </si>
   <si>
     <t>破釜沉舟</t>
@@ -673,8 +691,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,22 +720,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,38 +736,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,25 +751,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,11 +773,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,9 +835,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,187 +862,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,15 +1086,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1095,6 +1104,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1103,9 +1121,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,159 +1147,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,10 +1632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2043,7 +2061,7 @@
         <v>37</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -2335,294 +2353,344 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" customFormat="1" spans="1:15">
       <c r="A25">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F25">
-        <v>19</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="O25" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:15">
       <c r="A26">
-        <v>1010</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F26">
-        <v>25</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="O26" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:15">
       <c r="A27">
-        <v>1011</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="O27" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>52</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
-        <v>2000</v>
+        <v>1010</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>1011</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29">
-        <v>19</v>
-      </c>
-      <c r="J29">
-        <v>8</v>
-      </c>
-      <c r="N29">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30">
-        <v>2001</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>1012</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F30">
-        <v>29</v>
-      </c>
-      <c r="O30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31">
-        <v>2002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
       </c>
       <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32">
+        <v>19</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>2001</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33">
+        <v>29</v>
+      </c>
+      <c r="O33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>2002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34">
         <v>5</v>
       </c>
-      <c r="J31">
+      <c r="J34">
         <v>2000</v>
-      </c>
-      <c r="N31">
-        <v>2001</v>
-      </c>
-      <c r="O31">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>2003</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33">
-        <v>2004</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34">
-        <v>2005</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34">
-        <v>19</v>
-      </c>
-      <c r="J34">
-        <v>8</v>
       </c>
       <c r="N34">
         <v>2001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="O34">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>2006</v>
-      </c>
-      <c r="B35" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B35" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F35">
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>2004</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>2005</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37">
+        <v>19</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="N37">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>2006</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38">
         <v>26</v>
       </c>
-      <c r="G35">
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="J35">
+      <c r="J38">
         <v>2000</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36">
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
         <v>2007</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36">
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39">
         <v>30</v>
       </c>
-      <c r="O36">
+      <c r="O39">
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:15">
-      <c r="A37">
+    <row r="40" customFormat="1" spans="1:15">
+      <c r="A40">
         <v>2008</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37">
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40">
         <v>29</v>
       </c>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37">
+      <c r="O40">
         <v>34</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -490,7 +490,7 @@
     <t>格挡2</t>
   </si>
   <si>
-    <t>格挡6</t>
+    <t>格挡5</t>
   </si>
   <si>
     <t>复活</t>
@@ -590,6 +590,12 @@
     <t>成功格挡时，造成2点伤害</t>
   </si>
   <si>
+    <t>强化动能回收装置</t>
+  </si>
+  <si>
+    <t>每当成功格挡时，回复1.5点能量</t>
+  </si>
+  <si>
     <t>破釜沉舟</t>
   </si>
   <si>
@@ -660,6 +666,9 @@
   </si>
   <si>
     <t>当生命值小于25%时击晕对手</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成4点伤害</t>
   </si>
   <si>
     <t>每当获得护甲时，造成6点伤害</t>
@@ -691,23 +700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -720,9 +714,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,22 +743,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,14 +752,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,7 +766,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,8 +780,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,14 +836,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -829,14 +845,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,187 +871,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,6 +1095,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1097,35 +1115,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,152 +1138,172 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1632,10 +1641,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2093,7 +2102,7 @@
         <v>37</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>-1</v>
@@ -2413,32 +2422,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" customFormat="1" spans="1:15">
       <c r="A28">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>19</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="O28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>89</v>
@@ -2450,33 +2456,30 @@
         <v>52</v>
       </c>
       <c r="F29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2484,7 +2487,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>93</v>
@@ -2493,15 +2496,24 @@
         <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:13">
       <c r="A32">
-        <v>2000</v>
+        <v>1012</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>95</v>
@@ -2510,159 +2522,153 @@
         <v>96</v>
       </c>
       <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32">
+      <c r="E33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33">
         <v>19</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>8</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>2002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33">
-        <v>2001</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33">
-        <v>29</v>
-      </c>
-      <c r="O33">
-        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
+        <v>2001</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34">
+        <v>29</v>
+      </c>
+      <c r="O34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
         <v>2002</v>
       </c>
-      <c r="B34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="F34">
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35">
         <v>5</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>2000</v>
       </c>
-      <c r="N34">
+      <c r="N35">
         <v>2001</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>2004</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
+    <row r="36" spans="1:5">
+      <c r="A36">
         <v>2003</v>
       </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36">
-        <v>2004</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>2006</v>
+      <c r="E36" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
+        <v>2004</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
         <v>2005</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37">
+      <c r="E38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38">
         <v>19</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>8</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>2001</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38">
+    <row r="39" spans="1:13">
+      <c r="A39">
         <v>2006</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38">
-        <v>26</v>
-      </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-      <c r="J38">
-        <v>2000</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39">
-        <v>2007</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>109</v>
@@ -2671,27 +2677,67 @@
         <v>110</v>
       </c>
       <c r="F39">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>2000</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>2007</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40">
         <v>30</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>29</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:15">
-      <c r="A40">
+    <row r="41" customFormat="1" spans="1:15">
+      <c r="A41">
         <v>2008</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40">
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41">
         <v>29</v>
       </c>
-      <c r="O40">
+      <c r="O41">
         <v>34</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:15">
+      <c r="A42">
+        <v>2009</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42">
+        <v>29</v>
+      </c>
+      <c r="O42">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>格挡5</t>
+  </si>
+  <si>
+    <t>格挡1</t>
   </si>
   <si>
     <t>复活</t>
@@ -707,8 +710,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,8 +733,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,6 +749,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -743,7 +771,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,6 +788,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,14 +817,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -788,21 +839,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -811,41 +847,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,187 +874,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,17 +1068,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,23 +1095,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,8 +1118,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1146,19 +1130,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,10 +1171,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1180,133 +1183,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,13 +1644,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -2113,106 +2116,106 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="F15">
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>0.3</v>
       </c>
-      <c r="L15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
+      <c r="L16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
         <v>1001</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17">
-        <v>1002</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="F17">
-        <v>18</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>1003</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -2220,25 +2223,31 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2246,131 +2255,137 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
+        <v>1004</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
         <v>1005</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>15</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>-1</v>
-      </c>
-      <c r="N20">
-        <v>1006</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
-        <v>1006</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21">
-        <v>16</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
       <c r="J21">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>-1</v>
+      </c>
+      <c r="N21">
+        <v>1006</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>0.3</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>1007</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>24</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="M22">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>-1</v>
       </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23">
-        <v>1013</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23">
-        <v>31</v>
-      </c>
-      <c r="O23">
-        <v>30</v>
+      <c r="R23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>31</v>
       </c>
       <c r="O24">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -2378,19 +2393,19 @@
       <c r="F25">
         <v>31</v>
       </c>
-      <c r="O25" s="1">
-        <v>35</v>
+      <c r="O25">
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:15">
       <c r="A26">
-        <v>1016</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -2399,18 +2414,18 @@
         <v>31</v>
       </c>
       <c r="O26" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:15">
       <c r="A27">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -2419,93 +2434,87 @@
         <v>31</v>
       </c>
       <c r="O27" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:15">
       <c r="A28">
-        <v>1018</v>
-      </c>
-      <c r="B28" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F28">
         <v>31</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:15">
+      <c r="A29">
+        <v>1018</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>31</v>
+      </c>
+      <c r="O29">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
+    <row r="30" spans="1:10">
+      <c r="A30">
         <v>1009</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29">
-        <v>19</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30">
-        <v>1010</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
       </c>
       <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
       <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2513,219 +2522,228 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
+        <v>1011</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
         <v>1012</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
         <v>46</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
         <v>2000</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33">
+      <c r="E34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34">
         <v>19</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>8</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>2002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34">
-        <v>2001</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34">
-        <v>29</v>
-      </c>
-      <c r="O34">
-        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35">
-        <v>2002</v>
-      </c>
-      <c r="B35" t="s">
-        <v>100</v>
+        <v>2001</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C35" t="s">
         <v>102</v>
       </c>
       <c r="F35">
+        <v>29</v>
+      </c>
+      <c r="O35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>2002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36">
         <v>5</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>2000</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>2001</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>2004</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
+    <row r="37" spans="1:5">
+      <c r="A37">
         <v>2003</v>
       </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B37" t="s">
         <v>104</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="E36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37">
-        <v>2004</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>2006</v>
+      <c r="E37" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
+        <v>2004</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
         <v>2005</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38">
+      <c r="E39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39">
         <v>19</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>8</v>
       </c>
-      <c r="N38">
+      <c r="N39">
         <v>2001</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
+    <row r="40" spans="1:13">
+      <c r="A40">
         <v>2006</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F39">
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40">
         <v>26</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>3</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>2000</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
         <v>2007</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F40">
+      <c r="C41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41">
         <v>30</v>
       </c>
-      <c r="O40">
+      <c r="O41">
         <v>29</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:15">
-      <c r="A41">
-        <v>2008</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41">
-        <v>29</v>
-      </c>
-      <c r="O41">
-        <v>34</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:15">
       <c r="A42">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>35</v>
@@ -2737,6 +2755,23 @@
         <v>29</v>
       </c>
       <c r="O42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:15">
+      <c r="A43">
+        <v>2009</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43">
+        <v>29</v>
+      </c>
+      <c r="O43">
         <v>39</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEABEEED-C4C5-4F94-B628-46D21CF54EE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -676,18 +682,20 @@
   <si>
     <t>每当获得护甲时，造成6点伤害</t>
   </si>
+  <si>
+    <t>死亡倒计时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30秒后自动死亡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,157 +711,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -864,202 +721,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1067,251 +744,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1326,61 +761,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1638,19 +1029,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1666,7 +1057,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1775,7 +1166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1798,7 +1189,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1836,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1865,7 +1256,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1894,7 +1285,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1917,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1946,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1969,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1992,7 +1383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2024,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2050,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2082,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2114,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2146,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -2175,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1001</v>
       </c>
@@ -2192,7 +1583,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1002</v>
       </c>
@@ -2221,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1003</v>
       </c>
@@ -2253,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -2279,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -2311,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1006</v>
       </c>
@@ -2331,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1007</v>
       </c>
@@ -2357,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1013</v>
       </c>
@@ -2377,7 +1768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1014</v>
       </c>
@@ -2397,7 +1788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1015</v>
       </c>
@@ -2417,7 +1808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1016</v>
       </c>
@@ -2437,7 +1828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1017</v>
       </c>
@@ -2457,7 +1848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1018</v>
       </c>
@@ -2477,7 +1868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1009</v>
       </c>
@@ -2500,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1010</v>
       </c>
@@ -2520,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1011</v>
       </c>
@@ -2546,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1012</v>
       </c>
@@ -2563,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2000</v>
       </c>
@@ -2589,7 +1980,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2001</v>
       </c>
@@ -2606,7 +1997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2002</v>
       </c>
@@ -2629,7 +2020,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2003</v>
       </c>
@@ -2646,7 +2037,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2004</v>
       </c>
@@ -2675,7 +2066,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2005</v>
       </c>
@@ -2701,7 +2092,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2006</v>
       </c>
@@ -2724,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2007</v>
       </c>
@@ -2741,7 +2132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2008</v>
       </c>
@@ -2758,7 +2149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2009</v>
       </c>
@@ -2775,10 +2166,33 @@
         <v>39</v>
       </c>
     </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2010</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>27</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="O44">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEABEEED-C4C5-4F94-B628-46D21CF54EE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -462,7 +456,7 @@
     <t>炽热刺激-受伤回复</t>
   </si>
   <si>
-    <t>格挡4</t>
+    <t>格挡2</t>
   </si>
   <si>
     <t>吸收{0}点伤害，持续2秒。</t>
@@ -493,10 +487,7 @@
     </r>
   </si>
   <si>
-    <t>格挡2</t>
-  </si>
-  <si>
-    <t>格挡5</t>
+    <t>格挡3</t>
   </si>
   <si>
     <t>格挡1</t>
@@ -684,18 +675,22 @@
   </si>
   <si>
     <t>死亡倒计时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>30秒后自动死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,6 +706,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -721,22 +860,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -744,9 +1063,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -761,17 +1322,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1029,19 +1634,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1057,7 +1662,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1166,7 +1771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1189,7 +1794,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1227,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1256,7 +1861,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1285,7 +1890,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1308,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1337,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1360,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1383,7 +1988,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1406,7 +2011,7 @@
         <v>37</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1415,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1441,12 +2046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -1473,12 +2078,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
@@ -1496,7 +2101,7 @@
         <v>37</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14">
         <v>-1</v>
@@ -1505,12 +2110,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>56</v>
@@ -1537,15 +2142,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>100</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F16">
         <v>12</v>
@@ -1554,7 +2159,7 @@
         <v>0.3</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1566,15 +2171,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1001</v>
       </c>
       <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
@@ -1583,15 +2188,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1002</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1612,15 +2217,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>1003</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
@@ -1644,15 +2249,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>1004</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
@@ -1670,15 +2275,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>1005</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -1702,12 +2307,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1006</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>16</v>
@@ -1722,15 +2327,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1007</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
@@ -1748,15 +2353,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>1013</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -1768,15 +2373,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>1014</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -1788,15 +2393,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>1015</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -1808,15 +2413,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1016</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1828,15 +2433,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>1017</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -1848,15 +2453,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>1018</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
@@ -1868,15 +2473,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1009</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
@@ -1891,15 +2496,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1010</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D31" t="s">
         <v>52</v>
@@ -1911,15 +2516,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1011</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
@@ -1937,15 +2542,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1012</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -1954,41 +2559,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>2000</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34">
         <v>19</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>2002</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>2001</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
       </c>
       <c r="F35">
         <v>29</v>
@@ -1997,15 +2602,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>2002</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -2020,24 +2625,24 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2003</v>
       </c>
       <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>2004</v>
       </c>
@@ -2057,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2066,21 +2671,21 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>2005</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -2092,15 +2697,15 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>2006</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F40">
         <v>26</v>
@@ -2115,15 +2720,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>2007</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F41">
         <v>30</v>
@@ -2132,7 +2737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>2008</v>
       </c>
@@ -2140,7 +2745,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42">
         <v>29</v>
@@ -2149,7 +2754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>2009</v>
       </c>
@@ -2157,7 +2762,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43">
         <v>29</v>
@@ -2166,15 +2771,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>2010</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
@@ -2190,9 +2795,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -668,16 +668,16 @@
     <t>当生命值小于25%时击晕对手</t>
   </si>
   <si>
+    <t>每当获得护甲时，造成2点伤害</t>
+  </si>
+  <si>
     <t>每当获得护甲时，造成4点伤害</t>
   </si>
   <si>
-    <t>每当获得护甲时，造成6点伤害</t>
-  </si>
-  <si>
     <t>死亡倒计时</t>
   </si>
   <si>
-    <t>30秒后自动死亡</t>
+    <t>18秒后自动死亡</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -706,23 +706,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,15 +723,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,30 +788,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,23 +829,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,22 +837,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,19 +870,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,157 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,11 +1064,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,6 +1090,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,30 +1151,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1167,10 +1167,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,133 +1179,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C35" sqref="$A35:$XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2788,7 +2788,7 @@
         <v>27</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O44">
         <v>1500</v>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E22BD90-4E0B-47EF-BD7C-99BA989F23FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,8 +94,8 @@
 昏迷 =1,
 间隔释放技能=2,
 (可用于持续伤害/治疗）
-影响急速 =3,
-影响暴击 =4,
+影响攻击力 =3,
+影响防御力 =4,
 失去所有护甲后增减buff =5,
 （value=要移除的buff,abilityID=要添加的buff)
 百分比增减受到的伤害 =6,
@@ -99,30 +105,64 @@
 百分比反弹受到的伤害=10,
 数值反弹受到的伤害=11,
 死亡后复活并恢复百分比生命=12,
-吸收一定数量的伤害=13,
+百分比</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>影响护甲值（仅在触发时生效一次）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=13,
 影响召唤物持续时间 =14,
 影响召唤物强度 =15,
 影响召唤物攻速=16,
 影响暴击增益 =17,
 影响闪避 =18,
-数值吸收伤害 =19,
+数值吸收伤害（护甲） =19,
 百分比吸收伤害 =20,
 数值受伤回复 =21,
 影响全局能量消耗=22,
-百分比影响暴击 =23,
+影响暴击率 =23,
 影响补牌数量 =24,
 影响护甲持续时间 =25,
 （护甲持续时间默认2秒，0=无限时间，其余 x: 持续时间变为2+x秒）
 效果结束时获得buff =26,
 效果结束时释放技能 =27,
-百分比影响闪避 =28,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>-----------</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> =28,
 获得护甲后触发技能 =29
 当生命小于25%时触发技能=30，
 成功格挡后触发技能 =31</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +224,19 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>幻月:</t>
+          <t xml:space="preserve">幻月:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">-1=最大1层，且相同BUFF拥有独立的icon，不会叠加显示也不会顶替显示
+</t>
         </r>
         <r>
           <rPr>
@@ -193,11 +245,21 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 =无限叠加</t>
+0 =无限叠加
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=最大1层，获得相同buff后刷新持续时间</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -587,110 +649,178 @@
     <t>锯齿护臂</t>
   </si>
   <si>
+    <t>强化动能回收装置</t>
+  </si>
+  <si>
+    <t>每当成功格挡时，回复1.5点能量</t>
+  </si>
+  <si>
+    <t>破釜沉舟</t>
+  </si>
+  <si>
+    <t>每层获得4点护甲</t>
+  </si>
+  <si>
+    <t>不屈之盾</t>
+  </si>
+  <si>
+    <t>护甲的持续时间变为无限</t>
+  </si>
+  <si>
+    <t>震撼登场</t>
+  </si>
+  <si>
+    <t>进入战斗后昏迷敌人3秒</t>
+  </si>
+  <si>
+    <t>樱桃罐头</t>
+  </si>
+  <si>
+    <t>激怒</t>
+  </si>
+  <si>
+    <t>获得大量护甲,每当获得护甲便对敌人造成1点穿刺伤害,失去所有护甲后会昏迷3秒。</t>
+  </si>
+  <si>
+    <t>Effect_common_angry_01</t>
+  </si>
+  <si>
+    <t>AI-巨石国王</t>
+  </si>
+  <si>
+    <t>获得护甲触发技能</t>
+  </si>
+  <si>
+    <t>失去所有护甲后获得昏迷buff</t>
+  </si>
+  <si>
+    <t>疑惑</t>
+  </si>
+  <si>
+    <t>一脸懵逼,不知道发生了甚么事……</t>
+  </si>
+  <si>
+    <t>Effect_doubt</t>
+  </si>
+  <si>
+    <t>非常愤怒！</t>
+  </si>
+  <si>
+    <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
+  </si>
+  <si>
+    <t>Effect_common_angry_02</t>
+  </si>
+  <si>
+    <t>昏迷后激怒</t>
+  </si>
+  <si>
+    <t>效果结束时获得【激怒】Buff</t>
+  </si>
+  <si>
+    <t>击晕玩家</t>
+  </si>
+  <si>
+    <t>当生命值小于25%时击晕对手</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成2点伤害</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成4点伤害</t>
+  </si>
+  <si>
+    <t>死亡倒计时</t>
+  </si>
+  <si>
+    <t>18秒后自动死亡</t>
+  </si>
+  <si>
+    <t>兴奋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次补牌时恢复1点生命值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>成功格挡时，造成2点伤害</t>
-  </si>
-  <si>
-    <t>强化动能回收装置</t>
-  </si>
-  <si>
-    <t>每当成功格挡时，回复1.5点能量</t>
-  </si>
-  <si>
-    <t>破釜沉舟</t>
-  </si>
-  <si>
-    <t>每层获得4点护甲</t>
-  </si>
-  <si>
-    <t>不屈之盾</t>
-  </si>
-  <si>
-    <t>护甲的持续时间变为无限</t>
-  </si>
-  <si>
-    <t>震撼登场</t>
-  </si>
-  <si>
-    <t>进入战斗后昏迷敌人3秒</t>
-  </si>
-  <si>
-    <t>樱桃罐头</t>
-  </si>
-  <si>
-    <t>每次补牌时恢复2点生命值</t>
-  </si>
-  <si>
-    <t>激怒</t>
-  </si>
-  <si>
-    <t>获得大量护甲,每当获得护甲便对敌人造成1点穿刺伤害,失去所有护甲后会昏迷3秒。</t>
-  </si>
-  <si>
-    <t>Effect_common_angry_01</t>
-  </si>
-  <si>
-    <t>AI-巨石国王</t>
-  </si>
-  <si>
-    <t>获得护甲触发技能</t>
-  </si>
-  <si>
-    <t>失去所有护甲后获得昏迷buff</t>
-  </si>
-  <si>
-    <t>疑惑</t>
-  </si>
-  <si>
-    <t>一脸懵逼,不知道发生了甚么事……</t>
-  </si>
-  <si>
-    <t>Effect_doubt</t>
-  </si>
-  <si>
-    <t>非常愤怒！</t>
-  </si>
-  <si>
-    <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
-  </si>
-  <si>
-    <t>Effect_common_angry_02</t>
-  </si>
-  <si>
-    <t>昏迷后激怒</t>
-  </si>
-  <si>
-    <t>效果结束时获得【激怒】Buff</t>
-  </si>
-  <si>
-    <t>击晕玩家</t>
-  </si>
-  <si>
-    <t>当生命值小于25%时击晕对手</t>
-  </si>
-  <si>
-    <t>每当获得护甲时，造成2点伤害</t>
-  </si>
-  <si>
-    <t>每当获得护甲时，造成4点伤害</t>
-  </si>
-  <si>
-    <t>死亡倒计时</t>
-  </si>
-  <si>
-    <t>18秒后自动死亡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于兴奋状态下时,你的一些技能会得到增强。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忏悔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层降低10%造成的伤害,最多叠加5层，持续10秒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除护甲-效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义宣言</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提升40%,持续10秒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力上升</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提升1点,持续6秒；可叠加</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气化身</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提高3点，持续10秒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇斗篷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋面罩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当暴击便回复1点生命值。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提升10%，暴击后会获得[兴奋]状态，持续10秒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,150 +836,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -860,8 +846,50 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -870,192 +898,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1063,253 +911,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1321,62 +927,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1634,26 +1201,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="$A35:$XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="9" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="7" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
@@ -1662,7 +1230,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1255,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1718,7 +1286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +1308,7 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
@@ -1771,7 +1339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1784,7 +1352,7 @@
       <c r="F3">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="M3">
@@ -1794,7 +1362,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1816,7 +1384,7 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J4">
@@ -1832,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1848,7 +1416,7 @@
       <c r="G5">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J5">
@@ -1861,7 +1429,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1890,7 +1458,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1913,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1932,7 +1500,7 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J8">
@@ -1942,7 +1510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1965,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1975,7 +1543,7 @@
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="M10">
@@ -1988,7 +1556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2007,7 +1575,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J11">
@@ -2020,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2046,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2065,7 +1633,7 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J13">
@@ -2078,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2097,7 +1665,7 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J14">
@@ -2110,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2129,7 +1697,7 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J15">
@@ -2142,306 +1710,339 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>100</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F16">
+      <c r="F19">
         <v>12</v>
       </c>
-      <c r="J16">
+      <c r="J19">
         <v>0.3</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L19" t="s">
         <v>63</v>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>1001</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18">
-        <v>1002</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18">
-        <v>18</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19">
-        <v>1003</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19">
-        <v>22</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>-1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20">
-        <v>1004</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="F20">
-        <v>14</v>
-      </c>
-      <c r="J20">
-        <v>10</v>
-      </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1005</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>1002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1003</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>-1</v>
       </c>
-      <c r="N21">
-        <v>1006</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
-        <v>1006</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>0.3</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
       <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1005</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>-1</v>
+      </c>
+      <c r="N24">
+        <v>1006</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1006</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>0.3</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1007</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26">
         <v>24</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="M23">
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="M26">
         <v>-1</v>
       </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24">
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>1013</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
         <v>40</v>
-      </c>
-      <c r="F24">
-        <v>31</v>
-      </c>
-      <c r="O24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25">
-        <v>1014</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25">
-        <v>31</v>
-      </c>
-      <c r="O25">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26">
-        <v>1015</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26">
-        <v>31</v>
-      </c>
-      <c r="O26" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27">
-        <v>1016</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
       </c>
       <c r="F27">
         <v>31</v>
       </c>
-      <c r="O27" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="M27">
+        <v>-1</v>
+      </c>
+      <c r="O27">
+        <v>30</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1017</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>1014</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -2449,355 +2050,622 @@
       <c r="F28">
         <v>31</v>
       </c>
-      <c r="O28" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="M28">
+        <v>-1</v>
+      </c>
+      <c r="O28">
+        <v>31</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F29">
         <v>31</v>
       </c>
-      <c r="O29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>35</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1009</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>1016</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F30">
-        <v>19</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="M30">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>36</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1010</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>1017</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>37</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>-1</v>
+      </c>
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1009</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1010</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1011</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>3</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33">
+      <c r="M35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>1012</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
         <v>46</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34">
-        <v>2000</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34">
-        <v>19</v>
-      </c>
-      <c r="J34">
-        <v>9</v>
-      </c>
-      <c r="N34">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35">
-        <v>2001</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35">
-        <v>29</v>
-      </c>
-      <c r="O35">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36">
-        <v>2002</v>
-      </c>
-      <c r="B36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="J36">
-        <v>2000</v>
-      </c>
-      <c r="N36">
-        <v>2001</v>
-      </c>
-      <c r="O36">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="M36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2003</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>1023</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="E37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2004</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
+        <v>1024</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2005</v>
+        <v>1025</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>-0.1</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1026</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1027</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39">
-        <v>19</v>
-      </c>
-      <c r="J39">
-        <v>8</v>
-      </c>
-      <c r="N39">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40">
-        <v>2006</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40">
-        <v>26</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="J40">
+      <c r="F41">
+        <v>23</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>-1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1028</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>23</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>-1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1029</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>2000</v>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41">
-        <v>2007</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41">
-        <v>30</v>
-      </c>
-      <c r="O41">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42">
-        <v>2008</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42">
-        <v>29</v>
-      </c>
-      <c r="O42">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43">
-        <v>2009</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43">
-        <v>29</v>
-      </c>
-      <c r="O43">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44">
-        <v>2010</v>
-      </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F44">
+        <v>19</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="N44">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2001</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45">
+        <v>29</v>
+      </c>
+      <c r="O45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2002</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>2000</v>
+      </c>
+      <c r="N46">
+        <v>2001</v>
+      </c>
+      <c r="O46">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2003</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2004</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2005</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49">
+        <v>19</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="N49">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2006</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50">
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>2000</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2007</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="O51">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2008</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52">
+        <v>29</v>
+      </c>
+      <c r="O52">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2009</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53">
+        <v>29</v>
+      </c>
+      <c r="O53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2010</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
         <v>27</v>
       </c>
-      <c r="G44">
+      <c r="G54">
         <v>18</v>
       </c>
-      <c r="O44">
+      <c r="O54">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E22BD90-4E0B-47EF-BD7C-99BA989F23FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,24 +99,7 @@
 百分比反弹受到的伤害=10,
 数值反弹受到的伤害=11,
 死亡后复活并恢复百分比生命=12,
-百分比</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>影响护甲值（仅在触发时生效一次）</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">=13,
+百分比影响护甲值（仅在触发时生效一次）=13,
 影响召唤物持续时间 =14,
 影响召唤物强度 =15,
 影响召唤物攻速=16,
@@ -138,31 +115,14 @@
 （护甲持续时间默认2秒，0=无限时间，其余 x: 持续时间变为2+x秒）
 效果结束时获得buff =26,
 效果结束时释放技能 =27,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>-----------</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> =28,
+----------- =28,
 获得护甲后触发技能 =29
 当生命小于25%时触发技能=30，
 成功格挡后触发技能 =31</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,17 +185,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">幻月:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">-1=最大1层，且相同BUFF拥有独立的icon，不会叠加显示也不会顶替显示
+-1=最大1层，且相同BUFF拥有独立的icon，不会叠加显示也不会顶替显示
 </t>
         </r>
         <r>
@@ -246,20 +196,11 @@
           </rPr>
           <t xml:space="preserve">
 0 =无限叠加
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=最大1层，获得相同buff后刷新持续时间</t>
+1=最大1层，获得相同buff后刷新持续时间</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -555,6 +496,21 @@
     <t>格挡1</t>
   </si>
   <si>
+    <t>格挡4</t>
+  </si>
+  <si>
+    <t>攻击力上升</t>
+  </si>
+  <si>
+    <t>攻击力提升1点,持续6秒；可叠加</t>
+  </si>
+  <si>
+    <t>勇气化身</t>
+  </si>
+  <si>
+    <t>攻击力提高3点，持续10秒</t>
+  </si>
+  <si>
     <t>复活</t>
   </si>
   <si>
@@ -649,6 +605,9 @@
     <t>锯齿护臂</t>
   </si>
   <si>
+    <t>成功格挡时，造成2点伤害</t>
+  </si>
+  <si>
     <t>强化动能回收装置</t>
   </si>
   <si>
@@ -676,6 +635,51 @@
     <t>樱桃罐头</t>
   </si>
   <si>
+    <t>每次补牌时恢复1点生命值</t>
+  </si>
+  <si>
+    <t>兴奋</t>
+  </si>
+  <si>
+    <t>处于兴奋状态下时,你的一些技能会得到增强。</t>
+  </si>
+  <si>
+    <t>水晶剑</t>
+  </si>
+  <si>
+    <t>暴击率提升10%，暴击后会获得[兴奋]状态，持续10秒</t>
+  </si>
+  <si>
+    <t>忏悔</t>
+  </si>
+  <si>
+    <t>每层降低10%造成的伤害,最多叠加5层，持续15秒</t>
+  </si>
+  <si>
+    <t>Effect_doubt</t>
+  </si>
+  <si>
+    <t>消除护甲-效果</t>
+  </si>
+  <si>
+    <t>正义宣言</t>
+  </si>
+  <si>
+    <t>暴击率提升40%,持续10秒</t>
+  </si>
+  <si>
+    <t>英勇斗篷</t>
+  </si>
+  <si>
+    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
+  </si>
+  <si>
+    <t>冲锋面罩</t>
+  </si>
+  <si>
+    <t>每当暴击便回复1点生命值。</t>
+  </si>
+  <si>
     <t>激怒</t>
   </si>
   <si>
@@ -700,9 +704,6 @@
     <t>一脸懵逼,不知道发生了甚么事……</t>
   </si>
   <si>
-    <t>Effect_doubt</t>
-  </si>
-  <si>
     <t>非常愤怒！</t>
   </si>
   <si>
@@ -733,94 +734,20 @@
     <t>死亡倒计时</t>
   </si>
   <si>
-    <t>18秒后自动死亡</t>
-  </si>
-  <si>
-    <t>兴奋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次补牌时恢复1点生命值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功格挡时，造成2点伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>处于兴奋状态下时,你的一些技能会得到增强。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>忏悔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每层降低10%造成的伤害,最多叠加5层，持续10秒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除护甲-效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>正义宣言</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率提升40%,持续10秒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力上升</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力提升1点,持续6秒；可叠加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气化身</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力提高3点，持续10秒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>英勇斗篷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋面罩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当暴击便回复1点生命值。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率提升10%，暴击后会获得[兴奋]状态，持续10秒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>15秒后自动死亡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +763,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -846,50 +917,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,8 +931,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -911,12 +1126,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -927,23 +1385,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1201,19 +1698,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1221,7 +1718,7 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
@@ -1230,7 +1727,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1752,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1273,7 +1770,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1286,7 +1783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1805,7 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
@@ -1339,20 +1836,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M3">
@@ -1362,14 +1859,14 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -1384,7 +1881,7 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J4">
@@ -1400,14 +1897,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F5">
@@ -1416,7 +1913,7 @@
       <c r="G5">
         <v>15</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J5">
@@ -1429,14 +1926,14 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
@@ -1458,14 +1955,14 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
@@ -1481,14 +1978,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -1500,7 +1997,7 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J8">
@@ -1510,14 +2007,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
@@ -1533,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1543,7 +2040,7 @@
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="M10">
@@ -1556,7 +2053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1575,7 +2072,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J11">
@@ -1588,11 +2085,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -1601,7 +2098,7 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F12">
@@ -1614,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1633,7 +2130,7 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J13">
@@ -1646,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1665,7 +2162,7 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J14">
@@ -1678,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1697,7 +2194,7 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J15">
@@ -1710,12 +2207,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>125</v>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
@@ -1729,11 +2226,11 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -1742,15 +2239,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>127</v>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -1768,15 +2265,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>129</v>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -1797,15 +2294,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -1814,7 +2311,7 @@
         <v>0.3</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1826,15 +2323,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1001</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
@@ -1843,15 +2340,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>1002</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
@@ -1872,15 +2369,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>1003</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
@@ -1904,15 +2401,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1004</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
@@ -1930,15 +2427,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1005</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>73</v>
+      <c r="B24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -1962,12 +2459,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>1006</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F25">
         <v>16</v>
@@ -1982,15 +2479,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1007</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>76</v>
+      <c r="B26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -2008,15 +2505,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>1013</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>78</v>
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
@@ -2034,15 +2531,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>1014</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>80</v>
+      <c r="B28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -2060,15 +2557,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1015</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>82</v>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -2079,22 +2576,22 @@
       <c r="M29">
         <v>-1</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="2">
         <v>35</v>
       </c>
       <c r="R29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1016</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>84</v>
+      <c r="B30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -2105,22 +2602,22 @@
       <c r="M30">
         <v>-1</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="2">
         <v>36</v>
       </c>
       <c r="R30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1017</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>117</v>
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -2131,22 +2628,22 @@
       <c r="M31">
         <v>-1</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="2">
         <v>37</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1018</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>87</v>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
@@ -2164,15 +2661,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1009</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>89</v>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -2187,15 +2684,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1010</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>91</v>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D34" t="s">
         <v>52</v>
@@ -2210,20 +2707,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>1011</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>92</v>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F35">
@@ -2236,15 +2733,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>1012</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>116</v>
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -2253,15 +2750,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>1023</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>118</v>
+      <c r="B37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
@@ -2273,15 +2770,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>1024</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>134</v>
+      <c r="B38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -2299,27 +2796,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>1025</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>120</v>
+      <c r="B39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D39" t="s">
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F39">
         <v>7</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J39">
         <v>-0.1</v>
@@ -2331,14 +2828,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>1026</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="5"/>
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="F40">
         <v>13</v>
       </c>
@@ -2352,15 +2849,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1027</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>124</v>
+      <c r="B41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D41" t="s">
         <v>40</v>
@@ -2381,15 +2878,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1028</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>132</v>
+      <c r="B42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D42" t="s">
         <v>40</v>
@@ -2407,15 +2904,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1029</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>133</v>
+      <c r="B43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
@@ -2427,21 +2924,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>2000</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>95</v>
+      <c r="B44" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>97</v>
+      <c r="E44" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F44">
         <v>19</v>
@@ -2453,15 +2950,15 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>2001</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>98</v>
+      <c r="B45" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F45">
         <v>29</v>
@@ -2470,15 +2967,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>2002</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -2493,24 +2990,24 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>2003</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>2004</v>
       </c>
@@ -2523,7 +3020,7 @@
       <c r="D48" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F48">
@@ -2539,21 +3036,21 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>2005</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>105</v>
+      <c r="B49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>106</v>
+      <c r="E49" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F49">
         <v>19</v>
@@ -2565,15 +3062,15 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>2006</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>108</v>
+      <c r="B50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F50">
         <v>26</v>
@@ -2588,15 +3085,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>2007</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>110</v>
+      <c r="B51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -2605,15 +3102,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>2008</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F52">
         <v>29</v>
@@ -2622,15 +3119,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>2009</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F53">
         <v>29</v>
@@ -2639,15 +3136,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>2010</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>113</v>
+      <c r="B54" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
         <v>40</v>
@@ -2656,16 +3153,16 @@
         <v>27</v>
       </c>
       <c r="G54">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O54">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E22BD90-4E0B-47EF-BD7C-99BA989F23FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +105,24 @@
 百分比反弹受到的伤害=10,
 数值反弹受到的伤害=11,
 死亡后复活并恢复百分比生命=12,
-百分比影响护甲值（仅在触发时生效一次）=13,
+百分比</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>影响护甲值（仅在触发时生效一次）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=13,
 影响召唤物持续时间 =14,
 影响召唤物强度 =15,
 影响召唤物攻速=16,
@@ -115,14 +138,31 @@
 （护甲持续时间默认2秒，0=无限时间，其余 x: 持续时间变为2+x秒）
 效果结束时获得buff =26,
 效果结束时释放技能 =27,
------------ =28,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>-----------</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> =28,
 获得护甲后触发技能 =29
 当生命小于25%时触发技能=30，
 成功格挡后触发技能 =31</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +225,17 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">幻月:
--1=最大1层，且相同BUFF拥有独立的icon，不会叠加显示也不会顶替显示
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">-1=最大1层，且相同BUFF拥有独立的icon，不会叠加显示也不会顶替显示
 </t>
         </r>
         <r>
@@ -196,11 +246,20 @@
           </rPr>
           <t xml:space="preserve">
 0 =无限叠加
-1=最大1层，获得相同buff后刷新持续时间</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=最大1层，获得相同buff后刷新持续时间</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -496,21 +555,6 @@
     <t>格挡1</t>
   </si>
   <si>
-    <t>格挡4</t>
-  </si>
-  <si>
-    <t>攻击力上升</t>
-  </si>
-  <si>
-    <t>攻击力提升1点,持续6秒；可叠加</t>
-  </si>
-  <si>
-    <t>勇气化身</t>
-  </si>
-  <si>
-    <t>攻击力提高3点，持续10秒</t>
-  </si>
-  <si>
     <t>复活</t>
   </si>
   <si>
@@ -605,149 +649,178 @@
     <t>锯齿护臂</t>
   </si>
   <si>
+    <t>强化动能回收装置</t>
+  </si>
+  <si>
+    <t>每当成功格挡时，回复1.5点能量</t>
+  </si>
+  <si>
+    <t>破釜沉舟</t>
+  </si>
+  <si>
+    <t>每层获得4点护甲</t>
+  </si>
+  <si>
+    <t>不屈之盾</t>
+  </si>
+  <si>
+    <t>护甲的持续时间变为无限</t>
+  </si>
+  <si>
+    <t>震撼登场</t>
+  </si>
+  <si>
+    <t>进入战斗后昏迷敌人3秒</t>
+  </si>
+  <si>
+    <t>樱桃罐头</t>
+  </si>
+  <si>
+    <t>激怒</t>
+  </si>
+  <si>
+    <t>获得大量护甲,每当获得护甲便对敌人造成1点穿刺伤害,失去所有护甲后会昏迷3秒。</t>
+  </si>
+  <si>
+    <t>Effect_common_angry_01</t>
+  </si>
+  <si>
+    <t>AI-巨石国王</t>
+  </si>
+  <si>
+    <t>获得护甲触发技能</t>
+  </si>
+  <si>
+    <t>失去所有护甲后获得昏迷buff</t>
+  </si>
+  <si>
+    <t>疑惑</t>
+  </si>
+  <si>
+    <t>一脸懵逼,不知道发生了甚么事……</t>
+  </si>
+  <si>
+    <t>Effect_doubt</t>
+  </si>
+  <si>
+    <t>非常愤怒！</t>
+  </si>
+  <si>
+    <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
+  </si>
+  <si>
+    <t>Effect_common_angry_02</t>
+  </si>
+  <si>
+    <t>昏迷后激怒</t>
+  </si>
+  <si>
+    <t>效果结束时获得【激怒】Buff</t>
+  </si>
+  <si>
+    <t>击晕玩家</t>
+  </si>
+  <si>
+    <t>当生命值小于25%时击晕对手</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成2点伤害</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成4点伤害</t>
+  </si>
+  <si>
+    <t>死亡倒计时</t>
+  </si>
+  <si>
+    <t>18秒后自动死亡</t>
+  </si>
+  <si>
+    <t>兴奋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次补牌时恢复1点生命值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>成功格挡时，造成2点伤害</t>
-  </si>
-  <si>
-    <t>强化动能回收装置</t>
-  </si>
-  <si>
-    <t>每当成功格挡时，回复1.5点能量</t>
-  </si>
-  <si>
-    <t>破釜沉舟</t>
-  </si>
-  <si>
-    <t>每层获得4点护甲</t>
-  </si>
-  <si>
-    <t>不屈之盾</t>
-  </si>
-  <si>
-    <t>护甲的持续时间变为无限</t>
-  </si>
-  <si>
-    <t>震撼登场</t>
-  </si>
-  <si>
-    <t>进入战斗后昏迷敌人3秒</t>
-  </si>
-  <si>
-    <t>樱桃罐头</t>
-  </si>
-  <si>
-    <t>每次补牌时恢复1点生命值</t>
-  </si>
-  <si>
-    <t>兴奋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处于兴奋状态下时,你的一些技能会得到增强。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忏悔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层降低10%造成的伤害,最多叠加5层，持续10秒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>水晶剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除护甲-效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义宣言</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提升40%,持续10秒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力上升</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提升1点,持续6秒；可叠加</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气化身</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提高3点，持续10秒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇斗篷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋面罩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当暴击便回复1点生命值。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暴击率提升10%，暴击后会获得[兴奋]状态，持续10秒</t>
-  </si>
-  <si>
-    <t>忏悔</t>
-  </si>
-  <si>
-    <t>每层降低10%造成的伤害,最多叠加5层，持续15秒</t>
-  </si>
-  <si>
-    <t>Effect_doubt</t>
-  </si>
-  <si>
-    <t>消除护甲-效果</t>
-  </si>
-  <si>
-    <t>正义宣言</t>
-  </si>
-  <si>
-    <t>暴击率提升40%,持续10秒</t>
-  </si>
-  <si>
-    <t>英勇斗篷</t>
-  </si>
-  <si>
-    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
-  </si>
-  <si>
-    <t>冲锋面罩</t>
-  </si>
-  <si>
-    <t>每当暴击便回复1点生命值。</t>
-  </si>
-  <si>
-    <t>激怒</t>
-  </si>
-  <si>
-    <t>获得大量护甲,每当获得护甲便对敌人造成1点穿刺伤害,失去所有护甲后会昏迷3秒。</t>
-  </si>
-  <si>
-    <t>Effect_common_angry_01</t>
-  </si>
-  <si>
-    <t>AI-巨石国王</t>
-  </si>
-  <si>
-    <t>获得护甲触发技能</t>
-  </si>
-  <si>
-    <t>失去所有护甲后获得昏迷buff</t>
-  </si>
-  <si>
-    <t>疑惑</t>
-  </si>
-  <si>
-    <t>一脸懵逼,不知道发生了甚么事……</t>
-  </si>
-  <si>
-    <t>非常愤怒！</t>
-  </si>
-  <si>
-    <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
-  </si>
-  <si>
-    <t>Effect_common_angry_02</t>
-  </si>
-  <si>
-    <t>昏迷后激怒</t>
-  </si>
-  <si>
-    <t>效果结束时获得【激怒】Buff</t>
-  </si>
-  <si>
-    <t>击晕玩家</t>
-  </si>
-  <si>
-    <t>当生命值小于25%时击晕对手</t>
-  </si>
-  <si>
-    <t>每当获得护甲时，造成2点伤害</t>
-  </si>
-  <si>
-    <t>每当获得护甲时，造成4点伤害</t>
-  </si>
-  <si>
-    <t>死亡倒计时</t>
-  </si>
-  <si>
-    <t>15秒后自动死亡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,150 +836,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -917,8 +846,50 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,194 +902,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1126,255 +911,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1385,62 +927,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1698,19 +1201,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1718,7 +1221,7 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="7" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
@@ -1727,7 +1230,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1255,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1770,7 +1273,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1783,7 +1286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1805,7 +1308,7 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
@@ -1836,20 +1339,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="M3">
@@ -1859,14 +1362,14 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -1881,7 +1384,7 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J4">
@@ -1897,14 +1400,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F5">
@@ -1913,7 +1416,7 @@
       <c r="G5">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J5">
@@ -1926,14 +1429,14 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
@@ -1955,14 +1458,14 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
@@ -1978,14 +1481,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -1997,7 +1500,7 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J8">
@@ -2007,14 +1510,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
@@ -2030,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2040,7 +1543,7 @@
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="M10">
@@ -2053,7 +1556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2072,7 +1575,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J11">
@@ -2085,11 +1588,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -2098,7 +1601,7 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F12">
@@ -2111,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2130,7 +1633,7 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J13">
@@ -2143,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2162,7 +1665,7 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J14">
@@ -2175,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2194,7 +1697,7 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J15">
@@ -2207,12 +1710,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
+      <c r="B16" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
@@ -2226,11 +1729,11 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -2239,15 +1742,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
+      <c r="B17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -2265,15 +1768,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>65</v>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -2294,15 +1797,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -2311,7 +1814,7 @@
         <v>0.3</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2323,15 +1826,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1001</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
@@ -2340,15 +1843,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1002</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
@@ -2369,15 +1872,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1003</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
@@ -2401,15 +1904,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1004</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>76</v>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
@@ -2427,15 +1930,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1005</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>78</v>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -2459,12 +1962,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1006</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F25">
         <v>16</v>
@@ -2479,15 +1982,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1007</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -2505,15 +2008,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1013</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>83</v>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
@@ -2531,15 +2034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1014</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>85</v>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -2557,15 +2060,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1015</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>87</v>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -2576,22 +2079,22 @@
       <c r="M29">
         <v>-1</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>35</v>
       </c>
       <c r="R29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1016</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>89</v>
+      <c r="B30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -2602,22 +2105,22 @@
       <c r="M30">
         <v>-1</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <v>36</v>
       </c>
       <c r="R30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1017</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>91</v>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -2628,22 +2131,22 @@
       <c r="M31">
         <v>-1</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>37</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1018</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>93</v>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
@@ -2661,15 +2164,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1009</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>95</v>
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -2684,15 +2187,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1010</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>97</v>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D34" t="s">
         <v>52</v>
@@ -2707,20 +2210,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1011</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>98</v>
+      <c r="B35" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F35">
@@ -2733,15 +2236,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1012</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>101</v>
+      <c r="B36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -2750,15 +2253,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1023</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>103</v>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
@@ -2770,15 +2273,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1024</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>105</v>
+      <c r="B38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -2796,27 +2299,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1025</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D39" t="s">
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F39">
         <v>7</v>
       </c>
       <c r="G39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J39">
         <v>-0.1</v>
@@ -2828,14 +2331,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1026</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="F40">
         <v>13</v>
       </c>
@@ -2849,15 +2352,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1027</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>111</v>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="D41" t="s">
         <v>40</v>
@@ -2878,15 +2381,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1028</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>113</v>
+      <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D42" t="s">
         <v>40</v>
@@ -2904,15 +2407,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1029</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>115</v>
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
@@ -2924,21 +2427,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2000</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>116</v>
+      <c r="B44" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>118</v>
+      <c r="E44" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="F44">
         <v>19</v>
@@ -2950,15 +2453,15 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2001</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>119</v>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F45">
         <v>29</v>
@@ -2967,15 +2470,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2002</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -2990,24 +2493,24 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2003</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2004</v>
       </c>
@@ -3020,7 +2523,7 @@
       <c r="D48" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F48">
@@ -3036,21 +2539,21 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2005</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>125</v>
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>126</v>
+      <c r="E49" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F49">
         <v>19</v>
@@ -3062,15 +2565,15 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2006</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>128</v>
+      <c r="B50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F50">
         <v>26</v>
@@ -3085,15 +2588,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2007</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>130</v>
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -3102,15 +2605,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2008</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F52">
         <v>29</v>
@@ -3119,15 +2622,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2009</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F53">
         <v>29</v>
@@ -3136,15 +2639,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2010</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>133</v>
+      <c r="B54" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
         <v>40</v>
@@ -3153,16 +2656,16 @@
         <v>27</v>
       </c>
       <c r="G54">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O54">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72808F2A-4E47-41DE-8F6B-241E56B337D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,11 +124,22 @@
 ----------- =28,
 获得护甲后触发技能 =29
 当生命小于25%时触发技能=30，
-成功格挡后触发技能 =31</t>
+成功格挡后触发技能 =31
+时间间隔触发卡牌效果</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=32
+（抽牌，弃牌，创造卡牌）</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -736,18 +753,20 @@
   <si>
     <t>15秒后自动死亡</t>
   </si>
+  <si>
+    <t>战斗中每隔6秒，将1张[真言]置入手牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣法典</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,150 +782,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -917,8 +792,20 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,192 +820,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1126,253 +833,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1385,62 +850,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1698,19 +1124,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1727,7 +1153,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1836,7 +1262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1859,7 +1285,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1897,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1926,7 +1352,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1955,7 +1381,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1978,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2007,7 +1433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2030,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2053,7 +1479,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2085,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2111,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2143,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2175,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2207,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2239,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2265,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2294,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
@@ -2323,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1001</v>
       </c>
@@ -2340,7 +1766,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1002</v>
       </c>
@@ -2369,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1003</v>
       </c>
@@ -2401,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1004</v>
       </c>
@@ -2427,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1005</v>
       </c>
@@ -2459,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1006</v>
       </c>
@@ -2479,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1007</v>
       </c>
@@ -2505,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1013</v>
       </c>
@@ -2531,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1014</v>
       </c>
@@ -2557,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1015</v>
       </c>
@@ -2583,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1016</v>
       </c>
@@ -2609,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1017</v>
       </c>
@@ -2635,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1018</v>
       </c>
@@ -2661,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1009</v>
       </c>
@@ -2684,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1010</v>
       </c>
@@ -2707,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1011</v>
       </c>
@@ -2733,7 +2159,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1012</v>
       </c>
@@ -2750,7 +2176,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1023</v>
       </c>
@@ -2770,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1024</v>
       </c>
@@ -2796,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1025</v>
       </c>
@@ -2828,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1026</v>
       </c>
@@ -2849,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1027</v>
       </c>
@@ -2878,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1028</v>
       </c>
@@ -2904,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1029</v>
       </c>
@@ -2924,245 +2350,274 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>1030</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44">
+        <v>32</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>-1</v>
+      </c>
+      <c r="O44">
+        <v>51</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>2000</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>117</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>19</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>9</v>
       </c>
-      <c r="N44">
+      <c r="N45">
         <v>2002</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>2001</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>120</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>29</v>
       </c>
-      <c r="O45">
+      <c r="O46">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>2002</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>119</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>121</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>5</v>
       </c>
-      <c r="J46">
+      <c r="J47">
         <v>2000</v>
       </c>
-      <c r="N46">
+      <c r="N47">
         <v>2001</v>
       </c>
-      <c r="O46">
+      <c r="O47">
         <v>2004</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>2003</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>2004</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>2</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
         <v>2006</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>2005</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>19</v>
       </c>
-      <c r="J49">
+      <c r="J50">
         <v>8</v>
       </c>
-      <c r="N49">
+      <c r="N50">
         <v>2001</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>2006</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>26</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>3</v>
       </c>
-      <c r="J50">
+      <c r="J51">
         <v>2000</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51">
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>2007</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>30</v>
       </c>
-      <c r="O51">
+      <c r="O52">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>2008</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52">
-        <v>29</v>
-      </c>
-      <c r="O52">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53">
-        <v>2009</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F53">
         <v>29</v>
       </c>
       <c r="O53">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2009</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54">
+        <v>29</v>
+      </c>
+      <c r="O54">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>2010</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>134</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>40</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>27</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>15</v>
       </c>
-      <c r="O54">
+      <c r="O55">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -680,6 +680,12 @@
     <t>每当暴击便回复1点生命值。</t>
   </si>
   <si>
+    <t>小水晶剑</t>
+  </si>
+  <si>
+    <t>暴击率提升5%，暴击后会获得[兴奋]状态，持续10秒</t>
+  </si>
+  <si>
     <t>激怒</t>
   </si>
   <si>
@@ -743,8 +749,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -763,8 +769,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,44 +779,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +792,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,10 +829,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,25 +853,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,6 +891,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -918,12 +924,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -933,7 +945,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,25 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,79 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,19 +1101,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,37 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,50 +1136,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1186,17 +1154,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,8 +1187,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,10 +1242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1242,139 +1254,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1385,6 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1704,10 +1718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1718,7 +1732,7 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
@@ -1752,7 +1766,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1770,7 +1784,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1805,7 +1819,7 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
@@ -1843,13 +1857,13 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M3">
@@ -1866,7 +1880,7 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -1881,7 +1895,7 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J4">
@@ -1904,7 +1918,7 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F5">
@@ -1913,7 +1927,7 @@
       <c r="G5">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J5">
@@ -1933,7 +1947,7 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
@@ -1962,7 +1976,7 @@
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
@@ -1985,7 +1999,7 @@
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -1997,7 +2011,7 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J8">
@@ -2014,7 +2028,7 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
@@ -2040,7 +2054,7 @@
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="M10">
@@ -2072,7 +2086,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J11">
@@ -2089,7 +2103,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -2098,7 +2112,7 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F12">
@@ -2130,7 +2144,7 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J13">
@@ -2162,7 +2176,7 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J14">
@@ -2194,7 +2208,7 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J15">
@@ -2211,7 +2225,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C16" t="s">
@@ -2226,7 +2240,7 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J16">
@@ -2243,10 +2257,10 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D17" t="s">
@@ -2269,10 +2283,10 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
@@ -2301,7 +2315,7 @@
       <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F19">
@@ -2373,10 +2387,10 @@
       <c r="A22">
         <v>1003</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D22" t="s">
@@ -2405,10 +2419,10 @@
       <c r="A23">
         <v>1004</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D23" t="s">
@@ -2431,10 +2445,10 @@
       <c r="A24">
         <v>1005</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D24" t="s">
@@ -2463,7 +2477,7 @@
       <c r="A25">
         <v>1006</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F25">
@@ -2483,10 +2497,10 @@
       <c r="A26">
         <v>1007</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D26" t="s">
@@ -2509,10 +2523,10 @@
       <c r="A27">
         <v>1013</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D27" t="s">
@@ -2535,10 +2549,10 @@
       <c r="A28">
         <v>1014</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D28" t="s">
@@ -2561,10 +2575,10 @@
       <c r="A29">
         <v>1015</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D29" t="s">
@@ -2576,7 +2590,7 @@
       <c r="M29">
         <v>-1</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="3">
         <v>35</v>
       </c>
       <c r="R29">
@@ -2587,10 +2601,10 @@
       <c r="A30">
         <v>1016</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D30" t="s">
@@ -2602,7 +2616,7 @@
       <c r="M30">
         <v>-1</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="3">
         <v>36</v>
       </c>
       <c r="R30">
@@ -2613,10 +2627,10 @@
       <c r="A31">
         <v>1017</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D31" t="s">
@@ -2628,7 +2642,7 @@
       <c r="M31">
         <v>-1</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="3">
         <v>37</v>
       </c>
       <c r="R31">
@@ -2639,10 +2653,10 @@
       <c r="A32">
         <v>1018</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D32" t="s">
@@ -2665,10 +2679,10 @@
       <c r="A33">
         <v>1009</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D33" t="s">
@@ -2688,10 +2702,10 @@
       <c r="A34">
         <v>1010</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D34" t="s">
@@ -2711,7 +2725,7 @@
       <c r="A35">
         <v>1011</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C35" t="s">
@@ -2720,7 +2734,7 @@
       <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F35">
@@ -2737,10 +2751,10 @@
       <c r="A36">
         <v>1012</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D36" t="s">
@@ -2754,10 +2768,10 @@
       <c r="A37">
         <v>1023</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D37" t="s">
@@ -2774,10 +2788,10 @@
       <c r="A38">
         <v>1024</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D38" t="s">
@@ -2800,10 +2814,10 @@
       <c r="A39">
         <v>1025</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D39" t="s">
@@ -2832,10 +2846,10 @@
       <c r="A40">
         <v>1026</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="3"/>
       <c r="F40">
         <v>13</v>
       </c>
@@ -2853,10 +2867,10 @@
       <c r="A41">
         <v>1027</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D41" t="s">
@@ -2882,10 +2896,10 @@
       <c r="A42">
         <v>1028</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D42" t="s">
@@ -2908,10 +2922,10 @@
       <c r="A43">
         <v>1029</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D43" t="s">
@@ -2924,238 +2938,264 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44">
+    <row r="44" s="1" customFormat="1" spans="1:18">
+      <c r="A44" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="1">
+        <v>23</v>
+      </c>
+      <c r="J44" s="1">
+        <v>5</v>
+      </c>
+      <c r="M44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
         <v>2000</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44">
+      <c r="E45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45">
         <v>19</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>9</v>
       </c>
-      <c r="N44">
+      <c r="N45">
         <v>2002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45">
-        <v>2001</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45">
-        <v>29</v>
-      </c>
-      <c r="O45">
-        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46">
+        <v>2001</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46">
+        <v>29</v>
+      </c>
+      <c r="O46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
         <v>2002</v>
       </c>
-      <c r="B46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
         <v>121</v>
       </c>
-      <c r="F46">
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47">
         <v>5</v>
       </c>
-      <c r="J46">
+      <c r="J47">
         <v>2000</v>
       </c>
-      <c r="N46">
+      <c r="N47">
         <v>2001</v>
       </c>
-      <c r="O46">
+      <c r="O47">
         <v>2004</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
+    <row r="48" spans="1:5">
+      <c r="A48">
         <v>2003</v>
       </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48">
-        <v>2004</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>2006</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
+        <v>2004</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
         <v>2005</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49">
+      <c r="E50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50">
         <v>19</v>
       </c>
-      <c r="J49">
+      <c r="J50">
         <v>8</v>
       </c>
-      <c r="N49">
+      <c r="N50">
         <v>2001</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50">
+    <row r="51" spans="1:13">
+      <c r="A51">
         <v>2006</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50">
+      <c r="B51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51">
         <v>26</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>3</v>
       </c>
-      <c r="J50">
+      <c r="J51">
         <v>2000</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51">
-        <v>2007</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51">
-        <v>30</v>
-      </c>
-      <c r="O51">
-        <v>29</v>
+      <c r="M51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
-        <v>2008</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="C52" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="F52">
+        <v>30</v>
+      </c>
+      <c r="O52">
         <v>29</v>
-      </c>
-      <c r="O52">
-        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53">
-        <v>2009</v>
-      </c>
-      <c r="B53" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F53">
         <v>29</v>
       </c>
       <c r="O53">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54">
-        <v>2010</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>2009</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>134</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54">
+        <v>29</v>
+      </c>
+      <c r="O54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>2010</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
         <v>40</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>27</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>15</v>
       </c>
-      <c r="O54">
+      <c r="O55">
         <v>1500</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -680,12 +680,6 @@
     <t>每当暴击便回复1点生命值。</t>
   </si>
   <si>
-    <t>小水晶剑</t>
-  </si>
-  <si>
-    <t>暴击率提升5%，暴击后会获得[兴奋]状态，持续10秒</t>
-  </si>
-  <si>
     <t>激怒</t>
   </si>
   <si>
@@ -749,8 +743,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -769,9 +763,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,6 +772,44 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,14 +823,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,19 +853,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -853,24 +868,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,28 +907,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -924,18 +918,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -945,7 +933,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +1035,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,163 +1107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,6 +1124,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1154,17 +1186,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,52 +1219,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,10 +1230,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,140 +1242,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1398,7 +1385,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1718,10 +1704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1732,7 +1718,7 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
@@ -1766,7 +1752,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1784,7 +1770,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1819,7 +1805,7 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
@@ -1857,13 +1843,13 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M3">
@@ -1880,7 +1866,7 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -1895,7 +1881,7 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J4">
@@ -1918,7 +1904,7 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F5">
@@ -1927,7 +1913,7 @@
       <c r="G5">
         <v>15</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J5">
@@ -1947,7 +1933,7 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
@@ -1976,7 +1962,7 @@
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
@@ -1999,7 +1985,7 @@
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -2011,7 +1997,7 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J8">
@@ -2028,7 +2014,7 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
@@ -2054,7 +2040,7 @@
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="M10">
@@ -2086,7 +2072,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J11">
@@ -2103,7 +2089,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -2112,7 +2098,7 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F12">
@@ -2144,7 +2130,7 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J13">
@@ -2176,7 +2162,7 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J14">
@@ -2208,7 +2194,7 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J15">
@@ -2225,7 +2211,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C16" t="s">
@@ -2240,7 +2226,7 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J16">
@@ -2257,10 +2243,10 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D17" t="s">
@@ -2283,10 +2269,10 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
@@ -2315,7 +2301,7 @@
       <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F19">
@@ -2387,10 +2373,10 @@
       <c r="A22">
         <v>1003</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D22" t="s">
@@ -2419,10 +2405,10 @@
       <c r="A23">
         <v>1004</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D23" t="s">
@@ -2445,10 +2431,10 @@
       <c r="A24">
         <v>1005</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D24" t="s">
@@ -2477,7 +2463,7 @@
       <c r="A25">
         <v>1006</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F25">
@@ -2497,10 +2483,10 @@
       <c r="A26">
         <v>1007</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D26" t="s">
@@ -2523,10 +2509,10 @@
       <c r="A27">
         <v>1013</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D27" t="s">
@@ -2549,10 +2535,10 @@
       <c r="A28">
         <v>1014</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D28" t="s">
@@ -2575,10 +2561,10 @@
       <c r="A29">
         <v>1015</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D29" t="s">
@@ -2590,7 +2576,7 @@
       <c r="M29">
         <v>-1</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="2">
         <v>35</v>
       </c>
       <c r="R29">
@@ -2601,10 +2587,10 @@
       <c r="A30">
         <v>1016</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D30" t="s">
@@ -2616,7 +2602,7 @@
       <c r="M30">
         <v>-1</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="2">
         <v>36</v>
       </c>
       <c r="R30">
@@ -2627,10 +2613,10 @@
       <c r="A31">
         <v>1017</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D31" t="s">
@@ -2642,7 +2628,7 @@
       <c r="M31">
         <v>-1</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="2">
         <v>37</v>
       </c>
       <c r="R31">
@@ -2653,10 +2639,10 @@
       <c r="A32">
         <v>1018</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D32" t="s">
@@ -2679,10 +2665,10 @@
       <c r="A33">
         <v>1009</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D33" t="s">
@@ -2702,10 +2688,10 @@
       <c r="A34">
         <v>1010</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D34" t="s">
@@ -2725,7 +2711,7 @@
       <c r="A35">
         <v>1011</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C35" t="s">
@@ -2734,7 +2720,7 @@
       <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F35">
@@ -2751,10 +2737,10 @@
       <c r="A36">
         <v>1012</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D36" t="s">
@@ -2768,10 +2754,10 @@
       <c r="A37">
         <v>1023</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D37" t="s">
@@ -2788,10 +2774,10 @@
       <c r="A38">
         <v>1024</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D38" t="s">
@@ -2814,10 +2800,10 @@
       <c r="A39">
         <v>1025</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D39" t="s">
@@ -2846,10 +2832,10 @@
       <c r="A40">
         <v>1026</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2"/>
       <c r="F40">
         <v>13</v>
       </c>
@@ -2867,10 +2853,10 @@
       <c r="A41">
         <v>1027</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D41" t="s">
@@ -2896,10 +2882,10 @@
       <c r="A42">
         <v>1028</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D42" t="s">
@@ -2922,10 +2908,10 @@
       <c r="A43">
         <v>1029</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D43" t="s">
@@ -2938,264 +2924,238 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:18">
-      <c r="A44" s="1">
-        <v>1030</v>
-      </c>
-      <c r="B44" s="7" t="s">
+    <row r="44" spans="1:14">
+      <c r="A44">
+        <v>2000</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="1">
-        <v>23</v>
-      </c>
-      <c r="J44" s="1">
-        <v>5</v>
-      </c>
-      <c r="M44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="E44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44">
+        <v>19</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="N44">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>2000</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>118</v>
+        <v>2001</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F45">
-        <v>19</v>
-      </c>
-      <c r="J45">
-        <v>9</v>
-      </c>
-      <c r="N45">
-        <v>2002</v>
+        <v>29</v>
+      </c>
+      <c r="O45">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46">
+        <v>2002</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>2000</v>
+      </c>
+      <c r="N46">
         <v>2001</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="O46">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>2003</v>
+      </c>
+      <c r="B47" t="s">
         <v>122</v>
       </c>
-      <c r="F46">
-        <v>29</v>
-      </c>
-      <c r="O46">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47">
-        <v>2002</v>
-      </c>
-      <c r="B47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="J47">
-        <v>2000</v>
-      </c>
-      <c r="N47">
-        <v>2001</v>
-      </c>
-      <c r="O47">
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48">
         <v>2004</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
-        <v>2003</v>
-      </c>
       <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>125</v>
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" t="s">
-        <v>108</v>
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2006</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>2004</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" t="s">
-        <v>57</v>
+        <v>2005</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
       </c>
       <c r="N49">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
         <v>2006</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50">
-        <v>2005</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F50">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
       </c>
       <c r="J50">
-        <v>8</v>
-      </c>
-      <c r="N50">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2000</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>2006</v>
-      </c>
-      <c r="B51" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F51">
-        <v>26</v>
-      </c>
-      <c r="G51">
-        <v>3</v>
-      </c>
-      <c r="J51">
-        <v>2000</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="O51">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
-        <v>2007</v>
-      </c>
-      <c r="B52" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O52">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53">
-        <v>2008</v>
-      </c>
-      <c r="B53" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F53">
         <v>29</v>
       </c>
       <c r="O53">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54">
-        <v>2009</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>35</v>
+        <v>2010</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C54" t="s">
         <v>134</v>
       </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
       <c r="F54">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="G54">
+        <v>15</v>
       </c>
       <c r="O54">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55">
-        <v>2010</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55">
-        <v>27</v>
-      </c>
-      <c r="G55">
-        <v>15</v>
-      </c>
-      <c r="O55">
         <v>1500</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF1A939-6B77-4A6A-99C8-7B8D763D8DDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +93,6 @@
           <t xml:space="preserve">
 昏迷 =1,
 间隔释放技能=2,
-(可用于持续伤害/治疗）
 影响攻击力 =3,
 影响防御力 =4,
 失去所有护甲后增减buff =5,
@@ -115,14 +120,164 @@
 （护甲持续时间默认2秒，0=无限时间，其余 x: 持续时间变为2+x秒）
 效果结束时获得buff =26,
 效果结束时释放技能 =27,
------------ =28,
-获得护甲后触发技能 =29
-当生命小于25%时触发技能=30，
-成功格挡后触发技能 =31</t>
+引导能量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> =28,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>获得护甲后触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> =29,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>生命值小于百分之</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>25</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时触发</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=30,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>成功格挡后触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=31,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时间间隔触发卡牌效果</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=32,
+（抽牌，弃牌，创建牌）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>冰冷效果</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=33,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对目标造成伤害后触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> =34,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>受到伤害后触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=35</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -246,6 +401,15 @@
 0：移除所有同类buff
 1:只移除自己
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2：每次触发移除一层</t>
         </r>
       </text>
     </comment>
@@ -254,7 +418,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -736,18 +900,28 @@
   <si>
     <t>15秒后自动死亡</t>
   </si>
+  <si>
+    <t>神圣法典</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中每隔6秒，将1张[真言]置入手牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,150 +937,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -917,8 +947,28 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,194 +981,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1126,253 +990,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1385,62 +1007,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1698,19 +1279,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1727,7 +1308,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1836,7 +1417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1859,7 +1440,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1897,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1926,7 +1507,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1955,7 +1536,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1978,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2007,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2030,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2053,7 +1634,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2085,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2111,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2143,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2175,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2207,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2239,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2265,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2294,131 +1875,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="F20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>100</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>12</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>0.3</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L21" t="s">
         <v>68</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1001</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>52</v>
-      </c>
-      <c r="M20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21">
-        <v>1002</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22">
-        <v>1003</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22">
-        <v>22</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
       </c>
       <c r="M22">
         <v>-1</v>
       </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1004</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>1002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2427,24 +1974,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2452,123 +2002,126 @@
       <c r="M24">
         <v>-1</v>
       </c>
-      <c r="N24">
-        <v>1006</v>
-      </c>
       <c r="R24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
       </c>
       <c r="F25">
-        <v>16</v>
-      </c>
-      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="J25">
         <v>10</v>
       </c>
-      <c r="J25">
-        <v>0.3</v>
-      </c>
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F26">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <v>-1</v>
       </c>
+      <c r="N26">
+        <v>1006</v>
+      </c>
       <c r="R26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F27">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>0.3</v>
       </c>
       <c r="M27">
-        <v>-1</v>
-      </c>
-      <c r="O27">
-        <v>30</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F28">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
       <c r="M28">
         <v>-1</v>
       </c>
-      <c r="O28">
-        <v>31</v>
-      </c>
       <c r="R28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <v>31</v>
@@ -2576,22 +2129,22 @@
       <c r="M29">
         <v>-1</v>
       </c>
-      <c r="O29" s="2">
-        <v>35</v>
+      <c r="O29">
+        <v>30</v>
       </c>
       <c r="R29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1016</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>1014</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -2602,22 +2155,22 @@
       <c r="M30">
         <v>-1</v>
       </c>
-      <c r="O30" s="2">
-        <v>36</v>
+      <c r="O30">
+        <v>31</v>
       </c>
       <c r="R30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1017</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>1015</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -2629,24 +2182,24 @@
         <v>-1</v>
       </c>
       <c r="O31" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1018</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>1016</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -2654,269 +2207,275 @@
       <c r="M32">
         <v>-1</v>
       </c>
-      <c r="O32">
-        <v>30</v>
+      <c r="O32" s="2">
+        <v>36</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1009</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>1017</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F33">
-        <v>19</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>37</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M34">
         <v>-1</v>
       </c>
+      <c r="O34">
+        <v>30</v>
+      </c>
       <c r="R34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="M35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
       </c>
       <c r="M36">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38">
-        <v>23</v>
-      </c>
-      <c r="J38">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="M38">
         <v>-1</v>
       </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1024</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>23</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1025</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
         <v>108</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>7</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <v>15</v>
       </c>
-      <c r="J39">
+      <c r="J41">
         <v>-0.1</v>
       </c>
-      <c r="M39">
+      <c r="M41">
         <v>5</v>
       </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40">
+      <c r="R41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>1026</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="F40">
+      <c r="C42" s="2"/>
+      <c r="F42">
         <v>13</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="J40">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <v>-1</v>
       </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41">
+      <c r="R42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>1027</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41">
-        <v>23</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="J41">
-        <v>40</v>
-      </c>
-      <c r="M41">
-        <v>-1</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42">
-        <v>1028</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42">
-        <v>23</v>
-      </c>
-      <c r="J42">
-        <v>10</v>
-      </c>
-      <c r="M42">
-        <v>-1</v>
-      </c>
-      <c r="R42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43">
-        <v>1029</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
       </c>
+      <c r="F43">
+        <v>23</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>40</v>
+      </c>
       <c r="M43">
         <v>-1</v>
       </c>
@@ -2924,245 +2483,320 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2000</v>
+        <v>1028</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44">
+        <v>23</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <v>-1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1029</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45">
+        <v>-1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1030</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>32</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="M46">
+        <v>-1</v>
+      </c>
+      <c r="O46">
+        <v>51</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2000</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F44">
+      <c r="F47">
         <v>19</v>
       </c>
-      <c r="J44">
+      <c r="J47">
         <v>9</v>
       </c>
-      <c r="N44">
+      <c r="N47">
         <v>2002</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>2001</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>120</v>
       </c>
-      <c r="F45">
+      <c r="F48">
         <v>29</v>
       </c>
-      <c r="O45">
+      <c r="O48">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>2002</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>119</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>121</v>
       </c>
-      <c r="F46">
+      <c r="F49">
         <v>5</v>
       </c>
-      <c r="J46">
+      <c r="J49">
         <v>2000</v>
-      </c>
-      <c r="N46">
-        <v>2001</v>
-      </c>
-      <c r="O46">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
-        <v>2003</v>
-      </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48">
-        <v>2004</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49">
-        <v>2005</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49">
-        <v>19</v>
-      </c>
-      <c r="J49">
-        <v>8</v>
       </c>
       <c r="N49">
         <v>2001</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="O49">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>2003</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2004</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
         <v>2006</v>
       </c>
-      <c r="B50" s="2" t="s">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2005</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52">
+        <v>19</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="N52">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2006</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F50">
+      <c r="F53">
         <v>26</v>
       </c>
-      <c r="G50">
+      <c r="G53">
         <v>3</v>
       </c>
-      <c r="J50">
+      <c r="J53">
         <v>2000</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51">
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>2007</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F51">
+      <c r="F54">
         <v>30</v>
       </c>
-      <c r="O51">
+      <c r="O54">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>2008</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>131</v>
       </c>
-      <c r="F52">
+      <c r="F55">
         <v>29</v>
       </c>
-      <c r="O52">
+      <c r="O55">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>2009</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>132</v>
       </c>
-      <c r="F53">
+      <c r="F56">
         <v>29</v>
       </c>
-      <c r="O53">
+      <c r="O56">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>2010</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>134</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D57" t="s">
         <v>40</v>
       </c>
-      <c r="F54">
+      <c r="F57">
         <v>27</v>
       </c>
-      <c r="G54">
+      <c r="G57">
         <v>15</v>
       </c>
-      <c r="O54">
+      <c r="O57">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF1A939-6B77-4A6A-99C8-7B8D763D8DDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD24FC9-CB32-4D39-9382-3D34C5A71186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -40,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,6 +59,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -65,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,6 +84,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -88,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -136,6 +142,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>获得护甲后触发技能</t>
@@ -154,6 +161,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>生命值小于百分之</t>
@@ -171,6 +179,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>时触发</t>
@@ -189,6 +198,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>成功格挡后触发技能</t>
@@ -207,6 +217,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>时间间隔触发卡牌效果</t>
@@ -226,6 +237,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>冰冷效果</t>
@@ -244,6 +256,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>对目标造成伤害后触发技能</t>
@@ -262,6 +275,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>受到伤害后触发技能</t>
@@ -284,6 +298,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -292,6 +307,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -314,6 +330,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -322,6 +339,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -337,6 +355,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">幻月:
@@ -347,6 +366,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -362,6 +382,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -370,6 +391,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -387,6 +409,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -395,6 +418,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -418,7 +442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -467,6 +491,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -477,6 +502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -552,6 +578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -562,6 +589,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -637,6 +665,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -647,6 +676,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -725,6 +755,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -735,6 +766,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -914,6 +946,18 @@
   </si>
   <si>
     <t>中毒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风雪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风雪伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2秒造成3点伤害,并附加2点冰冷,需要[维持最低2点能量]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -933,23 +977,27 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -962,10 +1010,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1285,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1898,6 +1948,12 @@
       <c r="F20">
         <v>33</v>
       </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -2560,236 +2616,280 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2000</v>
+        <v>1031</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" t="s">
-        <v>117</v>
+        <v>139</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F47">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2002</v>
+        <v>1032</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2001</v>
+        <v>1032</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C48" s="3"/>
       <c r="F48">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>2000</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49">
+        <v>19</v>
+      </c>
+      <c r="J49">
+        <v>9</v>
+      </c>
+      <c r="N49">
         <v>2002</v>
-      </c>
-      <c r="B49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49">
-        <v>5</v>
-      </c>
-      <c r="J49">
-        <v>2000</v>
-      </c>
-      <c r="N49">
-        <v>2001</v>
-      </c>
-      <c r="O49">
-        <v>2004</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2003</v>
-      </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>108</v>
+        <v>2001</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50">
+        <v>29</v>
+      </c>
+      <c r="O50">
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
+        <v>2002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>2000</v>
+      </c>
+      <c r="N51">
+        <v>2001</v>
+      </c>
+      <c r="O51">
         <v>2004</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>2006</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2005</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>124</v>
+        <v>2003</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52">
-        <v>19</v>
-      </c>
-      <c r="J52">
-        <v>8</v>
-      </c>
-      <c r="N52">
-        <v>2001</v>
+        <v>52</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
+        <v>2004</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
         <v>2006</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53">
-        <v>26</v>
-      </c>
-      <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="J53">
-        <v>2000</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F54">
-        <v>30</v>
-      </c>
-      <c r="O54">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="N54">
+        <v>2001</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F55">
-        <v>29</v>
-      </c>
-      <c r="O55">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>2000</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="O56">
         <v>29</v>
-      </c>
-      <c r="O56">
-        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
+        <v>2008</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57">
+        <v>29</v>
+      </c>
+      <c r="O57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2009</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58">
+        <v>29</v>
+      </c>
+      <c r="O58">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>2010</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>134</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
         <v>40</v>
       </c>
-      <c r="F57">
+      <c r="F59">
         <v>27</v>
       </c>
-      <c r="G57">
+      <c r="G59">
         <v>15</v>
       </c>
-      <c r="O57">
+      <c r="O59">
         <v>1500</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD24FC9-CB32-4D39-9382-3D34C5A71186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -68,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,14 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -93,7 +82,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -126,179 +114,25 @@
 （护甲持续时间默认2秒，0=无限时间，其余 x: 持续时间变为2+x秒）
 效果结束时获得buff =26,
 效果结束时释放技能 =27,
-引导能量</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> =28,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>获得护甲后触发技能</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> =29,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>生命值小于百分之</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>25</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>时触发</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">=30,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>成功格挡后触发技能</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">=31,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>时间间隔触发卡牌效果</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">=32,
+引导能量 =28,
+获得护甲后触发技能 =29,
+生命值小于百分之25时触发=30,
+成功格挡后触发技能=31,
+时间间隔触发卡牌效果=32,
 （抽牌，弃牌，创建牌）
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>冰冷效果</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">=33,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>对目标造成伤害后触发技能</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> =34,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>受到伤害后触发技能</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>=35</t>
+冰冷效果=33,
+对目标造成伤害后触发技能 =34,
+受到伤害后触发技能=35</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -307,7 +141,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -323,14 +156,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -339,7 +171,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -348,14 +179,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">幻月:
@@ -366,7 +196,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -375,14 +204,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -391,7 +219,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -402,14 +229,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -418,22 +244,12 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0：移除所有同类buff
 1:只移除自己
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2：每次触发移除一层</t>
+2：每次触发移除一层</t>
         </r>
       </text>
     </comment>
@@ -442,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -491,7 +307,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -502,7 +317,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -578,7 +392,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -589,7 +402,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -665,7 +477,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -676,7 +487,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -705,6 +515,12 @@
     <t>攻击力提高3点，持续10秒</t>
   </si>
   <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>冰冷</t>
+  </si>
+  <si>
     <t>复活</t>
   </si>
   <si>
@@ -755,7 +571,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -766,7 +581,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -876,6 +690,21 @@
     <t>每当暴击便回复1点生命值。</t>
   </si>
   <si>
+    <t>神圣法典</t>
+  </si>
+  <si>
+    <t>战斗中每隔6秒，将1张[真言]置入手牌</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>每2秒造成3点伤害,并附加2点冰冷,需要[维持最低2点能量]</t>
+  </si>
+  <si>
+    <t>暴风雪伤害</t>
+  </si>
+  <si>
     <t>激怒</t>
   </si>
   <si>
@@ -933,39 +762,29 @@
     <t>15秒后自动死亡</t>
   </si>
   <si>
-    <t>神圣法典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中每隔6秒，将1张[真言]置入手牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴风雪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴风雪伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2秒造成3点伤害,并附加2点冰冷,需要[维持最低2点能量]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>造成伤害使之弃牌</t>
+  </si>
+  <si>
+    <t>造成伤害使之弃1牌</t>
+  </si>
+  <si>
+    <t>间隔弃牌</t>
+  </si>
+  <si>
+    <t>间隔加迟钝牌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,48 +796,166 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,8 +968,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1040,11 +1163,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1057,21 +1422,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1329,19 +1735,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1358,7 +1764,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1467,7 +1873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1490,7 +1896,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1528,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1557,7 +1963,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1586,7 +1992,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1609,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1638,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1661,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1684,7 +2090,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1716,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1742,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1774,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1806,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1838,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1870,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1896,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1925,24 +2331,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2"/>
       <c r="R19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2"/>
       <c r="F20">
@@ -1955,15 +2361,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21">
         <v>12</v>
@@ -1972,7 +2378,7 @@
         <v>0.3</v>
       </c>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1984,15 +2390,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1001</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
@@ -2001,15 +2407,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1002</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
@@ -2030,15 +2436,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1003</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -2062,15 +2468,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1004</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
@@ -2088,15 +2494,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1005</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -2120,12 +2526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1006</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F27">
         <v>16</v>
@@ -2140,15 +2546,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>1007</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
@@ -2166,15 +2572,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1013</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
@@ -2192,15 +2598,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1014</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -2218,15 +2624,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1015</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -2244,15 +2650,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1016</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
@@ -2270,15 +2676,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1017</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -2296,15 +2702,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1018</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
@@ -2322,15 +2728,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1009</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
         <v>52</v>
@@ -2345,15 +2751,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>1010</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -2368,15 +2774,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>1011</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
@@ -2394,15 +2800,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>1012</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
@@ -2411,15 +2817,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>1023</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
         <v>52</v>
@@ -2431,15 +2837,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>1024</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
         <v>40</v>
@@ -2457,21 +2863,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1025</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F41">
         <v>7</v>
@@ -2489,12 +2895,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1026</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2"/>
       <c r="F42">
@@ -2510,15 +2916,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1027</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
@@ -2539,15 +2945,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1028</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
@@ -2565,15 +2971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1029</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
@@ -2585,15 +2991,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1030</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>136</v>
+        <v>118</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -2614,15 +3020,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1031</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -2640,12 +3046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1032</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C48" s="3"/>
       <c r="F48">
@@ -2658,21 +3064,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>2000</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F49">
         <v>19</v>
@@ -2684,15 +3090,15 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>2001</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F50">
         <v>29</v>
@@ -2701,15 +3107,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>2002</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -2724,24 +3130,24 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>2003</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>2004</v>
       </c>
@@ -2770,21 +3176,21 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>2005</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
         <v>40</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F54">
         <v>19</v>
@@ -2796,15 +3202,15 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>2006</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F55">
         <v>26</v>
@@ -2819,15 +3225,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>2007</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F56">
         <v>30</v>
@@ -2836,7 +3242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>2008</v>
       </c>
@@ -2844,7 +3250,7 @@
         <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F57">
         <v>29</v>
@@ -2853,7 +3259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>2009</v>
       </c>
@@ -2861,7 +3267,7 @@
         <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F58">
         <v>29</v>
@@ -2870,15 +3276,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>2010</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
         <v>40</v>
@@ -2893,10 +3299,90 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="60" spans="1:18">
+      <c r="A60">
+        <v>2011</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>34</v>
+      </c>
+      <c r="M60">
+        <v>-1</v>
+      </c>
+      <c r="O60">
+        <v>1502</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61">
+        <v>2012</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>32</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>-1</v>
+      </c>
+      <c r="O61">
+        <v>1502</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62">
+        <v>2013</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62">
+        <v>32</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>-1</v>
+      </c>
+      <c r="O62">
+        <v>1504</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21390646-DB53-4D9C-BC39-4B50C7F19F16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +92,47 @@
           </rPr>
           <t xml:space="preserve">
 昏迷 =1,
-间隔释放技能=2,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>间隔释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 影响攻击力 =3,
 影响防御力 =4,
 失去所有护甲后增减buff =5,
@@ -113,20 +159,115 @@
 影响护甲持续时间 =25,
 （护甲持续时间默认2秒，0=无限时间，其余 x: 持续时间变为2+x秒）
 效果结束时获得buff =26,
-效果结束时释放技能 =27,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>效果结束时释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> =27,
 引导能量 =28,
-获得护甲后触发技能 =29,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>获得护甲后触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> =29,
 生命值小于百分之25时触发=30,
 成功格挡后触发技能=31,
-时间间隔触发卡牌效果=32,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时间间隔触发卡牌效果=32</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">,
 （抽牌，弃牌，创建牌）
 冰冷效果=33,
-对目标造成伤害后触发技能 =34,
-受到伤害后触发技能=35</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对目标造成伤害后触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> =34,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>受到伤害后触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=35</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +297,73 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{429DCB93-4386-4D58-AC56-713C869E0826}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>幻月:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果特效类型为【XXX触发技能】
+那么：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0=BUFF</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">的持有者释放技能
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=BUFF持有者的目标释放技能
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -777,14 +984,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,150 +1001,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -954,8 +1011,42 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,194 +1059,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1163,251 +1068,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1423,61 +1086,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1735,19 +1354,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1764,7 +1383,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1873,7 +1492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1896,7 +1515,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1934,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1963,7 +1582,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1992,7 +1611,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2015,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2044,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2067,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2090,7 +1709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2122,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2148,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2180,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2212,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2244,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2276,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2302,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2331,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2343,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>33</v>
       </c>
@@ -2361,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -2390,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2407,7 +2026,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1002</v>
       </c>
@@ -2436,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1003</v>
       </c>
@@ -2468,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1004</v>
       </c>
@@ -2494,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1005</v>
       </c>
@@ -2526,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1006</v>
       </c>
@@ -2546,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1007</v>
       </c>
@@ -2572,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -2598,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1014</v>
       </c>
@@ -2624,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1015</v>
       </c>
@@ -2650,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1016</v>
       </c>
@@ -2676,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1017</v>
       </c>
@@ -2702,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1018</v>
       </c>
@@ -2728,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1009</v>
       </c>
@@ -2751,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1010</v>
       </c>
@@ -2774,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1011</v>
       </c>
@@ -2800,7 +2419,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1012</v>
       </c>
@@ -2817,7 +2436,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1023</v>
       </c>
@@ -2837,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1024</v>
       </c>
@@ -2863,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1025</v>
       </c>
@@ -2895,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1026</v>
       </c>
@@ -2916,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1027</v>
       </c>
@@ -2945,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1028</v>
       </c>
@@ -2971,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1029</v>
       </c>
@@ -2991,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1030</v>
       </c>
@@ -3020,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1031</v>
       </c>
@@ -3046,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1032</v>
       </c>
@@ -3064,7 +2683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2000</v>
       </c>
@@ -3090,7 +2709,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2001</v>
       </c>
@@ -3107,7 +2726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2002</v>
       </c>
@@ -3130,7 +2749,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2003</v>
       </c>
@@ -3147,7 +2766,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2004</v>
       </c>
@@ -3176,7 +2795,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2005</v>
       </c>
@@ -3202,7 +2821,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2006</v>
       </c>
@@ -3225,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2007</v>
       </c>
@@ -3242,7 +2861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2008</v>
       </c>
@@ -3259,7 +2878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2009</v>
       </c>
@@ -3276,7 +2895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2010</v>
       </c>
@@ -3299,7 +2918,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -3325,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2012</v>
       </c>
@@ -3352,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2013</v>
       </c>
@@ -3380,9 +2999,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21390646-DB53-4D9C-BC39-4B50C7F19F16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,9 +92,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>间隔释放技能</t>
@@ -108,9 +100,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>=2</t>
@@ -119,9 +109,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>,</t>
@@ -165,9 +153,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>效果结束时释放技能</t>
@@ -186,9 +172,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>获得护甲后触发技能</t>
@@ -208,9 +192,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>时间间隔触发卡牌效果=32</t>
@@ -230,9 +212,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>对目标造成伤害后触发技能</t>
@@ -250,9 +230,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>受到伤害后触发技能</t>
@@ -267,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,13 +275,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{429DCB93-4386-4D58-AC56-713C869E0826}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -312,58 +289,19 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 如果特效类型为【XXX触发技能】
 那么：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0=BUFF</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">的持有者释放技能
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">=BUFF持有者的目标释放技能
+0=BUFF的持有者释放技能
+1=BUFF持有者的目标释放技能
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -713,7 +651,7 @@
     <t>攻击力上升</t>
   </si>
   <si>
-    <t>攻击力提升1点,持续6秒；可叠加</t>
+    <t>攻击力提升1点,持续10秒；可叠加</t>
   </si>
   <si>
     <t>勇气化身</t>
@@ -984,8 +922,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +945,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1011,42 +1099,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1059,8 +1113,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1068,9 +1308,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1086,17 +1568,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1354,19 +1880,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1383,7 +1909,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1492,7 +2018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1515,7 +2041,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1553,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1582,7 +2108,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1611,7 +2137,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1634,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1663,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1686,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1709,7 +2235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1741,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1767,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1799,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1831,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1863,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1895,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1912,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1921,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1950,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1962,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>33</v>
       </c>
@@ -1980,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>100</v>
       </c>
@@ -2009,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2026,7 +2552,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1002</v>
       </c>
@@ -2055,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1003</v>
       </c>
@@ -2087,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1004</v>
       </c>
@@ -2113,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1005</v>
       </c>
@@ -2145,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1006</v>
       </c>
@@ -2165,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>1007</v>
       </c>
@@ -2191,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -2217,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1014</v>
       </c>
@@ -2243,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1015</v>
       </c>
@@ -2269,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1016</v>
       </c>
@@ -2295,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1017</v>
       </c>
@@ -2321,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1018</v>
       </c>
@@ -2347,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1009</v>
       </c>
@@ -2370,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>1010</v>
       </c>
@@ -2393,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>1011</v>
       </c>
@@ -2419,7 +2945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>1012</v>
       </c>
@@ -2436,7 +2962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>1023</v>
       </c>
@@ -2456,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>1024</v>
       </c>
@@ -2482,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1025</v>
       </c>
@@ -2514,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1026</v>
       </c>
@@ -2535,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1027</v>
       </c>
@@ -2564,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1028</v>
       </c>
@@ -2590,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1029</v>
       </c>
@@ -2610,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1030</v>
       </c>
@@ -2639,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1031</v>
       </c>
@@ -2665,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1032</v>
       </c>
@@ -2683,7 +3209,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>2000</v>
       </c>
@@ -2709,7 +3235,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>2001</v>
       </c>
@@ -2726,7 +3252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>2002</v>
       </c>
@@ -2749,7 +3275,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>2003</v>
       </c>
@@ -2766,7 +3292,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>2004</v>
       </c>
@@ -2795,7 +3321,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>2005</v>
       </c>
@@ -2821,7 +3347,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>2006</v>
       </c>
@@ -2844,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>2007</v>
       </c>
@@ -2861,7 +3387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>2008</v>
       </c>
@@ -2878,7 +3404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>2009</v>
       </c>
@@ -2895,7 +3421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>2010</v>
       </c>
@@ -2918,7 +3444,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -2944,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>2012</v>
       </c>
@@ -2971,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>2013</v>
       </c>
@@ -2999,9 +3525,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -657,7 +657,7 @@
     <t>勇气化身</t>
   </si>
   <si>
-    <t>攻击力提高3点，持续10秒</t>
+    <t>攻击力提高2点，持续10秒</t>
   </si>
   <si>
     <t>中毒</t>
@@ -844,12 +844,30 @@
     <t>暴风雪</t>
   </si>
   <si>
-    <t>每2秒造成3点伤害,并附加2点冰冷,需要[维持最低2点能量]</t>
+    <t>每秒造成1点伤害,并附加1点冰冷,需要[维持最低2点能量]</t>
   </si>
   <si>
     <t>暴风雪伤害</t>
   </si>
   <si>
+    <t>造成伤害加冰冷</t>
+  </si>
+  <si>
+    <t>每次你对敌人造成伤害时，对其施加2层[冰冷]</t>
+  </si>
+  <si>
+    <t>低温转换</t>
+  </si>
+  <si>
+    <t>每4秒造成2点伤害，并回复3点能量。需要[维持最低4点能量]</t>
+  </si>
+  <si>
+    <t>低温转换效果1</t>
+  </si>
+  <si>
+    <t>低温转换效果2</t>
+  </si>
+  <si>
     <t>激怒</t>
   </si>
   <si>
@@ -917,6 +935,12 @@
   </si>
   <si>
     <t>间隔加迟钝牌</t>
+  </si>
+  <si>
+    <t>冰冷血脉</t>
+  </si>
+  <si>
+    <t>战斗中每隔5秒，将1张[碎冰]置入手牌</t>
   </si>
 </sst>
 </file>
@@ -925,9 +949,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -945,9 +969,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,7 +986,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,15 +1008,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,71 +1059,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,9 +1075,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1115,49 +1139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,13 +1163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1181,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,7 +1211,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,19 +1253,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,25 +1295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,13 +1307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,13 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,6 +1330,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1333,17 +1383,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,36 +1430,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1424,133 +1448,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1886,10 +1910,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2467,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>-1</v>
@@ -3203,250 +3227,272 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O48">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:18">
       <c r="A49">
-        <v>2000</v>
+        <v>1033</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49">
+        <v>34</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-1</v>
+      </c>
+      <c r="O49">
+        <v>303</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>1034</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F49">
-        <v>19</v>
-      </c>
-      <c r="J49">
-        <v>9</v>
-      </c>
-      <c r="N49">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50">
-        <v>2001</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50">
+        <v>28</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>1035</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:15">
+      <c r="A51">
+        <v>1035</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F50">
-        <v>29</v>
-      </c>
-      <c r="O50">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51">
-        <v>2002</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3"/>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="N51">
+        <v>1036</v>
+      </c>
+      <c r="O51">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:15">
+      <c r="A52">
+        <v>1036</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="J51">
-        <v>2000</v>
-      </c>
-      <c r="N51">
-        <v>2001</v>
-      </c>
-      <c r="O51">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
-        <v>2003</v>
-      </c>
-      <c r="B52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" t="s">
-        <v>110</v>
+      <c r="C52" s="3"/>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="O52">
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>2004</v>
-      </c>
-      <c r="B53" t="s">
-        <v>49</v>
+        <v>2000</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
       </c>
       <c r="N53">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D54" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="C54" t="s">
         <v>133</v>
       </c>
       <c r="F54">
-        <v>19</v>
-      </c>
-      <c r="J54">
-        <v>8</v>
-      </c>
-      <c r="N54">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>29</v>
+      </c>
+      <c r="O54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>2006</v>
-      </c>
-      <c r="B55" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F55">
-        <v>26</v>
-      </c>
-      <c r="G55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J55">
         <v>2000</v>
       </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="N55">
+        <v>2001</v>
+      </c>
+      <c r="O55">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
-        <v>2007</v>
-      </c>
-      <c r="B56" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
+        <v>2004</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
+        <v>2005</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F56">
-        <v>30</v>
-      </c>
-      <c r="O56">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57">
-        <v>2008</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="C58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F57">
-        <v>29</v>
-      </c>
-      <c r="O57">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58">
-        <v>2009</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F58">
-        <v>29</v>
-      </c>
-      <c r="O58">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="N58">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D59" t="s">
-        <v>40</v>
-      </c>
       <c r="F59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G59">
-        <v>15</v>
-      </c>
-      <c r="O59">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>2000</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>142</v>
@@ -3454,73 +3500,176 @@
       <c r="C60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="O60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61">
+        <v>2008</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61">
+        <v>29</v>
+      </c>
+      <c r="O61">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62">
+        <v>2009</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62">
+        <v>29</v>
+      </c>
+      <c r="O62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63">
+        <v>2010</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s">
         <v>40</v>
       </c>
-      <c r="F60">
+      <c r="F63">
+        <v>27</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
+      </c>
+      <c r="O63">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64">
+        <v>2011</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64">
         <v>34</v>
       </c>
-      <c r="M60">
+      <c r="M64">
         <v>-1</v>
       </c>
-      <c r="O60">
+      <c r="O64">
         <v>1502</v>
       </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61">
+      <c r="R64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65">
         <v>2012</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" t="s">
+      <c r="B65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" t="s">
         <v>40</v>
       </c>
-      <c r="F61">
+      <c r="F65">
         <v>32</v>
       </c>
-      <c r="H61">
+      <c r="H65">
         <v>2</v>
       </c>
-      <c r="M61">
+      <c r="M65">
         <v>-1</v>
       </c>
-      <c r="O61">
+      <c r="O65">
         <v>1502</v>
       </c>
-      <c r="R61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62">
+      <c r="R65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66">
         <v>2013</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" t="s">
+      <c r="B66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" t="s">
         <v>40</v>
       </c>
-      <c r="F62">
+      <c r="F66">
         <v>32</v>
       </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
-      <c r="M62">
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="M66">
         <v>-1</v>
       </c>
-      <c r="O62">
+      <c r="O66">
         <v>1504</v>
       </c>
-      <c r="R62">
+      <c r="R66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67">
+        <v>2014</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <v>32</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+      <c r="O67">
+        <v>53</v>
+      </c>
+      <c r="R67">
         <v>1</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -949,9 +949,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -969,7 +969,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -977,8 +976,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -992,9 +1021,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,9 +1030,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,6 +1059,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1038,29 +1082,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,39 +1098,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1139,6 +1139,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1151,25 +1247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,13 +1271,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,13 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,31 +1307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,61 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,32 +1330,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1378,16 +1352,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1407,17 +1413,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,8 +1425,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,10 +1436,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1448,133 +1448,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1912,8 +1912,8 @@
   <sheetPr/>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3605,7 +3605,7 @@
         <v>32</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65">
         <v>-1</v>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC4B19E-6728-4B06-9676-DF30DBCF9BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +52,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -59,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,13 +77,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -82,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,6 +105,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>间隔释放技能</t>
@@ -101,6 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>=2</t>
@@ -110,6 +124,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>,</t>
@@ -118,6 +133,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -154,6 +170,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>效果结束时释放技能</t>
@@ -162,6 +179,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> =27,
@@ -173,6 +191,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>获得护甲后触发技能</t>
@@ -181,6 +200,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> =29,
@@ -193,6 +213,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>时间间隔触发卡牌效果=32</t>
@@ -201,6 +222,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">,
@@ -213,6 +235,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>对目标造成伤害后触发技能</t>
@@ -221,6 +244,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> =34,
@@ -231,6 +255,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>受到伤害后触发技能</t>
@@ -239,19 +264,22 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>=35</t>
+          <t>=35，
+影响能量回复速度=36</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -260,6 +288,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -275,13 +304,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -290,6 +320,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -301,13 +332,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -316,6 +348,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -324,13 +357,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">幻月:
@@ -341,6 +375,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -349,13 +384,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -364,6 +400,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -374,13 +411,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -389,6 +427,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -403,7 +442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -452,6 +491,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -462,6 +502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -537,6 +578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -547,6 +589,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -622,6 +665,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -632,6 +676,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -716,6 +761,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -726,6 +772,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -844,9 +891,6 @@
     <t>暴风雪</t>
   </si>
   <si>
-    <t>每秒造成1点伤害,并附加1点冰冷,需要[维持最低2点能量]</t>
-  </si>
-  <si>
     <t>暴风雪伤害</t>
   </si>
   <si>
@@ -940,20 +984,23 @@
     <t>冰冷血脉</t>
   </si>
   <si>
-    <t>战斗中每隔5秒，将1张[碎冰]置入手牌</t>
+    <t>暴风雪降低能量回复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中每隔5秒，将1张[冰枪术]置入手牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒造成1点伤害,并附加1点冰冷,并使能量回复速度降低0.5,需要[维持最低2点能量]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +1012,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -972,159 +1020,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,194 +1058,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1332,251 +1067,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1592,61 +1085,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1904,19 +1353,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1933,7 +1382,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -2042,7 +1491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2065,7 +1514,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2103,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2132,7 +1581,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2161,7 +1610,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2184,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2213,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2236,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2259,7 +1708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2291,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2317,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2349,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2381,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2413,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2445,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2471,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2500,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2512,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>33</v>
       </c>
@@ -2530,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -2559,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2576,7 +2025,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1002</v>
       </c>
@@ -2605,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1003</v>
       </c>
@@ -2637,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1004</v>
       </c>
@@ -2663,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1005</v>
       </c>
@@ -2695,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1006</v>
       </c>
@@ -2715,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1007</v>
       </c>
@@ -2741,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -2767,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1014</v>
       </c>
@@ -2793,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1015</v>
       </c>
@@ -2819,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1016</v>
       </c>
@@ -2845,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1017</v>
       </c>
@@ -2871,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1018</v>
       </c>
@@ -2897,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1009</v>
       </c>
@@ -2920,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1010</v>
       </c>
@@ -2943,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1011</v>
       </c>
@@ -2969,7 +2418,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1012</v>
       </c>
@@ -2986,7 +2435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1023</v>
       </c>
@@ -3006,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1024</v>
       </c>
@@ -3032,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1025</v>
       </c>
@@ -3064,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1026</v>
       </c>
@@ -3085,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1027</v>
       </c>
@@ -3114,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1028</v>
       </c>
@@ -3140,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1029</v>
       </c>
@@ -3160,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1030</v>
       </c>
@@ -3189,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1031</v>
       </c>
@@ -3197,7 +2646,7 @@
         <v>120</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3215,12 +2664,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1032</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="3"/>
       <c r="F48">
@@ -3229,19 +2678,22 @@
       <c r="H48">
         <v>1</v>
       </c>
+      <c r="N48">
+        <v>1037</v>
+      </c>
       <c r="O48">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1033</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -3262,15 +2714,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1034</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -3288,12 +2740,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="1:15">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1035</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="3"/>
       <c r="F51">
@@ -3302,7 +2754,6 @@
       <c r="H51">
         <v>4</v>
       </c>
-      <c r="I51" s="1"/>
       <c r="N51">
         <v>1036</v>
       </c>
@@ -3310,12 +2761,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="1:15">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1036</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="3"/>
       <c r="F52">
@@ -3324,288 +2775,275 @@
       <c r="H52">
         <v>4</v>
       </c>
-      <c r="I52" s="1"/>
       <c r="O52">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
+        <v>1037</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="F53">
+        <v>36</v>
+      </c>
+      <c r="J53">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>2000</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
         <v>129</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F54">
+        <v>19</v>
+      </c>
+      <c r="J54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2001</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55">
+        <v>29</v>
+      </c>
+      <c r="O55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>2000</v>
+      </c>
+      <c r="N56">
+        <v>2001</v>
+      </c>
+      <c r="O56">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2003</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2005</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53">
+      <c r="E59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59">
         <v>19</v>
       </c>
-      <c r="J53">
-        <v>9</v>
-      </c>
-      <c r="N53">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54">
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="N59">
         <v>2001</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F54">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2006</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60">
+        <v>26</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>2000</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2007</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="O61">
         <v>29</v>
       </c>
-      <c r="O54">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55">
-        <v>2002</v>
-      </c>
-      <c r="B55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
-      <c r="J55">
-        <v>2000</v>
-      </c>
-      <c r="N55">
-        <v>2001</v>
-      </c>
-      <c r="O55">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>2003</v>
-      </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57">
-        <v>2004</v>
-      </c>
-      <c r="B57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58">
-        <v>2005</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58">
-        <v>19</v>
-      </c>
-      <c r="J58">
-        <v>8</v>
-      </c>
-      <c r="N58">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59">
-        <v>2006</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F59">
-        <v>26</v>
-      </c>
-      <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="J59">
-        <v>2000</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60">
-        <v>2007</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60">
-        <v>30</v>
-      </c>
-      <c r="O60">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>2008</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F61">
-        <v>29</v>
-      </c>
-      <c r="O61">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62">
-        <v>2009</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F62">
         <v>29</v>
       </c>
       <c r="O62">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2009</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63">
+        <v>29</v>
+      </c>
+      <c r="O63">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>2010</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
         <v>146</v>
-      </c>
-      <c r="C63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63">
-        <v>27</v>
-      </c>
-      <c r="G63">
-        <v>15</v>
-      </c>
-      <c r="O63">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="A64">
-        <v>2011</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D64" t="s">
         <v>40</v>
       </c>
       <c r="F64">
-        <v>34</v>
-      </c>
-      <c r="M64">
-        <v>-1</v>
+        <v>27</v>
+      </c>
+      <c r="G64">
+        <v>15</v>
       </c>
       <c r="O64">
-        <v>1502</v>
-      </c>
-      <c r="R64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D65" t="s">
         <v>40</v>
       </c>
       <c r="F65">
-        <v>32</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="M65">
         <v>-1</v>
@@ -3617,12 +3055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" t="s">
@@ -3632,28 +3070,26 @@
         <v>32</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M66">
         <v>-1</v>
       </c>
       <c r="O66">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C67" s="3"/>
       <c r="D67" t="s">
         <v>40</v>
       </c>
@@ -3661,22 +3097,51 @@
         <v>32</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M67">
         <v>-1</v>
       </c>
       <c r="O67">
+        <v>1504</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2014</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68">
+        <v>32</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>-1</v>
+      </c>
+      <c r="O68">
         <v>53</v>
       </c>
-      <c r="R67">
+      <c r="R68">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC4B19E-6728-4B06-9676-DF30DBCF9BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B4A6E-680D-428E-9DF5-B03FBA26071D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,8 +267,29 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>=35，
-影响能量回复速度=36</t>
+          <t xml:space="preserve">=35，
+影响能量回复速度=36,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击后触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=37</t>
         </r>
       </text>
     </comment>
@@ -442,7 +463,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -843,15 +864,9 @@
     <t>兴奋</t>
   </si>
   <si>
-    <t>处于兴奋状态下时,你的一些技能会得到增强。</t>
-  </si>
-  <si>
     <t>水晶剑</t>
   </si>
   <si>
-    <t>暴击率提升10%，暴击后会获得[兴奋]状态，持续10秒</t>
-  </si>
-  <si>
     <t>忏悔</t>
   </si>
   <si>
@@ -966,9 +981,6 @@
     <t>死亡倒计时</t>
   </si>
   <si>
-    <t>15秒后自动死亡</t>
-  </si>
-  <si>
     <t>造成伤害使之弃牌</t>
   </si>
   <si>
@@ -982,17 +994,82 @@
   </si>
   <si>
     <t>冰冷血脉</t>
-  </si>
-  <si>
-    <t>暴风雪降低能量回复</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战斗中每隔5秒，将1张[冰枪术]置入手牌</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>每秒造成1点伤害,并附加1点冰冷,并使能量回复速度降低0.5,需要[维持最低2点能量]</t>
+    <t>水晶剑-暴击触发技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇斗篷-回复能量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋面罩-回复生命</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提升10%，任意技能暴击后会获得[兴奋]状态。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫一切伤害，15秒后自动死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低能量回复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【暴风雪不再使用】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2秒造成1点伤害,并附加1点冰冷,需要[维持最低2点能量]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每层使暴击伤害加成提高12%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,可无限叠加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并使你的一些技能得到增强。</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +1077,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1121,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1071,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1084,6 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1359,15 +1445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
@@ -2442,17 +2528,20 @@
       <c r="B39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>105</v>
+      <c r="C39" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="D39" t="s">
         <v>52</v>
       </c>
+      <c r="F39">
+        <v>17</v>
+      </c>
       <c r="G39">
         <v>10</v>
       </c>
-      <c r="M39">
-        <v>1</v>
+      <c r="J39">
+        <v>0.12</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -2460,10 +2549,10 @@
         <v>1024</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="D40" t="s">
         <v>40</v>
@@ -2476,6 +2565,9 @@
       </c>
       <c r="M40">
         <v>-1</v>
+      </c>
+      <c r="N40">
+        <v>1038</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -2486,16 +2578,16 @@
         <v>1025</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F41">
         <v>7</v>
@@ -2518,7 +2610,7 @@
         <v>1026</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" s="2"/>
       <c r="F42">
@@ -2539,10 +2631,10 @@
         <v>1027</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
@@ -2568,10 +2660,10 @@
         <v>1028</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
@@ -2584,6 +2676,9 @@
       </c>
       <c r="M44">
         <v>-1</v>
+      </c>
+      <c r="N44">
+        <v>1039</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -2594,16 +2689,19 @@
         <v>1029</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
       </c>
       <c r="M45">
         <v>-1</v>
+      </c>
+      <c r="N45">
+        <v>1040</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -2614,10 +2712,10 @@
         <v>1030</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -2643,10 +2741,10 @@
         <v>1031</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -2669,17 +2767,14 @@
         <v>1032</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" s="3"/>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1037</v>
+        <v>2</v>
       </c>
       <c r="O48">
         <v>52</v>
@@ -2690,10 +2785,10 @@
         <v>1033</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -2719,10 +2814,10 @@
         <v>1034</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -2745,7 +2840,7 @@
         <v>1035</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" s="3"/>
       <c r="F51">
@@ -2766,7 +2861,7 @@
         <v>1036</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52" s="3"/>
       <c r="F52">
@@ -2783,359 +2878,444 @@
       <c r="A53">
         <v>1037</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="3"/>
+      <c r="B53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F53">
         <v>36</v>
       </c>
       <c r="J53">
         <v>-0.5</v>
       </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2000</v>
+        <v>1038</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="F54">
-        <v>19</v>
-      </c>
-      <c r="J54">
-        <v>9</v>
-      </c>
-      <c r="N54">
-        <v>2002</v>
+        <v>37</v>
+      </c>
+      <c r="M54">
+        <v>-1</v>
+      </c>
+      <c r="O54">
+        <v>56</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2001</v>
+        <v>1039</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" t="s">
-        <v>132</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C55" s="3"/>
       <c r="F55">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="M55">
+        <v>-1</v>
       </c>
       <c r="O55">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2002</v>
-      </c>
-      <c r="B56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>133</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="3"/>
       <c r="F56">
-        <v>5</v>
-      </c>
-      <c r="J56">
-        <v>2000</v>
-      </c>
-      <c r="N56">
-        <v>2001</v>
+        <v>37</v>
+      </c>
+      <c r="M56">
+        <v>-1</v>
       </c>
       <c r="O56">
-        <v>2004</v>
+        <v>41</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2003</v>
-      </c>
-      <c r="B57" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>135</v>
+        <v>2000</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" t="s">
-        <v>110</v>
+        <v>40</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57">
+        <v>19</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="N57">
+        <v>2002</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2004</v>
-      </c>
-      <c r="B58" t="s">
-        <v>49</v>
+        <v>2001</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>2006</v>
+        <v>29</v>
+      </c>
+      <c r="O58">
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2005</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>138</v>
+        <v>2002</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
       </c>
       <c r="F59">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J59">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="N59">
         <v>2001</v>
       </c>
+      <c r="O59">
+        <v>2004</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2006</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>139</v>
+        <v>2003</v>
+      </c>
+      <c r="B60" t="s">
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F60">
-        <v>26</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="J60">
-        <v>2000</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2007</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>142</v>
+        <v>2004</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F61">
-        <v>30</v>
-      </c>
-      <c r="O61">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2006</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F62">
-        <v>29</v>
-      </c>
-      <c r="O62">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="N62">
+        <v>2001</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="F63">
-        <v>29</v>
-      </c>
-      <c r="O63">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>2000</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" t="s">
-        <v>40</v>
+        <v>139</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F64">
-        <v>27</v>
-      </c>
-      <c r="G64">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O64">
-        <v>1500</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>141</v>
       </c>
       <c r="F65">
+        <v>29</v>
+      </c>
+      <c r="O65">
         <v>34</v>
-      </c>
-      <c r="M65">
-        <v>-1</v>
-      </c>
-      <c r="O65">
-        <v>1502</v>
-      </c>
-      <c r="R65">
-        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C66" t="s">
+        <v>142</v>
       </c>
       <c r="F66">
-        <v>32</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-      <c r="M66">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="O66">
-        <v>1502</v>
-      </c>
-      <c r="R66">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D67" t="s">
         <v>40</v>
       </c>
       <c r="F67">
-        <v>32</v>
-      </c>
-      <c r="H67">
-        <v>4</v>
-      </c>
-      <c r="M67">
-        <v>-1</v>
+        <v>27</v>
+      </c>
+      <c r="G67">
+        <v>15</v>
+      </c>
+      <c r="N67">
+        <v>2015</v>
       </c>
       <c r="O67">
-        <v>1504</v>
-      </c>
-      <c r="R67">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
       </c>
       <c r="F68">
-        <v>32</v>
-      </c>
-      <c r="H68">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="M68">
         <v>-1</v>
       </c>
       <c r="O68">
+        <v>1502</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69">
+        <v>32</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>-1</v>
+      </c>
+      <c r="O69">
+        <v>1502</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70">
+        <v>32</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>-1</v>
+      </c>
+      <c r="O70">
+        <v>1504</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2014</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71">
+        <v>32</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>-1</v>
+      </c>
+      <c r="O71">
         <v>53</v>
       </c>
-      <c r="R68">
-        <v>1</v>
+      <c r="R71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B4A6E-680D-428E-9DF5-B03FBA26071D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D1D91A-9F95-475B-BCF5-42980F97074E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,13 +205,33 @@
           </rPr>
           <t xml:space="preserve"> =29,
 生命值小于百分之25时触发=30,
-成功格挡后触发技能=31,
 </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>成功格挡后触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=31,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -225,8 +245,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">,
-（抽牌，弃牌，创建牌）
+          <t xml:space="preserve">,（抽牌，弃牌，创建牌）
 冰冷效果=33,
 </t>
         </r>
@@ -289,7 +308,51 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>=37</t>
+          <t>=37,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+被攻击触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">=38，
+移除指定ID的BUFF=39（效果值=移除的层数，触发技能=指定的BUFFID）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>BUFF叠加到最大层触发技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=40
+（效果生效间隔=指定buffID，触发技能=触发的技能ID，效果值0=buff持有者触发技能，1=buff持有者的目标触发技能）</t>
         </r>
       </text>
     </comment>
@@ -463,7 +526,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -1024,14 +1087,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>降低能量回复</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>【暴风雪不再使用】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>每2秒造成1点伤害,并附加1点冰冷,需要[维持最低2点能量]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1044,6 +1099,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1065,11 +1121,61 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>并使你的一些技能得到增强。</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成2张冰枪术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰护体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰护体-被攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点护甲,若在护甲持续期间被攻击,则敌人获得2层[冰冷]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使目标无法行动,持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3秒</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除所有冰冷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻之心</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当[冰冷]叠加至10层时,将1张[深度冻结*]加入手牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量回复速度提升每秒2点。需要[维持最低4点能量]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1445,10 +1551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1568,7 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
@@ -1755,12 +1864,15 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>53</v>
+      <c r="C9" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
@@ -1769,6 +1881,9 @@
       </c>
       <c r="M9">
         <v>1</v>
+      </c>
+      <c r="N9">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -2049,46 +2164,41 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2"/>
       <c r="F20">
+        <v>39</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="O20">
         <v>33</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="F21">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J21">
-        <v>0.3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -2096,77 +2206,74 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>0.3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>70</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="F23">
-        <v>18</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
       <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1003</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>1002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>1</v>
@@ -2174,25 +2281,31 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -2200,31 +2313,25 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F26">
-        <v>15</v>
-      </c>
-      <c r="G26">
+        <v>14</v>
+      </c>
+      <c r="J26">
         <v>10</v>
       </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
       <c r="M26">
-        <v>-1</v>
-      </c>
-      <c r="N26">
-        <v>1006</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -2232,71 +2339,77 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="J27">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="M27">
+        <v>-1</v>
+      </c>
+      <c r="N27">
+        <v>1006</v>
+      </c>
+      <c r="R27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M28">
-        <v>-1</v>
-      </c>
-      <c r="R28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F29">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="M29">
         <v>-1</v>
-      </c>
-      <c r="O29">
-        <v>30</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -2304,16 +2417,16 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F30">
         <v>31</v>
@@ -2322,7 +2435,7 @@
         <v>-1</v>
       </c>
       <c r="O30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R30">
         <v>1</v>
@@ -2330,13 +2443,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -2347,8 +2460,8 @@
       <c r="M31">
         <v>-1</v>
       </c>
-      <c r="O31" s="2">
-        <v>35</v>
+      <c r="O31">
+        <v>31</v>
       </c>
       <c r="R31">
         <v>1</v>
@@ -2356,13 +2469,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1016</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>90</v>
+        <v>1015</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
@@ -2374,7 +2487,7 @@
         <v>-1</v>
       </c>
       <c r="O32" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R32">
         <v>1</v>
@@ -2382,13 +2495,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -2400,7 +2513,7 @@
         <v>-1</v>
       </c>
       <c r="O33" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -2408,16 +2521,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1018</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>95</v>
+        <v>1017</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F34">
         <v>31</v>
@@ -2425,8 +2538,8 @@
       <c r="M34">
         <v>-1</v>
       </c>
-      <c r="O34">
-        <v>30</v>
+      <c r="O34" s="2">
+        <v>37</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -2434,88 +2547,97 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F35">
-        <v>19</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="O35">
+        <v>30</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
       </c>
       <c r="F36">
-        <v>25</v>
-      </c>
-      <c r="M36">
-        <v>-1</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M37">
         <v>-1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
       </c>
       <c r="M38">
         <v>-1</v>
@@ -2523,83 +2645,68 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>159</v>
+        <v>102</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39">
-        <v>17</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="J39">
-        <v>0.12</v>
+        <v>46</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F40">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
       </c>
       <c r="J40">
-        <v>10</v>
-      </c>
-      <c r="M40">
-        <v>-1</v>
-      </c>
-      <c r="N40">
-        <v>1038</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>7</v>
-      </c>
-      <c r="G41">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J41">
-        <v>-0.1</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>-1</v>
+      </c>
+      <c r="N41">
+        <v>1038</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -2607,20 +2714,31 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
       <c r="F42">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>-0.1</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -2628,27 +2746,19 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" t="s">
-        <v>40</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="F43">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>40</v>
-      </c>
-      <c r="M43">
         <v>-1</v>
       </c>
       <c r="R43">
@@ -2657,13 +2767,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
@@ -2671,14 +2781,14 @@
       <c r="F44">
         <v>23</v>
       </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
       <c r="J44">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M44">
         <v>-1</v>
-      </c>
-      <c r="N44">
-        <v>1039</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -2686,22 +2796,28 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
       </c>
+      <c r="F45">
+        <v>23</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
       <c r="M45">
         <v>-1</v>
       </c>
       <c r="N45">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -2709,28 +2825,22 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
       </c>
-      <c r="F46">
-        <v>32</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
       <c r="M46">
         <v>-1</v>
       </c>
-      <c r="O46">
-        <v>51</v>
+      <c r="N46">
+        <v>1040</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -2738,25 +2848,28 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>28</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>1032</v>
+        <v>32</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>-1</v>
+      </c>
+      <c r="O47">
+        <v>51</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -2764,72 +2877,72 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>1031</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>28</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="N48">
         <v>1032</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <v>52</v>
+      <c r="R48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" t="s">
-        <v>40</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C49" s="3"/>
       <c r="F49">
-        <v>34</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>303</v>
-      </c>
-      <c r="R49">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F50">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J50">
-        <v>4</v>
-      </c>
-      <c r="N50">
-        <v>1035</v>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-1</v>
+      </c>
+      <c r="O50">
+        <v>303</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -2837,31 +2950,36 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
+        <v>1034</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51">
+        <v>28</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="N51">
         <v>1035</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="N51">
-        <v>1036</v>
-      </c>
-      <c r="O51">
-        <v>54</v>
+      <c r="R51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="3"/>
       <c r="F52">
@@ -2870,46 +2988,46 @@
       <c r="H52">
         <v>4</v>
       </c>
+      <c r="N52">
+        <v>1036</v>
+      </c>
       <c r="O52">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1037</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>1036</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="3"/>
       <c r="F53">
-        <v>36</v>
-      </c>
-      <c r="J53">
-        <v>-0.5</v>
-      </c>
-      <c r="R53">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="F54">
-        <v>37</v>
-      </c>
-      <c r="M54">
-        <v>-1</v>
-      </c>
-      <c r="O54">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -2917,10 +3035,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="F55">
@@ -2930,7 +3048,7 @@
         <v>-1</v>
       </c>
       <c r="O55">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -2938,10 +3056,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1040</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>152</v>
+        <v>1039</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C56" s="3"/>
       <c r="F56">
@@ -2951,7 +3069,7 @@
         <v>-1</v>
       </c>
       <c r="O56">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -2959,362 +3077,495 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2000</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="3"/>
       <c r="F57">
-        <v>19</v>
-      </c>
-      <c r="J57">
-        <v>9</v>
-      </c>
-      <c r="N57">
-        <v>2002</v>
+        <v>37</v>
+      </c>
+      <c r="M57">
+        <v>-1</v>
+      </c>
+      <c r="O57">
+        <v>41</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2001</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>130</v>
-      </c>
+        <v>1041</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="F58">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>0.9</v>
+      </c>
+      <c r="H58">
+        <v>0.5</v>
+      </c>
+      <c r="M58">
+        <v>-1</v>
       </c>
       <c r="O58">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2002</v>
-      </c>
-      <c r="B59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>131</v>
+        <v>1042</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J59">
-        <v>2000</v>
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>-1</v>
       </c>
       <c r="N59">
-        <v>2001</v>
-      </c>
-      <c r="O59">
-        <v>2004</v>
+        <v>1043</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2003</v>
-      </c>
-      <c r="B60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" t="s">
-        <v>108</v>
+        <v>1043</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="F60">
+        <v>38</v>
+      </c>
+      <c r="M60">
+        <v>-1</v>
+      </c>
+      <c r="O60">
+        <v>59</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2004</v>
-      </c>
-      <c r="B61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" t="s">
-        <v>57</v>
+        <v>1044</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="H61">
+        <v>33</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>2006</v>
+        <v>-1</v>
+      </c>
+      <c r="O61">
+        <v>60</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
       </c>
       <c r="D62" t="s">
         <v>40</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F62">
         <v>19</v>
       </c>
       <c r="J62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N62">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
       </c>
       <c r="F63">
-        <v>26</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="J63">
-        <v>2000</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="O63">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2007</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>140</v>
+        <v>2002</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
       </c>
       <c r="F64">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>2000</v>
+      </c>
+      <c r="N64">
+        <v>2001</v>
       </c>
       <c r="O64">
-        <v>29</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2008</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" t="s">
-        <v>141</v>
-      </c>
-      <c r="F65">
-        <v>29</v>
-      </c>
-      <c r="O65">
-        <v>34</v>
+        <v>2003</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2009</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>2004</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>57</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F66">
-        <v>29</v>
-      </c>
-      <c r="O66">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2006</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D67" t="s">
         <v>40</v>
       </c>
+      <c r="E67" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="F67">
-        <v>27</v>
-      </c>
-      <c r="G67">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
       </c>
       <c r="N67">
-        <v>2015</v>
-      </c>
-      <c r="O67">
-        <v>1500</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="F68">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>2000</v>
       </c>
       <c r="M68">
-        <v>-1</v>
-      </c>
-      <c r="O68">
-        <v>1502</v>
-      </c>
-      <c r="R68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" t="s">
-        <v>40</v>
+        <v>139</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F69">
-        <v>32</v>
-      </c>
-      <c r="H69">
-        <v>3</v>
-      </c>
-      <c r="M69">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="O69">
-        <v>1502</v>
-      </c>
-      <c r="R69">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
       </c>
       <c r="F70">
-        <v>32</v>
-      </c>
-      <c r="H70">
-        <v>4</v>
-      </c>
-      <c r="M70">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="O70">
-        <v>1504</v>
-      </c>
-      <c r="R70">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
       </c>
       <c r="F71">
-        <v>32</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="M71">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="O71">
-        <v>53</v>
-      </c>
-      <c r="R71">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
+        <v>2010</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72">
+        <v>27</v>
+      </c>
+      <c r="G72">
+        <v>15</v>
+      </c>
+      <c r="N72">
         <v>2015</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="O72">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2011</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73">
+        <v>34</v>
+      </c>
+      <c r="M73">
+        <v>-1</v>
+      </c>
+      <c r="O73">
+        <v>1502</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2012</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74">
+        <v>32</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>-1</v>
+      </c>
+      <c r="O74">
+        <v>1502</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2013</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75">
+        <v>32</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>-1</v>
+      </c>
+      <c r="O75">
+        <v>1504</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2014</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76">
+        <v>32</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>-1</v>
+      </c>
+      <c r="O76">
+        <v>53</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2015</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F72">
+      <c r="F77">
         <v>4</v>
       </c>
-      <c r="J72">
+      <c r="J77">
         <v>100</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D1D91A-9F95-475B-BCF5-42980F97074E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B89F5-3E04-44A5-8A0A-ADCC8EA5C90A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -979,9 +979,6 @@
   </si>
   <si>
     <t>低温转换</t>
-  </si>
-  <si>
-    <t>每4秒造成2点伤害，并回复3点能量。需要[维持最低4点能量]</t>
   </si>
   <si>
     <t>低温转换效果1</t>
@@ -1142,10 +1139,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>获得6点护甲,若在护甲持续期间被攻击,则敌人获得2层[冰冷]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>使目标无法行动,持续</t>
     </r>
@@ -1176,6 +1169,14 @@
   </si>
   <si>
     <t>能量回复速度提升每秒2点。需要[维持最低4点能量]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰护体-降低伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低所有受到的伤害1点,若受到攻击,则敌人获得2层[冰冷],需要[维持2点能量]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1551,13 +1552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1865,7 +1866,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -2167,7 +2168,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2"/>
       <c r="F20">
@@ -2668,7 +2669,7 @@
         <v>104</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
@@ -2691,7 +2692,7 @@
         <v>105</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
         <v>40</v>
@@ -2883,7 +2884,7 @@
         <v>118</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -2956,7 +2957,7 @@
         <v>122</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
@@ -2968,7 +2969,7 @@
         <v>4</v>
       </c>
       <c r="N51">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -2979,7 +2980,7 @@
         <v>1035</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="3"/>
       <c r="F52">
@@ -3000,7 +3001,7 @@
         <v>1036</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3"/>
       <c r="F53">
@@ -3020,9 +3021,7 @@
       <c r="B54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="C54" s="3"/>
       <c r="F54">
         <v>36</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>1038</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" s="3"/>
       <c r="F55">
@@ -3059,7 +3058,7 @@
         <v>1039</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="3"/>
       <c r="F56">
@@ -3080,7 +3079,7 @@
         <v>1040</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="3"/>
       <c r="F57">
@@ -3101,17 +3100,17 @@
         <v>1041</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" s="3"/>
       <c r="F58">
         <v>32</v>
       </c>
       <c r="G58">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H58">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M58">
         <v>-1</v>
@@ -3128,10 +3127,10 @@
         <v>1042</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
         <v>40</v>
@@ -3140,10 +3139,10 @@
         <v>41</v>
       </c>
       <c r="F59">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M59">
         <v>-1</v>
@@ -3160,7 +3159,7 @@
         <v>1043</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" s="3"/>
       <c r="F60">
@@ -3169,6 +3168,9 @@
       <c r="M60">
         <v>-1</v>
       </c>
+      <c r="N60">
+        <v>1045</v>
+      </c>
       <c r="O60">
         <v>59</v>
       </c>
@@ -3181,10 +3183,10 @@
         <v>1044</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
         <v>40</v>
@@ -3210,284 +3212,272 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2000</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>1045</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="3"/>
       <c r="F62">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J62">
-        <v>9</v>
-      </c>
-      <c r="N62">
-        <v>2002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F63">
-        <v>29</v>
-      </c>
-      <c r="O63">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="J63">
+        <v>9</v>
+      </c>
+      <c r="N63">
+        <v>2002</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2002</v>
-      </c>
-      <c r="B64" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
         <v>129</v>
       </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
       <c r="F64">
-        <v>5</v>
-      </c>
-      <c r="J64">
-        <v>2000</v>
-      </c>
-      <c r="N64">
-        <v>2001</v>
+        <v>29</v>
       </c>
       <c r="O64">
-        <v>2004</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E65" t="s">
-        <v>108</v>
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>2000</v>
+      </c>
+      <c r="N65">
+        <v>2001</v>
+      </c>
+      <c r="O65">
+        <v>2004</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" t="s">
-        <v>57</v>
+        <v>131</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>2006</v>
+        <v>52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2005</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>135</v>
+        <v>2004</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="F67">
-        <v>19</v>
-      </c>
-      <c r="J67">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="F68">
-        <v>26</v>
-      </c>
-      <c r="G68">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J68">
-        <v>2000</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="N68">
+        <v>2001</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F69">
-        <v>30</v>
-      </c>
-      <c r="O69">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>2000</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="O70">
         <v>29</v>
-      </c>
-      <c r="O70">
-        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F71">
         <v>29</v>
       </c>
       <c r="O71">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
       </c>
       <c r="F72">
-        <v>27</v>
-      </c>
-      <c r="G72">
-        <v>15</v>
-      </c>
-      <c r="N72">
-        <v>2015</v>
+        <v>29</v>
       </c>
       <c r="O72">
-        <v>1500</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
       </c>
       <c r="F73">
-        <v>34</v>
-      </c>
-      <c r="M73">
-        <v>-1</v>
+        <v>27</v>
+      </c>
+      <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="N73">
+        <v>2015</v>
       </c>
       <c r="O73">
-        <v>1502</v>
-      </c>
-      <c r="R73">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D74" t="s">
         <v>40</v>
       </c>
       <c r="F74">
-        <v>32</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="M74">
         <v>-1</v>
@@ -3501,10 +3491,10 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" t="s">
@@ -3514,13 +3504,13 @@
         <v>32</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M75">
         <v>-1</v>
       </c>
       <c r="O75">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R75">
         <v>1</v>
@@ -3528,14 +3518,12 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>149</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C76" s="3"/>
       <c r="D76" t="s">
         <v>40</v>
       </c>
@@ -3543,13 +3531,13 @@
         <v>32</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M76">
         <v>-1</v>
       </c>
       <c r="O76">
-        <v>53</v>
+        <v>1504</v>
       </c>
       <c r="R76">
         <v>1</v>
@@ -3557,15 +3545,44 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
+        <v>2014</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <v>32</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>-1</v>
+      </c>
+      <c r="O77">
+        <v>53</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>2015</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77">
+      <c r="B78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="J77">
+      <c r="J78">
         <v>100</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B89F5-3E04-44A5-8A0A-ADCC8EA5C90A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -68,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,14 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -93,7 +82,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,7 +93,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>间隔释放技能</t>
@@ -114,7 +101,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>=2</t>
@@ -124,7 +110,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>,</t>
@@ -133,7 +118,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -170,7 +154,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>效果结束时释放技能</t>
@@ -179,7 +162,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> =27,
@@ -191,7 +173,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>获得护甲后触发技能</t>
@@ -200,7 +181,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> =29,
@@ -211,9 +191,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>成功格挡后触发技能</t>
@@ -222,7 +200,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">=31,
@@ -233,7 +210,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>时间间隔触发卡牌效果=32</t>
@@ -242,7 +218,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">,（抽牌，弃牌，创建牌）
@@ -254,7 +229,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>对目标造成伤害后触发技能</t>
@@ -263,7 +237,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> =34,
@@ -274,7 +247,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>受到伤害后触发技能</t>
@@ -283,7 +255,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">=35，
@@ -294,9 +265,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>暴击后触发技能</t>
@@ -305,7 +274,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>=37,</t>
@@ -314,9 +282,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -326,7 +292,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">=38，
@@ -337,9 +302,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>BUFF叠加到最大层触发技能</t>
@@ -348,7 +311,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>=40
@@ -356,14 +318,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -372,7 +333,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -388,14 +348,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -404,7 +363,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -416,14 +374,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -432,7 +389,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -441,14 +397,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">幻月:
@@ -459,7 +414,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -468,14 +422,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -484,7 +437,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -495,14 +447,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -511,7 +462,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -526,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -575,7 +525,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -586,7 +535,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +610,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -673,7 +620,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -732,24 +678,33 @@
     <t>冻结</t>
   </si>
   <si>
-    <t>炽热刺激-受伤回复</t>
-  </si>
-  <si>
-    <t>格挡2</t>
-  </si>
-  <si>
-    <t>吸收{0}点伤害，持续2秒。</t>
-  </si>
-  <si>
-    <t>无法行动</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使目标无法行动,持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3秒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -760,7 +715,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -768,6 +722,18 @@
     </r>
   </si>
   <si>
+    <t>炽热刺激-受伤回复</t>
+  </si>
+  <si>
+    <t>格挡2</t>
+  </si>
+  <si>
+    <t>吸收{0}点伤害，持续2秒。</t>
+  </si>
+  <si>
+    <t>无法行动</t>
+  </si>
+  <si>
     <t>格挡3</t>
   </si>
   <si>
@@ -790,6 +756,9 @@
   </si>
   <si>
     <t>中毒</t>
+  </si>
+  <si>
+    <t>移除所有冰冷</t>
   </si>
   <si>
     <t>冰冷</t>
@@ -845,7 +814,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -856,7 +824,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -927,168 +894,14 @@
     <t>兴奋</t>
   </si>
   <si>
-    <t>水晶剑</t>
-  </si>
-  <si>
-    <t>忏悔</t>
-  </si>
-  <si>
-    <t>每层降低10%造成的伤害,最多叠加5层，持续15秒</t>
-  </si>
-  <si>
-    <t>Effect_doubt</t>
-  </si>
-  <si>
-    <t>消除护甲-效果</t>
-  </si>
-  <si>
-    <t>正义宣言</t>
-  </si>
-  <si>
-    <t>暴击率提升40%,持续10秒</t>
-  </si>
-  <si>
-    <t>英勇斗篷</t>
-  </si>
-  <si>
-    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
-  </si>
-  <si>
-    <t>冲锋面罩</t>
-  </si>
-  <si>
-    <t>每当暴击便回复1点生命值。</t>
-  </si>
-  <si>
-    <t>神圣法典</t>
-  </si>
-  <si>
-    <t>战斗中每隔6秒，将1张[真言]置入手牌</t>
-  </si>
-  <si>
-    <t>暴风雪</t>
-  </si>
-  <si>
-    <t>暴风雪伤害</t>
-  </si>
-  <si>
-    <t>造成伤害加冰冷</t>
-  </si>
-  <si>
-    <t>每次你对敌人造成伤害时，对其施加2层[冰冷]</t>
-  </si>
-  <si>
-    <t>低温转换</t>
-  </si>
-  <si>
-    <t>低温转换效果1</t>
-  </si>
-  <si>
-    <t>低温转换效果2</t>
-  </si>
-  <si>
-    <t>激怒</t>
-  </si>
-  <si>
-    <t>获得大量护甲,每当获得护甲便对敌人造成1点穿刺伤害,失去所有护甲后会昏迷3秒。</t>
-  </si>
-  <si>
-    <t>Effect_common_angry_01</t>
-  </si>
-  <si>
-    <t>AI-巨石国王</t>
-  </si>
-  <si>
-    <t>获得护甲触发技能</t>
-  </si>
-  <si>
-    <t>失去所有护甲后获得昏迷buff</t>
-  </si>
-  <si>
-    <t>疑惑</t>
-  </si>
-  <si>
-    <t>一脸懵逼,不知道发生了甚么事……</t>
-  </si>
-  <si>
-    <t>非常愤怒！</t>
-  </si>
-  <si>
-    <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
-  </si>
-  <si>
-    <t>Effect_common_angry_02</t>
-  </si>
-  <si>
-    <t>昏迷后激怒</t>
-  </si>
-  <si>
-    <t>效果结束时获得【激怒】Buff</t>
-  </si>
-  <si>
-    <t>击晕玩家</t>
-  </si>
-  <si>
-    <t>当生命值小于25%时击晕对手</t>
-  </si>
-  <si>
-    <t>每当获得护甲时，造成2点伤害</t>
-  </si>
-  <si>
-    <t>每当获得护甲时，造成4点伤害</t>
-  </si>
-  <si>
-    <t>死亡倒计时</t>
-  </si>
-  <si>
-    <t>造成伤害使之弃牌</t>
-  </si>
-  <si>
-    <t>造成伤害使之弃1牌</t>
-  </si>
-  <si>
-    <t>间隔弃牌</t>
-  </si>
-  <si>
-    <t>间隔加迟钝牌</t>
-  </si>
-  <si>
-    <t>冰冷血脉</t>
-  </si>
-  <si>
-    <t>战斗中每隔5秒，将1张[冰枪术]置入手牌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶剑-暴击触发技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>英勇斗篷-回复能量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋面罩-回复生命</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率提升10%，任意技能暴击后会获得[兴奋]状态。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫一切伤害，15秒后自动死亡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2秒造成1点伤害,并附加1点冰冷,需要[维持最低2点能量]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每层使暴击伤害加成提高12%</t>
     </r>
     <r>
@@ -1096,7 +909,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1107,7 +919,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1118,73 +929,219 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>并使你的一些技能得到增强。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶剑</t>
+  </si>
+  <si>
+    <t>暴击率提升10%，任意技能暴击后会获得[兴奋]状态。</t>
+  </si>
+  <si>
+    <t>忏悔</t>
+  </si>
+  <si>
+    <t>每层降低10%造成的伤害,最多叠加5层，持续15秒</t>
+  </si>
+  <si>
+    <t>Effect_doubt</t>
+  </si>
+  <si>
+    <t>消除护甲-效果</t>
+  </si>
+  <si>
+    <t>正义宣言</t>
+  </si>
+  <si>
+    <t>暴击率提升40%,持续10秒</t>
+  </si>
+  <si>
+    <t>英勇斗篷</t>
+  </si>
+  <si>
+    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
+  </si>
+  <si>
+    <t>冲锋面罩</t>
+  </si>
+  <si>
+    <t>每当暴击便回复1点生命值。</t>
+  </si>
+  <si>
+    <t>神圣法典</t>
+  </si>
+  <si>
+    <t>战斗中每隔6秒，将1张[真言]置入手牌</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>每2秒造成1点伤害,并附加1点冰冷,需要[维持最低2点能量]</t>
+  </si>
+  <si>
+    <t>暴风雪伤害</t>
+  </si>
+  <si>
+    <t>造成伤害加冰冷</t>
+  </si>
+  <si>
+    <t>每次你对敌人造成伤害时，对其施加2层[冰冷]</t>
+  </si>
+  <si>
+    <t>低温转换</t>
+  </si>
+  <si>
+    <t>能量回复速度提升每秒2点。需要[维持最低4点能量]</t>
+  </si>
+  <si>
+    <t>低温转换效果1</t>
+  </si>
+  <si>
+    <t>低温转换效果2</t>
+  </si>
+  <si>
+    <t>水晶剑-暴击触发技能</t>
+  </si>
+  <si>
+    <t>英勇斗篷-回复能量</t>
+  </si>
+  <si>
+    <t>冲锋面罩-回复生命</t>
   </si>
   <si>
     <t>生成2张冰枪术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>寒冰护体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低所有受到的伤害1点,若受到攻击,则敌人获得2层[冰冷],需要[维持2点能量]</t>
   </si>
   <si>
     <t>寒冰护体-被攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>使目标无法行动,持续</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3秒</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除所有冰冷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>冰冻之心</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每当[冰冷]叠加至10层时,将1张[深度冻结*]加入手牌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量回复速度提升每秒2点。需要[维持最低4点能量]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>寒冰护体-降低伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低所有受到的伤害1点,若受到攻击,则敌人获得2层[冰冷],需要[维持2点能量]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激怒</t>
+  </si>
+  <si>
+    <t>获得大量护甲,每当获得护甲便对敌人造成1点穿刺伤害,失去所有护甲后会昏迷3秒。</t>
+  </si>
+  <si>
+    <t>Effect_common_angry_01</t>
+  </si>
+  <si>
+    <t>AI-巨石国王</t>
+  </si>
+  <si>
+    <t>获得护甲触发技能</t>
+  </si>
+  <si>
+    <t>失去所有护甲后获得昏迷buff</t>
+  </si>
+  <si>
+    <t>疑惑</t>
+  </si>
+  <si>
+    <t>一脸懵逼,不知道发生了甚么事……</t>
+  </si>
+  <si>
+    <t>非常愤怒！</t>
+  </si>
+  <si>
+    <t>获得大量护甲,并使敌人昏迷3秒。每当获得护甲便对敌人造成1点穿刺伤害</t>
+  </si>
+  <si>
+    <t>Effect_common_angry_02</t>
+  </si>
+  <si>
+    <t>昏迷后激怒</t>
+  </si>
+  <si>
+    <t>效果结束时获得【激怒】Buff</t>
+  </si>
+  <si>
+    <t>击晕玩家</t>
+  </si>
+  <si>
+    <t>当生命值小于25%时击晕对手</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成2点伤害</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成4点伤害</t>
+  </si>
+  <si>
+    <t>死亡倒计时</t>
+  </si>
+  <si>
+    <t>免疫一切伤害，15秒后自动死亡</t>
+  </si>
+  <si>
+    <t>造成伤害使之弃牌</t>
+  </si>
+  <si>
+    <t>造成伤害使之弃1牌</t>
+  </si>
+  <si>
+    <t>间隔弃牌</t>
+  </si>
+  <si>
+    <t>间隔加迟钝牌</t>
+  </si>
+  <si>
+    <t>冰冷血脉</t>
+  </si>
+  <si>
+    <t>战斗中每隔5秒，将1张[冰枪术]置入手牌</t>
+  </si>
+  <si>
+    <t>免疫伤害</t>
+  </si>
+  <si>
+    <t>怪物间隔加攻</t>
+  </si>
+  <si>
+    <t>boss攻击力上升</t>
+  </si>
+  <si>
+    <t>激怒2</t>
+  </si>
+  <si>
+    <t>非常愤怒2！</t>
+  </si>
+  <si>
+    <t>boss间隔弃牌</t>
+  </si>
+  <si>
+    <t>造成伤害使自己回血</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,7 +1153,29 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1204,40 +1183,136 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,8 +1325,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1259,11 +1520,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1276,19 +1779,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1546,22 +2092,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1578,7 +2125,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +2181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +2234,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1710,7 +2257,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1748,7 +2295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1777,7 +2324,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1806,7 +2353,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1829,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1858,21 +2405,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>160</v>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1883,16 +2430,13 @@
       <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>21</v>
@@ -1910,15 +2454,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -1942,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1950,13 +2494,13 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1968,15 +2512,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -2000,15 +2544,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -2032,15 +2576,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -2064,15 +2608,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -2096,15 +2640,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -2122,15 +2666,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -2151,24 +2695,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2"/>
       <c r="R19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2"/>
       <c r="F20">
@@ -2184,12 +2728,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2"/>
       <c r="F21">
@@ -2205,15 +2749,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -2222,7 +2766,7 @@
         <v>0.3</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2234,15 +2778,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1001</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
@@ -2251,15 +2795,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1002</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>
@@ -2280,15 +2824,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1003</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
@@ -2312,15 +2856,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1004</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -2338,15 +2882,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>1005</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -2370,12 +2914,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1006</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <v>16</v>
@@ -2390,15 +2934,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1007</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
@@ -2416,15 +2960,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1013</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -2442,15 +2986,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1014</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -2468,15 +3012,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1015</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
@@ -2494,15 +3038,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1016</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -2520,15 +3064,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1017</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>46</v>
@@ -2546,15 +3090,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>1018</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
@@ -2572,15 +3116,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>1009</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -2595,15 +3139,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>1010</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
@@ -2618,21 +3162,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>1011</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2644,15 +3188,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>1012</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
@@ -2661,15 +3205,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>1023</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>156</v>
+        <v>106</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
@@ -2684,15 +3228,15 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1024</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>152</v>
+        <v>108</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D41" t="s">
         <v>40</v>
@@ -2713,21 +3257,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1025</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F42">
         <v>7</v>
@@ -2745,12 +3289,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1026</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43">
@@ -2766,15 +3310,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1027</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
@@ -2795,15 +3339,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1028</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
@@ -2824,15 +3368,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1029</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -2847,15 +3391,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1030</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -2876,15 +3420,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>1031</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -2902,12 +3446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>1032</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C49" s="3"/>
       <c r="F49">
@@ -2920,15 +3464,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>1033</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -2949,15 +3493,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>1034</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
@@ -2975,12 +3519,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1035</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C52" s="3"/>
       <c r="F52">
@@ -2996,12 +3540,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>1036</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C53" s="3"/>
       <c r="F53">
@@ -3014,12 +3558,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>1037</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C54" s="3"/>
       <c r="F54">
@@ -3032,12 +3576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>1038</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C55" s="3"/>
       <c r="F55">
@@ -3053,12 +3597,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>1039</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C56" s="3"/>
       <c r="F56">
@@ -3074,12 +3618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>1040</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>151</v>
+      <c r="B57" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C57" s="3"/>
       <c r="F57">
@@ -3095,12 +3639,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>1041</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>157</v>
+      <c r="B58" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C58" s="3"/>
       <c r="F58">
@@ -3122,15 +3666,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>1042</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>158</v>
+      <c r="B59" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
         <v>40</v>
@@ -3154,12 +3698,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>1043</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>159</v>
+      <c r="B60" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C60" s="3"/>
       <c r="F60">
@@ -3178,15 +3722,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>1044</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>162</v>
+      <c r="B61" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
         <v>40</v>
@@ -3210,12 +3754,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>1045</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>165</v>
+      <c r="B62" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C62" s="3"/>
       <c r="F62">
@@ -3225,21 +3769,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>2000</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
         <v>40</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F63">
         <v>19</v>
@@ -3251,15 +3795,15 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>2001</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F64">
         <v>29</v>
@@ -3268,15 +3812,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>2002</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -3291,24 +3835,24 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>2003</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>2004</v>
       </c>
@@ -3316,13 +3860,13 @@
         <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D67" t="s">
         <v>46</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3337,21 +3881,21 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>2005</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F68">
         <v>19</v>
@@ -3363,15 +3907,15 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>2006</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F69">
         <v>26</v>
@@ -3386,15 +3930,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>2007</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -3403,7 +3947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>2008</v>
       </c>
@@ -3411,7 +3955,7 @@
         <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F71">
         <v>29</v>
@@ -3420,7 +3964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>2009</v>
       </c>
@@ -3428,7 +3972,7 @@
         <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F72">
         <v>29</v>
@@ -3437,15 +3981,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>2010</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
@@ -3463,15 +4007,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>2011</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D74" t="s">
         <v>40</v>
@@ -3489,12 +4033,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>2012</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" t="s">
@@ -3516,12 +4060,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>2013</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" t="s">
@@ -3543,15 +4087,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>2014</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s">
         <v>40</v>
@@ -3572,12 +4116,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>2015</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -3586,10 +4130,178 @@
         <v>100</v>
       </c>
     </row>
+    <row r="79" spans="1:18">
+      <c r="A79">
+        <v>2016</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>-1</v>
+      </c>
+      <c r="O79">
+        <v>1505</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80">
+        <v>2017</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80"/>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:14">
+      <c r="A81">
+        <v>2018</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81">
+        <v>19</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81" s="1"/>
+      <c r="J81">
+        <v>15</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:14">
+      <c r="A82">
+        <v>2019</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F82">
+        <v>19</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82" s="1"/>
+      <c r="J82">
+        <v>20</v>
+      </c>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83">
+        <v>32</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>-1</v>
+      </c>
+      <c r="O83">
+        <v>1502</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84">
+        <v>2021</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84">
+        <v>34</v>
+      </c>
+      <c r="M84">
+        <v>-1</v>
+      </c>
+      <c r="O84">
+        <v>1506</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF4A0B4-5EF7-4420-8FAB-721116797CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -374,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -987,12 +993,6 @@
     <t>暴风雪伤害</t>
   </si>
   <si>
-    <t>造成伤害加冰冷</t>
-  </si>
-  <si>
-    <t>每次你对敌人造成伤害时，对其施加2层[冰冷]</t>
-  </si>
-  <si>
     <t>低温转换</t>
   </si>
   <si>
@@ -1129,19 +1129,21 @@
   </si>
   <si>
     <t>造成伤害使自己回血</t>
+  </si>
+  <si>
+    <t>每次你对敌人造成伤害时，对其施加1层[冰冷]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰魔杖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,150 +1159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1311,8 +1169,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1325,194 +1197,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1520,253 +1206,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1779,62 +1223,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2092,23 +1493,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O89" sqref="O89"/>
+      <selection pane="bottomRight" activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -2125,7 +1525,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +1581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -2234,7 +1634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2257,7 +1657,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2295,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2324,7 +1724,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2353,7 +1753,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2376,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2405,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2430,8 +1830,11 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="N9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2454,7 +1857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2486,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2512,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2544,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2576,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2608,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2640,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2666,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2695,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2707,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2728,7 +2131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>33</v>
       </c>
@@ -2749,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -2778,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1001</v>
       </c>
@@ -2795,7 +2198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1002</v>
       </c>
@@ -2824,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1003</v>
       </c>
@@ -2856,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1004</v>
       </c>
@@ -2882,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1005</v>
       </c>
@@ -2914,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2934,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1007</v>
       </c>
@@ -2960,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1013</v>
       </c>
@@ -2986,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1014</v>
       </c>
@@ -3012,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1015</v>
       </c>
@@ -3038,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1016</v>
       </c>
@@ -3064,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1017</v>
       </c>
@@ -3090,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1018</v>
       </c>
@@ -3116,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1009</v>
       </c>
@@ -3139,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1010</v>
       </c>
@@ -3162,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1011</v>
       </c>
@@ -3188,7 +2591,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1012</v>
       </c>
@@ -3205,7 +2608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1023</v>
       </c>
@@ -3228,7 +2631,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1024</v>
       </c>
@@ -3257,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1025</v>
       </c>
@@ -3289,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1026</v>
       </c>
@@ -3310,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1027</v>
       </c>
@@ -3339,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1028</v>
       </c>
@@ -3368,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1029</v>
       </c>
@@ -3391,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1030</v>
       </c>
@@ -3420,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1031</v>
       </c>
@@ -3446,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1032</v>
       </c>
@@ -3463,16 +2866,19 @@
       <c r="O49">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="R49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1033</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>125</v>
+      <c r="B50" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -3493,15 +2899,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1034</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
@@ -3519,12 +2925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1035</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C52" s="3"/>
       <c r="F52">
@@ -3540,12 +2946,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1036</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C53" s="3"/>
       <c r="F53">
@@ -3558,12 +2964,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1037</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C54" s="3"/>
       <c r="F54">
@@ -3576,12 +2982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1038</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" s="3"/>
       <c r="F55">
@@ -3597,12 +3003,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1039</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" s="3"/>
       <c r="F56">
@@ -3618,12 +3024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1040</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="3"/>
       <c r="F57">
@@ -3639,12 +3045,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1041</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="3"/>
       <c r="F58">
@@ -3666,15 +3072,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1042</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
         <v>40</v>
@@ -3698,12 +3104,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1043</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C60" s="3"/>
       <c r="F60">
@@ -3722,15 +3128,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1044</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
         <v>40</v>
@@ -3754,12 +3160,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1045</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C62" s="3"/>
       <c r="F62">
@@ -3769,21 +3175,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2000</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
         <v>40</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F63">
         <v>19</v>
@@ -3795,15 +3201,15 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2001</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F64">
         <v>29</v>
@@ -3812,15 +3218,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2002</v>
       </c>
       <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
         <v>144</v>
-      </c>
-      <c r="C65" t="s">
-        <v>146</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -3835,15 +3241,15 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2003</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
         <v>52</v>
@@ -3852,7 +3258,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2004</v>
       </c>
@@ -3881,21 +3287,21 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2005</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F68">
         <v>19</v>
@@ -3907,15 +3313,15 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2006</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F69">
         <v>26</v>
@@ -3930,15 +3336,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2007</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -3947,7 +3353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2008</v>
       </c>
@@ -3955,7 +3361,7 @@
         <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F71">
         <v>29</v>
@@ -3964,7 +3370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2009</v>
       </c>
@@ -3972,7 +3378,7 @@
         <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F72">
         <v>29</v>
@@ -3981,15 +3387,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2010</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
@@ -4007,15 +3413,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2011</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
         <v>40</v>
@@ -4033,12 +3439,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2012</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" t="s">
@@ -4060,12 +3466,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2013</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" t="s">
@@ -4087,15 +3493,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2014</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D77" t="s">
         <v>40</v>
@@ -4116,12 +3522,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2015</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -4130,12 +3536,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2016</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" t="s">
@@ -4157,12 +3563,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2017</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>64</v>
@@ -4173,7 +3579,6 @@
       <c r="F80">
         <v>3</v>
       </c>
-      <c r="G80"/>
       <c r="J80">
         <v>1</v>
       </c>
@@ -4181,76 +3586,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:14">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2018</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F81">
         <v>19</v>
       </c>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81" s="1"/>
       <c r="J81">
         <v>15</v>
       </c>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
       <c r="N81">
         <v>2002</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="1:14">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2019</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
         <v>40</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F82">
         <v>19</v>
       </c>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82" s="1"/>
       <c r="J82">
         <v>20</v>
       </c>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
       <c r="N82">
         <v>2001</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2020</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" t="s">
@@ -4272,15 +3665,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2021</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
         <v>40</v>
@@ -4299,9 +3692,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF4A0B4-5EF7-4420-8FAB-721116797CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE8987B-D156-49CB-AF13-E48AF915E5BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
           </rPr>
           <t xml:space="preserve">
 影响攻击力 =3,
-影响防御力 =4,
+影响耐力 =4,
 失去所有护甲后增减buff =5,
 （value=要移除的buff,abilityID=要添加的buff)
 百分比增减受到的伤害 =6,
@@ -1502,10 +1502,10 @@
   <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R48" sqref="R48"/>
+      <selection pane="bottomRight" activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE8987B-D156-49CB-AF13-E48AF915E5BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26862AF-06D1-4E94-A8DA-90DD8B706C22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,9 +1089,6 @@
     <t>死亡倒计时</t>
   </si>
   <si>
-    <t>免疫一切伤害，15秒后自动死亡</t>
-  </si>
-  <si>
     <t>造成伤害使之弃牌</t>
   </si>
   <si>
@@ -1136,6 +1133,33 @@
   </si>
   <si>
     <t>寒冰魔杖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>免疫一切伤害，2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>秒后自动死亡</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1502,10 +1526,10 @@
   <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N74" sqref="N74"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2875,10 +2899,10 @@
         <v>1033</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -3394,8 +3418,8 @@
       <c r="B73" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>157</v>
+      <c r="C73" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
@@ -3404,7 +3428,7 @@
         <v>27</v>
       </c>
       <c r="G73">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N73">
         <v>2015</v>
@@ -3418,10 +3442,10 @@
         <v>2011</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D74" t="s">
         <v>40</v>
@@ -3444,7 +3468,7 @@
         <v>2012</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" t="s">
@@ -3471,7 +3495,7 @@
         <v>2013</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" t="s">
@@ -3498,10 +3522,10 @@
         <v>2014</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D77" t="s">
         <v>40</v>
@@ -3527,7 +3551,7 @@
         <v>2015</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -3541,7 +3565,7 @@
         <v>2016</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" t="s">
@@ -3568,7 +3592,7 @@
         <v>2017</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>64</v>
@@ -3591,7 +3615,7 @@
         <v>2018</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
         <v>140</v>
@@ -3617,7 +3641,7 @@
         <v>2019</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>148</v>
@@ -3643,7 +3667,7 @@
         <v>2020</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" t="s">
@@ -3670,10 +3694,10 @@
         <v>2021</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s">
         <v>40</v>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26862AF-06D1-4E94-A8DA-90DD8B706C22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9EB7A-DB19-4D94-8590-CFD8AA193BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,18 +1137,7 @@
   </si>
   <si>
     <r>
-      <t>免疫一切伤害，2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
+      <t>免疫一切伤害，23</t>
     </r>
     <r>
       <rPr>
@@ -1529,7 +1518,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3428,7 +3417,7 @@
         <v>27</v>
       </c>
       <c r="G73">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N73">
         <v>2015</v>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9EB7A-DB19-4D94-8590-CFD8AA193BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29040" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -428,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="202">
   <si>
     <t>id</t>
   </si>
@@ -993,6 +987,12 @@
     <t>暴风雪伤害</t>
   </si>
   <si>
+    <t>寒冰魔杖</t>
+  </si>
+  <si>
+    <t>每次你对敌人造成伤害时，对其施加1层[冰冷]</t>
+  </si>
+  <si>
     <t>低温转换</t>
   </si>
   <si>
@@ -1089,54 +1089,14 @@
     <t>死亡倒计时</t>
   </si>
   <si>
-    <t>造成伤害使之弃牌</t>
-  </si>
-  <si>
-    <t>造成伤害使之弃1牌</t>
-  </si>
-  <si>
-    <t>间隔弃牌</t>
-  </si>
-  <si>
-    <t>间隔加迟钝牌</t>
-  </si>
-  <si>
-    <t>冰冷血脉</t>
-  </si>
-  <si>
-    <t>战斗中每隔5秒，将1张[冰枪术]置入手牌</t>
-  </si>
-  <si>
-    <t>免疫伤害</t>
-  </si>
-  <si>
-    <t>怪物间隔加攻</t>
-  </si>
-  <si>
-    <t>boss攻击力上升</t>
-  </si>
-  <si>
-    <t>激怒2</t>
-  </si>
-  <si>
-    <t>非常愤怒2！</t>
-  </si>
-  <si>
-    <t>boss间隔弃牌</t>
-  </si>
-  <si>
-    <t>造成伤害使自己回血</t>
-  </si>
-  <si>
-    <t>每次你对敌人造成伤害时，对其施加1层[冰冷]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰魔杖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>免疫一切伤害，23</t>
     </r>
     <r>
@@ -1149,14 +1109,145 @@
       </rPr>
       <t>秒后自动死亡</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害使之弃牌</t>
+  </si>
+  <si>
+    <t>造成伤害使之弃1牌</t>
+  </si>
+  <si>
+    <t>间隔弃牌</t>
+  </si>
+  <si>
+    <t>间隔加迟钝牌</t>
+  </si>
+  <si>
+    <t>冰冷血脉</t>
+  </si>
+  <si>
+    <t>战斗中每隔5秒，将1张[冰枪术]置入手牌</t>
+  </si>
+  <si>
+    <t>免疫伤害</t>
+  </si>
+  <si>
+    <t>怪物间隔加攻</t>
+  </si>
+  <si>
+    <t>boss攻击力上升</t>
+  </si>
+  <si>
+    <t>激怒2</t>
+  </si>
+  <si>
+    <t>非常愤怒2！</t>
+  </si>
+  <si>
+    <t>boss间隔弃牌</t>
+  </si>
+  <si>
+    <t>造成伤害使自己回血</t>
+  </si>
+  <si>
+    <t>造成伤害加1甲</t>
+  </si>
+  <si>
+    <t>遗物，玻璃大炮</t>
+  </si>
+  <si>
+    <t>遗物，攻击力+3，但所有牌消耗增加1</t>
+  </si>
+  <si>
+    <t>遗物，琉璃甲</t>
+  </si>
+  <si>
+    <t>遗物，获得护甲时回复2能量，但受到伤害会被昏迷</t>
+  </si>
+  <si>
+    <t>遗物，荆棘之心</t>
+  </si>
+  <si>
+    <t>遗物，格挡时造成7点伤害，但能量回复-1</t>
+  </si>
+  <si>
+    <t>遗物，诅咒之书</t>
+  </si>
+  <si>
+    <t>遗物，你的暴击率提高60%，但战斗中每2秒都会失去生命</t>
+  </si>
+  <si>
+    <t>遗物，神力代价</t>
+  </si>
+  <si>
+    <t>遗物，战斗开始第8秒时获得一张“天降神锤”，但你的耐力-1</t>
+  </si>
+  <si>
+    <t>遗物，远古盟约</t>
+  </si>
+  <si>
+    <t>遗物，造成伤害时你的攻击力+1持续到战斗结束，但敌人每3秒都会获得护甲</t>
+  </si>
+  <si>
+    <t>遗物，中和法典</t>
+  </si>
+  <si>
+    <t>遗物，耐力+1，但受到伤害会减少1能量</t>
+  </si>
+  <si>
+    <t>遗物，邪恶血脉</t>
+  </si>
+  <si>
+    <t>遗物，生命小于25%时攻击力+9，但你的耐力-2</t>
+  </si>
+  <si>
+    <t>玻璃大炮，所有牌消耗增加1</t>
+  </si>
+  <si>
+    <t>琉璃甲，受伤昏迷</t>
+  </si>
+  <si>
+    <t>琉璃甲，昏迷</t>
+  </si>
+  <si>
+    <t>荆棘之心，-1回能</t>
+  </si>
+  <si>
+    <t>诅咒之书，每2秒扣1血</t>
+  </si>
+  <si>
+    <t>神力代价，生成1张天降神锤</t>
+  </si>
+  <si>
+    <t>神力代价，耐力-1</t>
+  </si>
+  <si>
+    <t>远古盟约，+1攻</t>
+  </si>
+  <si>
+    <t>远古盟约，间隔加甲</t>
+  </si>
+  <si>
+    <t>中和法典，受伤-1能量</t>
+  </si>
+  <si>
+    <t>邪恶血脉，触发+9攻</t>
+  </si>
+  <si>
+    <t>邪恶血脉，+9攻</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,6 +1263,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1182,22 +1423,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1206,12 +1433,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1219,13 +1638,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1236,19 +1899,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1506,30 +2219,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
@@ -1538,7 +2250,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +2275,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1581,7 +2293,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1594,7 +2306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1616,7 +2328,7 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
@@ -1647,20 +2359,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M3">
@@ -1670,14 +2382,14 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -1692,7 +2404,7 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J4">
@@ -1708,14 +2420,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F5">
@@ -1724,7 +2436,7 @@
       <c r="G5">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J5">
@@ -1737,14 +2449,14 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
@@ -1766,14 +2478,14 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
@@ -1789,14 +2501,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -1808,7 +2520,7 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J8">
@@ -1818,20 +2530,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F9">
@@ -1847,7 +2559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1857,7 +2569,7 @@
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="M10">
@@ -1870,7 +2582,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1889,7 +2601,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J11">
@@ -1902,11 +2614,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -1915,7 +2627,7 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F12">
@@ -1928,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1947,7 +2659,7 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J13">
@@ -1960,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1979,7 +2691,7 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J14">
@@ -1992,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2011,7 +2723,7 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J15">
@@ -2024,11 +2736,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C16" t="s">
@@ -2043,7 +2755,7 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J16">
@@ -2056,14 +2768,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D17" t="s">
@@ -2082,14 +2794,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D18" t="s">
@@ -2111,26 +2823,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="4"/>
       <c r="R19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="4"/>
       <c r="F20">
         <v>39</v>
       </c>
@@ -2144,14 +2856,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="4"/>
       <c r="F21">
         <v>33</v>
       </c>
@@ -2165,14 +2877,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>100</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F22">
@@ -2194,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1001</v>
       </c>
@@ -2211,7 +2923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1002</v>
       </c>
@@ -2240,14 +2952,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1003</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D25" t="s">
@@ -2272,14 +2984,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1004</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D26" t="s">
@@ -2298,14 +3010,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>1005</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D27" t="s">
@@ -2330,11 +3042,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1006</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F28">
@@ -2350,14 +3062,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1007</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D29" t="s">
@@ -2376,14 +3088,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1013</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D30" t="s">
@@ -2402,14 +3114,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1014</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D31" t="s">
@@ -2428,14 +3140,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1015</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D32" t="s">
@@ -2447,21 +3159,21 @@
       <c r="M32">
         <v>-1</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="4">
         <v>35</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1016</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D33" t="s">
@@ -2473,21 +3185,21 @@
       <c r="M33">
         <v>-1</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="4">
         <v>36</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1017</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D34" t="s">
@@ -2499,21 +3211,21 @@
       <c r="M34">
         <v>-1</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="4">
         <v>37</v>
       </c>
       <c r="R34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>1018</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D35" t="s">
@@ -2532,14 +3244,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>1009</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D36" t="s">
@@ -2555,14 +3267,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>1010</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D37" t="s">
@@ -2578,11 +3290,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>1011</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C38" t="s">
@@ -2591,7 +3303,7 @@
       <c r="D38" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F38">
@@ -2604,14 +3316,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>1012</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D39" t="s">
@@ -2621,14 +3333,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>1023</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D40" t="s">
@@ -2644,14 +3356,14 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1024</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D41" t="s">
@@ -2673,14 +3385,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1025</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D42" t="s">
@@ -2705,14 +3417,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1026</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="4"/>
       <c r="F43">
         <v>13</v>
       </c>
@@ -2726,14 +3438,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1027</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D44" t="s">
@@ -2755,14 +3467,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1028</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D45" t="s">
@@ -2784,14 +3496,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1029</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>119</v>
       </c>
       <c r="D46" t="s">
@@ -2807,14 +3519,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1030</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D47" t="s">
@@ -2836,14 +3548,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>1031</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D48" t="s">
@@ -2862,14 +3574,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>1032</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="5"/>
       <c r="F49">
         <v>2</v>
       </c>
@@ -2883,15 +3595,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>1033</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>170</v>
+      <c r="B50" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -2912,15 +3624,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>1034</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>126</v>
+      <c r="B51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
@@ -2938,14 +3650,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1035</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="3"/>
+      <c r="B52" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="5"/>
       <c r="F52">
         <v>2</v>
       </c>
@@ -2959,14 +3671,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>1036</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="3"/>
+      <c r="B53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="5"/>
       <c r="F53">
         <v>2</v>
       </c>
@@ -2977,14 +3689,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>1037</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="3"/>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="5"/>
       <c r="F54">
         <v>36</v>
       </c>
@@ -2995,14 +3707,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>1038</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="3"/>
+      <c r="B55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="5"/>
       <c r="F55">
         <v>37</v>
       </c>
@@ -3016,14 +3728,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>1039</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="5"/>
       <c r="F56">
         <v>37</v>
       </c>
@@ -3037,14 +3749,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>1040</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="3"/>
+      <c r="B57" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="5"/>
       <c r="F57">
         <v>37</v>
       </c>
@@ -3058,14 +3770,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>1041</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="3"/>
+      <c r="B58" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="5"/>
       <c r="F58">
         <v>32</v>
       </c>
@@ -3085,15 +3797,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>1042</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>134</v>
+      <c r="B59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="D59" t="s">
         <v>40</v>
@@ -3117,14 +3829,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>1043</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="3"/>
+      <c r="B60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="5"/>
       <c r="F60">
         <v>38</v>
       </c>
@@ -3141,15 +3853,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>1044</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>137</v>
+      <c r="B61" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D61" t="s">
         <v>40</v>
@@ -3173,14 +3885,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>1045</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="3"/>
+      <c r="B62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="5"/>
       <c r="F62">
         <v>4</v>
       </c>
@@ -3188,21 +3900,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>2000</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>139</v>
+      <c r="B63" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>141</v>
+      <c r="E63" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="F63">
         <v>19</v>
@@ -3214,15 +3926,15 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>2001</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>142</v>
+      <c r="B64" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F64">
         <v>29</v>
@@ -3231,15 +3943,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>2002</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -3254,15 +3966,15 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>2003</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="D66" t="s">
         <v>52</v>
@@ -3271,7 +3983,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>2004</v>
       </c>
@@ -3284,7 +3996,7 @@
       <c r="D67" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F67">
@@ -3300,21 +4012,21 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>2005</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>148</v>
+      <c r="B68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>149</v>
+      <c r="E68" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F68">
         <v>19</v>
@@ -3326,38 +4038,38 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" s="1" customFormat="1" spans="1:13">
+      <c r="A69" s="1">
         <v>2006</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F69">
+      <c r="B69" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="1">
         <v>26</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>3</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="1">
         <v>2000</v>
       </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>2007</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>153</v>
+      <c r="B70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -3366,15 +4078,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>2008</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F71">
         <v>29</v>
@@ -3383,15 +4095,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>2009</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F72">
         <v>29</v>
@@ -3400,15 +4112,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>2010</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>172</v>
+      <c r="B73" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
@@ -3426,15 +4138,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>2011</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>158</v>
+      <c r="B74" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="D74" t="s">
         <v>40</v>
@@ -3452,14 +4164,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>2012</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="3"/>
+      <c r="B75" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="5"/>
       <c r="D75" t="s">
         <v>40</v>
       </c>
@@ -3479,14 +4191,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>2013</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="3"/>
+      <c r="B76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="5"/>
       <c r="D76" t="s">
         <v>40</v>
       </c>
@@ -3506,15 +4218,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>2014</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>162</v>
+      <c r="B77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="D77" t="s">
         <v>40</v>
@@ -3535,12 +4247,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>2015</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>163</v>
+      <c r="B78" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -3549,14 +4261,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>2016</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="3"/>
+      <c r="B79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="5"/>
       <c r="D79" t="s">
         <v>40</v>
       </c>
@@ -3576,14 +4288,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>2017</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D80" t="s">
@@ -3599,21 +4311,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>2018</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>166</v>
+      <c r="B81" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>141</v>
+      <c r="E81" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="F81">
         <v>19</v>
@@ -3625,21 +4337,21 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>2019</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>148</v>
+      <c r="B82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D82" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>149</v>
+      <c r="E82" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F82">
         <v>19</v>
@@ -3651,14 +4363,14 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>2020</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="3"/>
+      <c r="B83" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="5"/>
       <c r="D83" t="s">
         <v>40</v>
       </c>
@@ -3678,15 +4390,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>2021</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>169</v>
+      <c r="B84" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="D84" t="s">
         <v>40</v>
@@ -3704,10 +4416,580 @@
         <v>1</v>
       </c>
     </row>
+    <row r="85" spans="1:18">
+      <c r="A85">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85">
+        <v>34</v>
+      </c>
+      <c r="M85">
+        <v>-1</v>
+      </c>
+      <c r="O85" s="11">
+        <v>61</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="1:18">
+      <c r="A86" s="2">
+        <v>3001</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" s="2">
+        <v>3</v>
+      </c>
+      <c r="J86" s="2">
+        <v>3</v>
+      </c>
+      <c r="M86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N86" s="2">
+        <v>3009</v>
+      </c>
+      <c r="O86" s="12"/>
+      <c r="R86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="1:18">
+      <c r="A87" s="2">
+        <v>3002</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="2">
+        <v>29</v>
+      </c>
+      <c r="M87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N87" s="2">
+        <v>3010</v>
+      </c>
+      <c r="O87" s="12">
+        <v>42</v>
+      </c>
+      <c r="R87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="1:18">
+      <c r="A88" s="2">
+        <v>3003</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" s="2">
+        <v>31</v>
+      </c>
+      <c r="M88" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N88" s="2">
+        <v>3012</v>
+      </c>
+      <c r="O88" s="12">
+        <v>44</v>
+      </c>
+      <c r="R88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" spans="1:18">
+      <c r="A89" s="2">
+        <v>3004</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="2">
+        <v>23</v>
+      </c>
+      <c r="J89" s="2">
+        <v>60</v>
+      </c>
+      <c r="M89" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N89" s="2">
+        <v>3013</v>
+      </c>
+      <c r="O89" s="12"/>
+      <c r="R89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" spans="1:18">
+      <c r="A90" s="2">
+        <v>3005</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="2">
+        <v>26</v>
+      </c>
+      <c r="G90" s="2">
+        <v>8</v>
+      </c>
+      <c r="J90" s="2">
+        <v>3014</v>
+      </c>
+      <c r="M90" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N90" s="2">
+        <v>3015</v>
+      </c>
+      <c r="O90" s="12"/>
+      <c r="R90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" spans="1:18">
+      <c r="A91" s="2">
+        <v>3006</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="2">
+        <v>34</v>
+      </c>
+      <c r="M91" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N91" s="2">
+        <v>3017</v>
+      </c>
+      <c r="O91" s="12">
+        <v>48</v>
+      </c>
+      <c r="R91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" spans="1:18">
+      <c r="A92" s="2">
+        <v>3007</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" s="2">
+        <v>4</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N92" s="2">
+        <v>3018</v>
+      </c>
+      <c r="O92" s="12"/>
+      <c r="R92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" spans="1:18">
+      <c r="A93" s="2">
+        <v>3008</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="2">
+        <v>4</v>
+      </c>
+      <c r="J93" s="2">
+        <v>-2</v>
+      </c>
+      <c r="M93" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N93" s="2">
+        <v>3019</v>
+      </c>
+      <c r="O93" s="12"/>
+      <c r="R93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94">
+        <v>3009</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94">
+        <v>22</v>
+      </c>
+      <c r="J94">
+        <v>-1</v>
+      </c>
+      <c r="M94">
+        <v>-1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95">
+        <v>3010</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95">
+        <v>38</v>
+      </c>
+      <c r="M95">
+        <v>-1</v>
+      </c>
+      <c r="O95" s="11">
+        <v>43</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:13">
+      <c r="A96">
+        <v>3011</v>
+      </c>
+      <c r="B96" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="M96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97">
+        <v>3012</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F97">
+        <v>36</v>
+      </c>
+      <c r="J97">
+        <v>-1</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98">
+        <v>3013</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="O98">
+        <v>45</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99">
+        <v>3014</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99">
+        <v>32</v>
+      </c>
+      <c r="G99">
+        <v>0.3</v>
+      </c>
+      <c r="H99">
+        <v>0.2</v>
+      </c>
+      <c r="M99">
+        <v>-1</v>
+      </c>
+      <c r="O99">
+        <v>46</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>3015</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="J100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101">
+        <v>3016</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>-1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102">
+        <v>3017</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>-1</v>
+      </c>
+      <c r="O102">
+        <v>49</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103">
+        <v>3018</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103">
+        <v>38</v>
+      </c>
+      <c r="M103">
+        <v>-1</v>
+      </c>
+      <c r="O103" s="11">
+        <v>62</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104">
+        <v>3019</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104">
+        <v>30</v>
+      </c>
+      <c r="M104">
+        <v>-1</v>
+      </c>
+      <c r="O104" s="11">
+        <v>63</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105">
+        <v>3020</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>9</v>
+      </c>
+      <c r="M105">
+        <v>-1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="204">
   <si>
     <t>id</t>
   </si>
@@ -1153,6 +1153,12 @@
     <t>造成伤害加1甲</t>
   </si>
   <si>
+    <t>怪物，减1回能</t>
+  </si>
+  <si>
+    <t>怪物，造成伤害加冰冷</t>
+  </si>
+  <si>
     <t>遗物，玻璃大炮</t>
   </si>
   <si>
@@ -1242,10 +1248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1269,15 +1275,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,8 +1304,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,14 +1374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1360,14 +1405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -1375,37 +1412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1445,7 +1451,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,13 +1493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,19 +1505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,13 +1523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,37 +1535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,13 +1553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,19 +1571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,25 +1589,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,6 +1642,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1650,6 +1680,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1692,45 +1737,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1742,10 +1748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1754,133 +1760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2225,12 +2231,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="$A102:$XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4442,211 +4448,201 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:18">
-      <c r="A86" s="2">
-        <v>3001</v>
-      </c>
-      <c r="B86" s="9" t="s">
+    <row r="86" customFormat="1" spans="1:18">
+      <c r="A86">
+        <v>2023</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86">
+        <v>36</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86">
+        <v>-1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:18">
+      <c r="A87">
+        <v>2024</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="C87" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
         <v>40</v>
       </c>
-      <c r="F86" s="2">
-        <v>3</v>
-      </c>
-      <c r="J86" s="2">
-        <v>3</v>
-      </c>
-      <c r="M86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N86" s="2">
-        <v>3009</v>
-      </c>
-      <c r="O86" s="12"/>
-      <c r="R86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" s="2" customFormat="1" spans="1:18">
-      <c r="A87" s="2">
-        <v>3002</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F87" s="2">
-        <v>29</v>
-      </c>
-      <c r="M87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N87" s="2">
-        <v>3010</v>
-      </c>
-      <c r="O87" s="12">
-        <v>42</v>
-      </c>
-      <c r="R87" s="2">
+      <c r="F87">
+        <v>34</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>-1</v>
+      </c>
+      <c r="O87">
+        <v>1507</v>
+      </c>
+      <c r="R87">
         <v>1</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:18">
       <c r="A88" s="2">
-        <v>3003</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>178</v>
+        <v>3001</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F88" s="2">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="J88" s="2">
+        <v>3</v>
       </c>
       <c r="M88" s="2">
         <v>-1</v>
       </c>
       <c r="N88" s="2">
-        <v>3012</v>
-      </c>
-      <c r="O88" s="12">
-        <v>44</v>
-      </c>
+        <v>3009</v>
+      </c>
+      <c r="O88" s="12"/>
       <c r="R88" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:18">
       <c r="A89" s="2">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F89" s="2">
-        <v>23</v>
-      </c>
-      <c r="J89" s="2">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M89" s="2">
         <v>-1</v>
       </c>
       <c r="N89" s="2">
-        <v>3013</v>
-      </c>
-      <c r="O89" s="12"/>
+        <v>3010</v>
+      </c>
+      <c r="O89" s="12">
+        <v>42</v>
+      </c>
       <c r="R89" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:18">
       <c r="A90" s="2">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F90" s="2">
-        <v>26</v>
-      </c>
-      <c r="G90" s="2">
-        <v>8</v>
-      </c>
-      <c r="J90" s="2">
-        <v>3014</v>
+        <v>31</v>
       </c>
       <c r="M90" s="2">
         <v>-1</v>
       </c>
       <c r="N90" s="2">
-        <v>3015</v>
-      </c>
-      <c r="O90" s="12"/>
+        <v>3012</v>
+      </c>
+      <c r="O90" s="12">
+        <v>44</v>
+      </c>
       <c r="R90" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:18">
       <c r="A91" s="2">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F91" s="2">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="J91" s="2">
+        <v>60</v>
       </c>
       <c r="M91" s="2">
         <v>-1</v>
       </c>
       <c r="N91" s="2">
-        <v>3017</v>
-      </c>
-      <c r="O91" s="12">
-        <v>48</v>
-      </c>
+        <v>3013</v>
+      </c>
+      <c r="O91" s="12"/>
       <c r="R91" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:18">
       <c r="A92" s="2">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F92" s="2">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="G92" s="2">
+        <v>8</v>
       </c>
       <c r="J92" s="2">
-        <v>1</v>
+        <v>3014</v>
       </c>
       <c r="M92" s="2">
         <v>-1</v>
       </c>
-      <c r="N92" s="2">
-        <v>3018</v>
-      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="12"/>
       <c r="R92" s="2">
         <v>1</v>
@@ -4654,119 +4650,125 @@
     </row>
     <row r="93" s="2" customFormat="1" spans="1:18">
       <c r="A93" s="2">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F93" s="2">
+        <v>34</v>
+      </c>
+      <c r="M93" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N93" s="2">
+        <v>3017</v>
+      </c>
+      <c r="O93" s="12">
+        <v>48</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" s="2" customFormat="1" spans="1:18">
+      <c r="A94" s="2">
+        <v>3007</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="2">
         <v>4</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N94" s="2">
+        <v>3018</v>
+      </c>
+      <c r="O94" s="12"/>
+      <c r="R94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" spans="1:18">
+      <c r="A95" s="2">
+        <v>3008</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="2">
+        <v>4</v>
+      </c>
+      <c r="J95" s="2">
         <v>-2</v>
       </c>
-      <c r="M93" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N93" s="2">
+      <c r="M95" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N95" s="2">
         <v>3019</v>
       </c>
-      <c r="O93" s="12"/>
-      <c r="R93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
-      <c r="A94">
+      <c r="O95" s="12"/>
+      <c r="R95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96">
         <v>3009</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="B96" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" t="s">
         <v>40</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E96" t="s">
         <v>47</v>
       </c>
-      <c r="F94">
+      <c r="F96">
         <v>22</v>
       </c>
-      <c r="J94">
-        <v>-1</v>
-      </c>
-      <c r="M94">
-        <v>-1</v>
-      </c>
-      <c r="R94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
-      <c r="A95">
-        <v>3010</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D95" t="s">
-        <v>40</v>
-      </c>
-      <c r="F95">
-        <v>38</v>
-      </c>
-      <c r="M95">
-        <v>-1</v>
-      </c>
-      <c r="O95" s="11">
-        <v>43</v>
-      </c>
-      <c r="R95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:13">
-      <c r="A96">
-        <v>3011</v>
-      </c>
-      <c r="B96" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" t="s">
-        <v>46</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="I96" s="3"/>
+      <c r="J96">
+        <v>-1</v>
+      </c>
       <c r="M96">
         <v>-1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:18">
       <c r="A97">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>193</v>
@@ -4774,42 +4776,52 @@
       <c r="C97" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
       <c r="F97">
-        <v>36</v>
-      </c>
-      <c r="J97">
-        <v>-1</v>
+        <v>38</v>
+      </c>
+      <c r="M97">
+        <v>-1</v>
+      </c>
+      <c r="O97" s="11">
+        <v>43</v>
       </c>
       <c r="R97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" customFormat="1" spans="1:13">
       <c r="A98">
-        <v>3013</v>
-      </c>
-      <c r="B98" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B98" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" t="s">
         <v>194</v>
       </c>
+      <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F98">
-        <v>2</v>
-      </c>
-      <c r="H98">
-        <v>2</v>
-      </c>
-      <c r="O98">
-        <v>45</v>
-      </c>
-      <c r="R98">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="M98">
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:18">
       <c r="A99">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>195</v>
@@ -4817,28 +4829,22 @@
       <c r="C99" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="D99" t="s">
+        <v>46</v>
+      </c>
       <c r="F99">
-        <v>32</v>
-      </c>
-      <c r="G99">
-        <v>0.3</v>
-      </c>
-      <c r="H99">
-        <v>0.2</v>
-      </c>
-      <c r="M99">
-        <v>-1</v>
-      </c>
-      <c r="O99">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="J99">
+        <v>-1</v>
       </c>
       <c r="R99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:18">
       <c r="A100">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>196</v>
@@ -4846,16 +4852,25 @@
       <c r="C100" s="4" t="s">
         <v>196</v>
       </c>
+      <c r="D100" t="s">
+        <v>46</v>
+      </c>
       <c r="F100">
-        <v>4</v>
-      </c>
-      <c r="J100">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="O100">
+        <v>45</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:18">
       <c r="A101">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>197</v>
@@ -4867,21 +4882,27 @@
         <v>46</v>
       </c>
       <c r="F101">
-        <v>3</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="G101">
+        <v>0.3</v>
+      </c>
+      <c r="H101">
+        <v>0.2</v>
       </c>
       <c r="M101">
         <v>-1</v>
       </c>
+      <c r="O101">
+        <v>46</v>
+      </c>
       <c r="R101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:14">
       <c r="A102">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>198</v>
@@ -4890,27 +4911,21 @@
         <v>198</v>
       </c>
       <c r="D102" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F102">
-        <v>2</v>
-      </c>
-      <c r="H102">
-        <v>3</v>
-      </c>
-      <c r="M102">
-        <v>-1</v>
-      </c>
-      <c r="O102">
-        <v>49</v>
-      </c>
-      <c r="R102">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <v>-1</v>
+      </c>
+      <c r="N102">
+        <v>3005</v>
       </c>
     </row>
     <row r="103" spans="1:18">
       <c r="A103">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>199</v>
@@ -4919,16 +4934,16 @@
         <v>199</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F103">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
       </c>
       <c r="M103">
         <v>-1</v>
-      </c>
-      <c r="O103" s="11">
-        <v>62</v>
       </c>
       <c r="R103">
         <v>1</v>
@@ -4936,7 +4951,7 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>200</v>
@@ -4948,13 +4963,16 @@
         <v>40</v>
       </c>
       <c r="F104">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
       </c>
       <c r="M104">
         <v>-1</v>
       </c>
-      <c r="O104" s="11">
-        <v>63</v>
+      <c r="O104">
+        <v>49</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -4962,7 +4980,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>201</v>
@@ -4971,18 +4989,70 @@
         <v>201</v>
       </c>
       <c r="D105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105">
+        <v>38</v>
+      </c>
+      <c r="M105">
+        <v>-1</v>
+      </c>
+      <c r="O105" s="11">
+        <v>62</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106">
+        <v>3019</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106">
+        <v>30</v>
+      </c>
+      <c r="M106">
+        <v>-1</v>
+      </c>
+      <c r="O106" s="11">
+        <v>63</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107">
+        <v>3020</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D107" t="s">
         <v>46</v>
       </c>
-      <c r="F105">
+      <c r="F107">
         <v>3</v>
       </c>
-      <c r="J105">
+      <c r="J107">
         <v>9</v>
       </c>
-      <c r="M105">
-        <v>-1</v>
-      </c>
-      <c r="R105">
+      <c r="M107">
+        <v>-1</v>
+      </c>
+      <c r="R107">
         <v>1</v>
       </c>
     </row>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79002918-F089-489D-934A-4EF604ACA0E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -314,11 +320,15 @@
             <charset val="134"/>
           </rPr>
           <t>=40
-（效果生效间隔=指定buffID，触发技能=触发的技能ID，效果值0=buff持有者触发技能，1=buff持有者的目标触发技能）</t>
+（效果生效间隔=指定buffID，触发技能=触发的技能ID，效果值0=buff持有者触发技能，1=buff持有者的目标触发技能）
+每出X张Y类牌时自己触发技能=41,(effectInterval=每X张牌触发,value=牌类型，abilityID=触发的技能ID，只支持玩家自己触发技能)
+弃牌大于X时自己触发技能=42,（value =单次弃牌数量大于等于此值触发技能）
+每X次补牌时自己触发技能=43,
+每X次遗留时自己触发技能 =44</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -374,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1246,14 +1256,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1275,147 +1279,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1429,8 +1296,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,192 +1324,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1644,249 +1337,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1910,64 +1364,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2225,21 +1636,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="$A102:$XFD102"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -2256,7 +1666,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -2365,7 +1775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2388,7 +1798,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2426,7 +1836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2455,7 +1865,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2484,7 +1894,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2507,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2536,7 +1946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2565,7 +1975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2588,7 +1998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2620,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2646,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2678,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2710,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2742,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2774,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2800,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2829,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2841,7 +2251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2862,7 +2272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>33</v>
       </c>
@@ -2883,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -2912,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1001</v>
       </c>
@@ -2929,7 +2339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1002</v>
       </c>
@@ -2958,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1003</v>
       </c>
@@ -2990,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1004</v>
       </c>
@@ -3016,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1005</v>
       </c>
@@ -3048,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -3068,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1007</v>
       </c>
@@ -3094,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1013</v>
       </c>
@@ -3120,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1014</v>
       </c>
@@ -3146,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1015</v>
       </c>
@@ -3172,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1016</v>
       </c>
@@ -3198,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1017</v>
       </c>
@@ -3224,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1018</v>
       </c>
@@ -3250,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1009</v>
       </c>
@@ -3273,7 +2683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1010</v>
       </c>
@@ -3296,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1011</v>
       </c>
@@ -3322,7 +2732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1012</v>
       </c>
@@ -3339,7 +2749,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1023</v>
       </c>
@@ -3362,7 +2772,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1024</v>
       </c>
@@ -3391,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1025</v>
       </c>
@@ -3423,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1026</v>
       </c>
@@ -3444,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1027</v>
       </c>
@@ -3473,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1028</v>
       </c>
@@ -3502,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1029</v>
       </c>
@@ -3525,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1030</v>
       </c>
@@ -3554,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1031</v>
       </c>
@@ -3580,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1032</v>
       </c>
@@ -3601,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1033</v>
       </c>
@@ -3630,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1034</v>
       </c>
@@ -3656,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1035</v>
       </c>
@@ -3677,7 +3087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1036</v>
       </c>
@@ -3695,7 +3105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1037</v>
       </c>
@@ -3713,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1038</v>
       </c>
@@ -3734,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1039</v>
       </c>
@@ -3755,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1040</v>
       </c>
@@ -3776,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1041</v>
       </c>
@@ -3803,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1042</v>
       </c>
@@ -3835,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1043</v>
       </c>
@@ -3859,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1044</v>
       </c>
@@ -3891,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1045</v>
       </c>
@@ -3906,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2000</v>
       </c>
@@ -3932,7 +3342,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2001</v>
       </c>
@@ -3949,7 +3359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2002</v>
       </c>
@@ -3972,7 +3382,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2003</v>
       </c>
@@ -3989,7 +3399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2004</v>
       </c>
@@ -4018,7 +3428,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2005</v>
       </c>
@@ -4044,7 +3454,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" spans="1:13">
+    <row r="69" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2006</v>
       </c>
@@ -4067,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2007</v>
       </c>
@@ -4084,7 +3494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2008</v>
       </c>
@@ -4101,7 +3511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2009</v>
       </c>
@@ -4118,7 +3528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2010</v>
       </c>
@@ -4144,7 +3554,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -4170,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2012</v>
       </c>
@@ -4197,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2013</v>
       </c>
@@ -4224,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2014</v>
       </c>
@@ -4253,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -4267,7 +3677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2016</v>
       </c>
@@ -4294,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2017</v>
       </c>
@@ -4317,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -4343,7 +3753,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -4369,7 +3779,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -4396,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -4422,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2022</v>
       </c>
@@ -4448,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="1" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2023</v>
       </c>
@@ -4461,7 +3871,6 @@
       <c r="F86">
         <v>36</v>
       </c>
-      <c r="I86" s="3"/>
       <c r="J86">
         <v>-1</v>
       </c>
@@ -4469,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2024</v>
       </c>
@@ -4485,7 +3894,6 @@
       <c r="F87">
         <v>34</v>
       </c>
-      <c r="I87" s="3"/>
       <c r="J87">
         <v>0</v>
       </c>
@@ -4499,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" spans="1:18">
+    <row r="88" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>3001</v>
       </c>
@@ -4529,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" spans="1:18">
+    <row r="89" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>3002</v>
       </c>
@@ -4558,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" spans="1:18">
+    <row r="90" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>3003</v>
       </c>
@@ -4587,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" spans="1:18">
+    <row r="91" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>3004</v>
       </c>
@@ -4617,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" spans="1:18">
+    <row r="92" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>3005</v>
       </c>
@@ -4642,13 +4050,12 @@
       <c r="M92" s="2">
         <v>-1</v>
       </c>
-      <c r="N92" s="2"/>
       <c r="O92" s="12"/>
       <c r="R92" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" spans="1:18">
+    <row r="93" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>3006</v>
       </c>
@@ -4677,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" spans="1:18">
+    <row r="94" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>3007</v>
       </c>
@@ -4707,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" spans="1:18">
+    <row r="95" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>3008</v>
       </c>
@@ -4737,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3009</v>
       </c>
@@ -4766,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3010</v>
       </c>
@@ -4792,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" customFormat="1" spans="1:13">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3011</v>
       </c>
@@ -4814,12 +4221,11 @@
       <c r="G98">
         <v>1</v>
       </c>
-      <c r="I98" s="3"/>
       <c r="M98">
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3012</v>
       </c>
@@ -4842,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3013</v>
       </c>
@@ -4868,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3014</v>
       </c>
@@ -4900,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3015</v>
       </c>
@@ -4923,7 +4329,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3016</v>
       </c>
@@ -4949,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3017</v>
       </c>
@@ -4978,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3018</v>
       </c>
@@ -5004,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3019</v>
       </c>
@@ -5030,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3020</v>
       </c>
@@ -5057,9 +4463,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79002918-F089-489D-934A-4EF604ACA0E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -486,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -1169,6 +1163,30 @@
     <t>怪物，造成伤害加冰冷</t>
   </si>
   <si>
+    <t>每出2张攻击牌</t>
+  </si>
+  <si>
+    <t>每出2张攻击牌造成4点伤害</t>
+  </si>
+  <si>
+    <t>弃牌触发</t>
+  </si>
+  <si>
+    <t>每当一次性弃牌至少2张时，造成4点伤害</t>
+  </si>
+  <si>
+    <t>补牌触发</t>
+  </si>
+  <si>
+    <t>每2次补牌，造成4点伤害</t>
+  </si>
+  <si>
+    <t>遗留触发</t>
+  </si>
+  <si>
+    <t>每2次遗留，造成4点伤害</t>
+  </si>
+  <si>
     <t>遗物，玻璃大炮</t>
   </si>
   <si>
@@ -1256,8 +1274,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,10 +1303,147 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1296,14 +1457,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,12 +1479,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1337,14 +1672,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1360,25 +1934,69 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1636,20 +2254,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
@@ -1666,7 +2285,7 @@
     <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +2341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1775,7 +2394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1798,7 +2417,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1836,7 +2455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1865,7 +2484,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1894,7 +2513,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1917,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1946,7 +2565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1975,7 +2594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1998,7 +2617,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2030,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2056,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2088,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2120,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2152,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2184,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2210,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2239,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2251,7 +2870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2272,7 +2891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>33</v>
       </c>
@@ -2293,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>100</v>
       </c>
@@ -2322,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1001</v>
       </c>
@@ -2339,7 +2958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1002</v>
       </c>
@@ -2368,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1003</v>
       </c>
@@ -2400,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1004</v>
       </c>
@@ -2426,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>1005</v>
       </c>
@@ -2458,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2478,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1007</v>
       </c>
@@ -2504,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1013</v>
       </c>
@@ -2530,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1014</v>
       </c>
@@ -2556,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1015</v>
       </c>
@@ -2582,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1016</v>
       </c>
@@ -2608,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>1017</v>
       </c>
@@ -2634,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>1018</v>
       </c>
@@ -2660,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>1009</v>
       </c>
@@ -2683,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>1010</v>
       </c>
@@ -2706,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>1011</v>
       </c>
@@ -2732,7 +3351,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>1012</v>
       </c>
@@ -2749,7 +3368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>1023</v>
       </c>
@@ -2772,7 +3391,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>1024</v>
       </c>
@@ -2801,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>1025</v>
       </c>
@@ -2833,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1026</v>
       </c>
@@ -2854,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>1027</v>
       </c>
@@ -2883,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>1028</v>
       </c>
@@ -2912,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>1029</v>
       </c>
@@ -2935,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>1030</v>
       </c>
@@ -2964,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>1031</v>
       </c>
@@ -2990,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>1032</v>
       </c>
@@ -3011,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>1033</v>
       </c>
@@ -3040,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>1034</v>
       </c>
@@ -3066,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1035</v>
       </c>
@@ -3087,7 +3706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>1036</v>
       </c>
@@ -3105,7 +3724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>1037</v>
       </c>
@@ -3123,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>1038</v>
       </c>
@@ -3144,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>1039</v>
       </c>
@@ -3165,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>1040</v>
       </c>
@@ -3186,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>1041</v>
       </c>
@@ -3213,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>1042</v>
       </c>
@@ -3245,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>1043</v>
       </c>
@@ -3269,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>1044</v>
       </c>
@@ -3301,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>1045</v>
       </c>
@@ -3316,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>2000</v>
       </c>
@@ -3342,7 +3961,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>2001</v>
       </c>
@@ -3359,7 +3978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>2002</v>
       </c>
@@ -3382,7 +4001,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>2003</v>
       </c>
@@ -3399,7 +4018,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>2004</v>
       </c>
@@ -3428,7 +4047,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>2005</v>
       </c>
@@ -3454,7 +4073,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" s="1" customFormat="1" spans="1:13">
       <c r="A69" s="1">
         <v>2006</v>
       </c>
@@ -3477,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>2007</v>
       </c>
@@ -3494,7 +4113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>2008</v>
       </c>
@@ -3511,7 +4130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>2009</v>
       </c>
@@ -3528,7 +4147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>2010</v>
       </c>
@@ -3554,7 +4173,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -3580,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>2012</v>
       </c>
@@ -3607,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>2013</v>
       </c>
@@ -3634,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>2014</v>
       </c>
@@ -3663,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -3677,7 +4296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>2016</v>
       </c>
@@ -3704,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>2017</v>
       </c>
@@ -3727,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -3753,7 +4372,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -3779,7 +4398,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -3806,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -3832,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>2022</v>
       </c>
@@ -3851,14 +4470,14 @@
       <c r="M85">
         <v>-1</v>
       </c>
-      <c r="O85" s="11">
+      <c r="O85" s="12">
         <v>61</v>
       </c>
       <c r="R85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>2023</v>
       </c>
@@ -3878,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>2024</v>
       </c>
@@ -3907,544 +4526,560 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>3001</v>
+    <row r="88" customFormat="1" spans="1:18">
+      <c r="A88">
+        <v>2025</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F88" s="2">
-        <v>3</v>
-      </c>
-      <c r="J88" s="2">
-        <v>3</v>
-      </c>
-      <c r="M88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N88" s="2">
-        <v>3009</v>
-      </c>
-      <c r="O88" s="12"/>
-      <c r="R88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>3002</v>
-      </c>
-      <c r="B89" s="10" t="s">
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88">
+        <v>41</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>-1</v>
+      </c>
+      <c r="O88">
+        <v>39</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:18">
+      <c r="A89">
+        <v>2026</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F89" s="2">
-        <v>29</v>
-      </c>
-      <c r="M89" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N89" s="2">
-        <v>3010</v>
-      </c>
-      <c r="O89" s="12">
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89">
         <v>42</v>
       </c>
-      <c r="R89" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>3003</v>
-      </c>
-      <c r="B90" s="10" t="s">
+      <c r="I89" s="3"/>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>-1</v>
+      </c>
+      <c r="O89">
+        <v>39</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:18">
+      <c r="A90">
+        <v>2027</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" s="2">
-        <v>31</v>
-      </c>
-      <c r="M90" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N90" s="2">
-        <v>3012</v>
-      </c>
-      <c r="O90" s="12">
+      <c r="D90" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90">
+        <v>43</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>-1</v>
+      </c>
+      <c r="O90">
+        <v>39</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:18">
+      <c r="A91">
+        <v>2028</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91">
         <v>44</v>
       </c>
-      <c r="R90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>3004</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F91" s="2">
-        <v>23</v>
-      </c>
-      <c r="J91" s="2">
-        <v>60</v>
-      </c>
-      <c r="M91" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N91" s="2">
-        <v>3013</v>
-      </c>
-      <c r="O91" s="12"/>
-      <c r="R91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I91" s="3"/>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>-1</v>
+      </c>
+      <c r="O91">
+        <v>39</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" spans="1:18">
       <c r="A92" s="2">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F92" s="2">
-        <v>26</v>
-      </c>
-      <c r="G92" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J92" s="2">
-        <v>3014</v>
+        <v>3</v>
       </c>
       <c r="M92" s="2">
         <v>-1</v>
       </c>
-      <c r="O92" s="12"/>
+      <c r="N92" s="2">
+        <v>3009</v>
+      </c>
+      <c r="O92" s="13"/>
       <c r="R92" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" s="2" customFormat="1" spans="1:18">
       <c r="A93" s="2">
-        <v>3006</v>
-      </c>
-      <c r="B93" s="10" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="11" t="s">
         <v>187</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F93" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M93" s="2">
         <v>-1</v>
       </c>
       <c r="N93" s="2">
-        <v>3017</v>
-      </c>
-      <c r="O93" s="12">
-        <v>48</v>
+        <v>3010</v>
+      </c>
+      <c r="O93" s="13">
+        <v>42</v>
       </c>
       <c r="R93" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" s="2" customFormat="1" spans="1:18">
       <c r="A94" s="2">
-        <v>3007</v>
-      </c>
-      <c r="B94" s="10" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="11" t="s">
         <v>189</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F94" s="2">
-        <v>4</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M94" s="2">
         <v>-1</v>
       </c>
       <c r="N94" s="2">
-        <v>3018</v>
-      </c>
-      <c r="O94" s="12"/>
+        <v>3012</v>
+      </c>
+      <c r="O94" s="13">
+        <v>44</v>
+      </c>
       <c r="R94" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" s="2" customFormat="1" spans="1:18">
       <c r="A95" s="2">
-        <v>3008</v>
-      </c>
-      <c r="B95" s="10" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="11" t="s">
         <v>191</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F95" s="2">
+        <v>23</v>
+      </c>
+      <c r="J95" s="2">
+        <v>60</v>
+      </c>
+      <c r="M95" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N95" s="2">
+        <v>3013</v>
+      </c>
+      <c r="O95" s="13"/>
+      <c r="R95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" s="2" customFormat="1" spans="1:18">
+      <c r="A96" s="2">
+        <v>3005</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" s="2">
+        <v>26</v>
+      </c>
+      <c r="G96" s="2">
+        <v>8</v>
+      </c>
+      <c r="J96" s="2">
+        <v>3014</v>
+      </c>
+      <c r="M96" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O96" s="13"/>
+      <c r="R96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" s="2" customFormat="1" spans="1:18">
+      <c r="A97" s="2">
+        <v>3006</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="2">
+        <v>34</v>
+      </c>
+      <c r="M97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N97" s="2">
+        <v>3017</v>
+      </c>
+      <c r="O97" s="13">
+        <v>48</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" s="2" customFormat="1" spans="1:18">
+      <c r="A98" s="2">
+        <v>3007</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="2">
         <v>4</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="M98" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N98" s="2">
+        <v>3018</v>
+      </c>
+      <c r="O98" s="13"/>
+      <c r="R98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" spans="1:18">
+      <c r="A99" s="2">
+        <v>3008</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="2">
+        <v>4</v>
+      </c>
+      <c r="J99" s="2">
         <v>-2</v>
       </c>
-      <c r="M95" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N95" s="2">
+      <c r="M99" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N99" s="2">
         <v>3019</v>
       </c>
-      <c r="O95" s="12"/>
-      <c r="R95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="O99" s="13"/>
+      <c r="R99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100">
         <v>3009</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="B100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
         <v>40</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E100" t="s">
         <v>47</v>
       </c>
-      <c r="F96">
+      <c r="F100">
         <v>22</v>
       </c>
-      <c r="J96">
-        <v>-1</v>
-      </c>
-      <c r="M96">
-        <v>-1</v>
-      </c>
-      <c r="R96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="J100">
+        <v>-1</v>
+      </c>
+      <c r="M100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101">
         <v>3010</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="B101" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" t="s">
         <v>40</v>
       </c>
-      <c r="F97">
+      <c r="F101">
         <v>38</v>
       </c>
-      <c r="M97">
-        <v>-1</v>
-      </c>
-      <c r="O97" s="11">
+      <c r="M101">
+        <v>-1</v>
+      </c>
+      <c r="O101" s="12">
         <v>43</v>
       </c>
-      <c r="R97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
         <v>3011</v>
       </c>
-      <c r="B98" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" t="s">
-        <v>194</v>
-      </c>
-      <c r="D98" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="M98">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>3012</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99" t="s">
-        <v>46</v>
-      </c>
-      <c r="F99">
-        <v>36</v>
-      </c>
-      <c r="J99">
-        <v>-1</v>
-      </c>
-      <c r="R99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>3013</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D100" t="s">
-        <v>46</v>
-      </c>
-      <c r="F100">
-        <v>2</v>
-      </c>
-      <c r="H100">
-        <v>2</v>
-      </c>
-      <c r="O100">
-        <v>45</v>
-      </c>
-      <c r="R100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>3014</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D101" t="s">
-        <v>46</v>
-      </c>
-      <c r="F101">
-        <v>32</v>
-      </c>
-      <c r="G101">
-        <v>0.3</v>
-      </c>
-      <c r="H101">
-        <v>0.2</v>
-      </c>
-      <c r="M101">
-        <v>-1</v>
-      </c>
-      <c r="O101">
-        <v>46</v>
-      </c>
-      <c r="R101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>3015</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>198</v>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" t="s">
+        <v>202</v>
       </c>
       <c r="D102" t="s">
         <v>46</v>
       </c>
+      <c r="E102" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F102">
-        <v>4</v>
-      </c>
-      <c r="J102">
-        <v>-1</v>
-      </c>
-      <c r="N102">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D103" t="s">
         <v>46</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="M103">
         <v>-1</v>
       </c>
       <c r="R103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F104">
         <v>2</v>
       </c>
       <c r="H104">
-        <v>3</v>
-      </c>
-      <c r="M104">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D105" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F105">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="G105">
+        <v>0.3</v>
+      </c>
+      <c r="H105">
+        <v>0.2</v>
       </c>
       <c r="M105">
         <v>-1</v>
       </c>
-      <c r="O105" s="11">
-        <v>62</v>
+      <c r="O105">
+        <v>46</v>
       </c>
       <c r="R105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F106">
-        <v>30</v>
-      </c>
-      <c r="M106">
-        <v>-1</v>
-      </c>
-      <c r="O106" s="11">
-        <v>63</v>
-      </c>
-      <c r="R106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="J106">
+        <v>-1</v>
+      </c>
+      <c r="N106">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D107" t="s">
         <v>46</v>
@@ -4453,19 +5088,142 @@
         <v>3</v>
       </c>
       <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>-1</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108">
+        <v>3017</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>-1</v>
+      </c>
+      <c r="O108">
+        <v>49</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109">
+        <v>3018</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109">
+        <v>38</v>
+      </c>
+      <c r="M109">
+        <v>-1</v>
+      </c>
+      <c r="O109" s="12">
+        <v>62</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110">
+        <v>3019</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110">
+        <v>30</v>
+      </c>
+      <c r="M110">
+        <v>-1</v>
+      </c>
+      <c r="O110" s="12">
+        <v>63</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111">
+        <v>3020</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="J111">
         <v>9</v>
       </c>
-      <c r="M107">
-        <v>-1</v>
-      </c>
-      <c r="R107">
-        <v>1</v>
-      </c>
+      <c r="M111">
+        <v>-1</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -886,7 +886,7 @@
     <t>震撼登场</t>
   </si>
   <si>
-    <t>进入战斗后昏迷敌人3秒</t>
+    <t>进入战斗后昏迷敌人4秒</t>
   </si>
   <si>
     <t>樱桃罐头</t>
@@ -1187,6 +1187,9 @@
     <t>每2次遗留，造成4点伤害</t>
   </si>
   <si>
+    <t>震撼登场 4秒晕</t>
+  </si>
+  <si>
     <t>遗物，玻璃大炮</t>
   </si>
   <si>
@@ -1303,41 +1306,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1350,16 +1329,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1374,36 +1374,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,10 +1403,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1433,7 +1428,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1441,9 +1444,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1479,7 +1482,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,7 +1518,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,7 +1626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,91 +1644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,55 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,11 +1678,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1689,30 +1699,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,15 +1714,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1770,16 +1747,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1788,137 +1791,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1933,7 +1936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2260,12 +2262,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3342,16 +3344,19 @@
         <v>55</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>0.1</v>
+      </c>
+      <c r="J38">
+        <v>2029</v>
       </c>
       <c r="M38">
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>1012</v>
       </c>
@@ -3364,8 +3369,17 @@
       <c r="D39" t="s">
         <v>46</v>
       </c>
+      <c r="F39">
+        <v>43</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
       <c r="M39">
         <v>-1</v>
+      </c>
+      <c r="O39">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4470,7 +4484,7 @@
       <c r="M85">
         <v>-1</v>
       </c>
-      <c r="O85" s="12">
+      <c r="O85" s="11">
         <v>61</v>
       </c>
       <c r="R85">
@@ -4530,10 +4544,10 @@
       <c r="A88">
         <v>2025</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>177</v>
       </c>
       <c r="D88" t="s">
@@ -4563,10 +4577,10 @@
       <c r="A89">
         <v>2026</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D89" t="s">
@@ -4593,10 +4607,10 @@
       <c r="A90">
         <v>2027</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>181</v>
       </c>
       <c r="D90" t="s">
@@ -4623,10 +4637,10 @@
       <c r="A91">
         <v>2028</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D91" t="s">
@@ -4649,89 +4663,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" spans="1:18">
-      <c r="A92" s="2">
-        <v>3001</v>
-      </c>
-      <c r="B92" s="10" t="s">
+    <row r="92" customFormat="1" spans="1:18">
+      <c r="A92">
+        <v>2029</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="2">
-        <v>3</v>
-      </c>
-      <c r="J92" s="2">
-        <v>3</v>
-      </c>
-      <c r="M92" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N92" s="2">
-        <v>3009</v>
-      </c>
-      <c r="O92" s="13"/>
-      <c r="R92" s="2">
+      <c r="C92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92" s="3"/>
+      <c r="M92">
+        <v>-1</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="R92">
         <v>1</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:18">
       <c r="A93" s="2">
-        <v>3002</v>
-      </c>
-      <c r="B93" s="11" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F93" s="2">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="J93" s="2">
+        <v>3</v>
       </c>
       <c r="M93" s="2">
         <v>-1</v>
       </c>
       <c r="N93" s="2">
-        <v>3010</v>
-      </c>
-      <c r="O93" s="13">
-        <v>42</v>
-      </c>
+        <v>3009</v>
+      </c>
+      <c r="O93" s="12"/>
       <c r="R93" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:18">
       <c r="A94" s="2">
-        <v>3003</v>
-      </c>
-      <c r="B94" s="11" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F94" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M94" s="2">
         <v>-1</v>
       </c>
       <c r="N94" s="2">
-        <v>3012</v>
-      </c>
-      <c r="O94" s="13">
-        <v>44</v>
+        <v>3010</v>
+      </c>
+      <c r="O94" s="12">
+        <v>42</v>
       </c>
       <c r="R94" s="2">
         <v>1</v>
@@ -4739,132 +4757,131 @@
     </row>
     <row r="95" s="2" customFormat="1" spans="1:18">
       <c r="A95" s="2">
-        <v>3004</v>
-      </c>
-      <c r="B95" s="11" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F95" s="2">
-        <v>23</v>
-      </c>
-      <c r="J95" s="2">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="M95" s="2">
         <v>-1</v>
       </c>
       <c r="N95" s="2">
-        <v>3013</v>
-      </c>
-      <c r="O95" s="13"/>
+        <v>3012</v>
+      </c>
+      <c r="O95" s="12">
+        <v>44</v>
+      </c>
       <c r="R95" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:18">
       <c r="A96" s="2">
-        <v>3005</v>
-      </c>
-      <c r="B96" s="11" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F96" s="2">
-        <v>26</v>
-      </c>
-      <c r="G96" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J96" s="2">
-        <v>3014</v>
+        <v>60</v>
       </c>
       <c r="M96" s="2">
         <v>-1</v>
       </c>
-      <c r="O96" s="13"/>
+      <c r="N96" s="2">
+        <v>3013</v>
+      </c>
+      <c r="O96" s="12"/>
       <c r="R96" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:18">
       <c r="A97" s="2">
-        <v>3006</v>
-      </c>
-      <c r="B97" s="11" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F97" s="2">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="G97" s="2">
+        <v>8</v>
+      </c>
+      <c r="J97" s="2">
+        <v>3014</v>
       </c>
       <c r="M97" s="2">
         <v>-1</v>
       </c>
-      <c r="N97" s="2">
-        <v>3017</v>
-      </c>
-      <c r="O97" s="13">
-        <v>48</v>
-      </c>
+      <c r="O97" s="12"/>
       <c r="R97" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" spans="1:18">
       <c r="A98" s="2">
-        <v>3007</v>
-      </c>
-      <c r="B98" s="11" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F98" s="2">
-        <v>4</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M98" s="2">
         <v>-1</v>
       </c>
       <c r="N98" s="2">
-        <v>3018</v>
-      </c>
-      <c r="O98" s="13"/>
+        <v>3017</v>
+      </c>
+      <c r="O98" s="12">
+        <v>48</v>
+      </c>
       <c r="R98" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:18">
       <c r="A99" s="2">
-        <v>3008</v>
-      </c>
-      <c r="B99" s="11" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>40</v>
@@ -4873,51 +4890,52 @@
         <v>4</v>
       </c>
       <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N99" s="2">
+        <v>3018</v>
+      </c>
+      <c r="O99" s="12"/>
+      <c r="R99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="1:18">
+      <c r="A100" s="2">
+        <v>3008</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="2">
+        <v>4</v>
+      </c>
+      <c r="J100" s="2">
         <v>-2</v>
       </c>
-      <c r="M99" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N99" s="2">
+      <c r="M100" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N100" s="2">
         <v>3019</v>
       </c>
-      <c r="O99" s="13"/>
-      <c r="R99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
-      <c r="A100">
-        <v>3009</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" t="s">
-        <v>40</v>
-      </c>
-      <c r="E100" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100">
-        <v>22</v>
-      </c>
-      <c r="J100">
-        <v>-1</v>
-      </c>
-      <c r="M100">
-        <v>-1</v>
-      </c>
-      <c r="R100">
+      <c r="O100" s="12"/>
+      <c r="R100" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:18">
       <c r="A101">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>201</v>
@@ -4928,71 +4946,77 @@
       <c r="D101" t="s">
         <v>40</v>
       </c>
+      <c r="E101" t="s">
+        <v>47</v>
+      </c>
       <c r="F101">
+        <v>22</v>
+      </c>
+      <c r="J101">
+        <v>-1</v>
+      </c>
+      <c r="M101">
+        <v>-1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102">
+        <v>3010</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102">
         <v>38</v>
       </c>
-      <c r="M101">
-        <v>-1</v>
-      </c>
-      <c r="O101" s="12">
+      <c r="M102">
+        <v>-1</v>
+      </c>
+      <c r="O102" s="11">
         <v>43</v>
       </c>
-      <c r="R101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102">
+      <c r="R102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
         <v>3011</v>
       </c>
-      <c r="B102" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" t="s">
-        <v>202</v>
-      </c>
-      <c r="D102" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="A103">
-        <v>3012</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" t="s">
         <v>203</v>
       </c>
       <c r="D103" t="s">
         <v>46</v>
       </c>
+      <c r="E103" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F103">
-        <v>36</v>
-      </c>
-      <c r="J103">
-        <v>-1</v>
-      </c>
-      <c r="R103">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:18">
       <c r="A104">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>204</v>
@@ -5004,13 +5028,10 @@
         <v>46</v>
       </c>
       <c r="F104">
-        <v>2</v>
-      </c>
-      <c r="H104">
-        <v>2</v>
-      </c>
-      <c r="O104">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="J104">
+        <v>-1</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -5018,7 +5039,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>205</v>
@@ -5030,27 +5051,21 @@
         <v>46</v>
       </c>
       <c r="F105">
-        <v>32</v>
-      </c>
-      <c r="G105">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H105">
-        <v>0.2</v>
-      </c>
-      <c r="M105">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O105">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:18">
       <c r="A106">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>206</v>
@@ -5062,18 +5077,27 @@
         <v>46</v>
       </c>
       <c r="F106">
-        <v>4</v>
-      </c>
-      <c r="J106">
-        <v>-1</v>
-      </c>
-      <c r="N106">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
+        <v>32</v>
+      </c>
+      <c r="G106">
+        <v>0.3</v>
+      </c>
+      <c r="H106">
+        <v>0.2</v>
+      </c>
+      <c r="M106">
+        <v>-1</v>
+      </c>
+      <c r="O106">
+        <v>46</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>207</v>
@@ -5085,21 +5109,18 @@
         <v>46</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="M107">
-        <v>-1</v>
-      </c>
-      <c r="R107">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="N107">
+        <v>3005</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>208</v>
@@ -5108,19 +5129,16 @@
         <v>208</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F108">
-        <v>2</v>
-      </c>
-      <c r="H108">
         <v>3</v>
       </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
       <c r="M108">
         <v>-1</v>
-      </c>
-      <c r="O108">
-        <v>49</v>
       </c>
       <c r="R108">
         <v>1</v>
@@ -5128,7 +5146,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>209</v>
@@ -5140,13 +5158,16 @@
         <v>40</v>
       </c>
       <c r="F109">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
       </c>
       <c r="M109">
         <v>-1</v>
       </c>
-      <c r="O109" s="12">
-        <v>62</v>
+      <c r="O109">
+        <v>49</v>
       </c>
       <c r="R109">
         <v>1</v>
@@ -5154,7 +5175,7 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>210</v>
@@ -5166,13 +5187,13 @@
         <v>40</v>
       </c>
       <c r="F110">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M110">
         <v>-1</v>
       </c>
-      <c r="O110" s="12">
-        <v>63</v>
+      <c r="O110" s="11">
+        <v>62</v>
       </c>
       <c r="R110">
         <v>1</v>
@@ -5180,7 +5201,7 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>211</v>
@@ -5189,24 +5210,46 @@
         <v>211</v>
       </c>
       <c r="D111" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111">
+        <v>30</v>
+      </c>
+      <c r="M111">
+        <v>-1</v>
+      </c>
+      <c r="O111" s="11">
+        <v>63</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112">
+        <v>3020</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" t="s">
         <v>46</v>
       </c>
-      <c r="F111">
+      <c r="F112">
         <v>3</v>
       </c>
-      <c r="J111">
+      <c r="J112">
         <v>9</v>
       </c>
-      <c r="M111">
-        <v>-1</v>
-      </c>
-      <c r="R111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="M112">
+        <v>-1</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" s="4"/>
@@ -5219,6 +5262,10 @@
     <row r="115" spans="2:3">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -856,7 +856,7 @@
     <t>电能装甲</t>
   </si>
   <si>
-    <t>成功格挡时，造成5点伤害</t>
+    <t>成功格挡时，造成4点伤害</t>
   </si>
   <si>
     <t>锯齿护臂</t>
@@ -955,13 +955,13 @@
     <t>Effect_doubt</t>
   </si>
   <si>
-    <t>消除护甲-效果</t>
+    <t>消除护甲-效果且加1攻</t>
   </si>
   <si>
     <t>正义宣言</t>
   </si>
   <si>
-    <t>暴击率提升40%,持续10秒</t>
+    <t>暴击率提升30%,持续10秒</t>
   </si>
   <si>
     <t>英勇斗篷</t>
@@ -970,12 +970,6 @@
     <t>暴击率提升10%,每当暴击便回复1点能量。</t>
   </si>
   <si>
-    <t>冲锋面罩</t>
-  </si>
-  <si>
-    <t>每当暴击便回复1点生命值。</t>
-  </si>
-  <si>
     <t>神圣法典</t>
   </si>
   <si>
@@ -1016,6 +1010,9 @@
   </si>
   <si>
     <t>冲锋面罩-回复生命</t>
+  </si>
+  <si>
+    <t>每当暴击便回复2点生命值。</t>
   </si>
   <si>
     <t>生成2张冰枪术</t>
@@ -1166,7 +1163,7 @@
     <t>每出2张攻击牌</t>
   </si>
   <si>
-    <t>每出2张攻击牌造成4点伤害</t>
+    <t>每打出2张攻击牌回复2点能量</t>
   </si>
   <si>
     <t>弃牌触发</t>
@@ -1188,6 +1185,30 @@
   </si>
   <si>
     <t>震撼登场 4秒晕</t>
+  </si>
+  <si>
+    <t>昏迷2秒</t>
+  </si>
+  <si>
+    <t>力量之铸</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，暴击率提高10%</t>
+  </si>
+  <si>
+    <t>力量之铸10%暴击</t>
+  </si>
+  <si>
+    <t>炽热防御20%暴击</t>
+  </si>
+  <si>
+    <t>正义枷锁+1攻</t>
+  </si>
+  <si>
+    <t>圣灵之源-每打出魔法牌</t>
+  </si>
+  <si>
+    <t>圣灵之源-加1攻</t>
   </si>
   <si>
     <t>遗物，玻璃大炮</t>
@@ -1280,9 +1301,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1306,17 +1327,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1330,53 +1378,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1403,9 +1408,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,22 +1447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1443,8 +1455,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1482,7 +1503,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,13 +1551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,7 +1569,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,25 +1641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,25 +1653,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,79 +1677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,20 +1697,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1698,7 +1716,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1733,21 +1751,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1773,16 +1776,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1791,139 +1812,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1936,6 +1956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2262,12 +2283,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomLeft" activeCell="Q94" sqref="Q94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2278,7 +2299,7 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
@@ -2312,7 +2333,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -2330,7 +2351,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -2365,7 +2386,7 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
@@ -2403,13 +2424,13 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M3">
@@ -2426,7 +2447,7 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -2441,7 +2462,7 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J4">
@@ -2464,7 +2485,7 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F5">
@@ -2473,7 +2494,7 @@
       <c r="G5">
         <v>15</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J5">
@@ -2493,7 +2514,7 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
@@ -2522,7 +2543,7 @@
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
@@ -2545,7 +2566,7 @@
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -2557,7 +2578,7 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J8">
@@ -2574,13 +2595,13 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F9">
@@ -2606,7 +2627,7 @@
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="M10">
@@ -2638,7 +2659,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J11">
@@ -2655,7 +2676,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -2664,7 +2685,7 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F12">
@@ -2696,7 +2717,7 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J13">
@@ -2728,7 +2749,7 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J14">
@@ -2760,7 +2781,7 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J15">
@@ -2777,7 +2798,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C16" t="s">
@@ -2792,7 +2813,7 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J16">
@@ -2809,10 +2830,10 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D17" t="s">
@@ -2835,10 +2856,10 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D18" t="s">
@@ -2864,10 +2885,10 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
       <c r="R19">
         <v>2</v>
       </c>
@@ -2876,10 +2897,10 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="F20">
         <v>39</v>
       </c>
@@ -2897,10 +2918,10 @@
       <c r="A21">
         <v>33</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="F21">
         <v>33</v>
       </c>
@@ -2921,7 +2942,7 @@
       <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F22">
@@ -2993,10 +3014,10 @@
       <c r="A25">
         <v>1003</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D25" t="s">
@@ -3025,10 +3046,10 @@
       <c r="A26">
         <v>1004</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D26" t="s">
@@ -3051,10 +3072,10 @@
       <c r="A27">
         <v>1005</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D27" t="s">
@@ -3083,7 +3104,7 @@
       <c r="A28">
         <v>1006</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F28">
@@ -3103,10 +3124,10 @@
       <c r="A29">
         <v>1007</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D29" t="s">
@@ -3129,10 +3150,10 @@
       <c r="A30">
         <v>1013</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D30" t="s">
@@ -3155,10 +3176,10 @@
       <c r="A31">
         <v>1014</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D31" t="s">
@@ -3181,10 +3202,10 @@
       <c r="A32">
         <v>1015</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D32" t="s">
@@ -3196,7 +3217,7 @@
       <c r="M32">
         <v>-1</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <v>35</v>
       </c>
       <c r="R32">
@@ -3207,10 +3228,10 @@
       <c r="A33">
         <v>1016</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D33" t="s">
@@ -3222,8 +3243,8 @@
       <c r="M33">
         <v>-1</v>
       </c>
-      <c r="O33" s="4">
-        <v>36</v>
+      <c r="O33" s="3">
+        <v>66</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -3233,10 +3254,10 @@
       <c r="A34">
         <v>1017</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D34" t="s">
@@ -3248,7 +3269,7 @@
       <c r="M34">
         <v>-1</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <v>37</v>
       </c>
       <c r="R34">
@@ -3259,10 +3280,10 @@
       <c r="A35">
         <v>1018</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D35" t="s">
@@ -3285,10 +3306,10 @@
       <c r="A36">
         <v>1009</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D36" t="s">
@@ -3308,10 +3329,10 @@
       <c r="A37">
         <v>1010</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D37" t="s">
@@ -3331,7 +3352,7 @@
       <c r="A38">
         <v>1011</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C38" t="s">
@@ -3340,7 +3361,7 @@
       <c r="D38" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F38">
@@ -3360,10 +3381,10 @@
       <c r="A39">
         <v>1012</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D39" t="s">
@@ -3386,10 +3407,10 @@
       <c r="A40">
         <v>1023</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D40" t="s">
@@ -3409,10 +3430,10 @@
       <c r="A41">
         <v>1024</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D41" t="s">
@@ -3438,10 +3459,10 @@
       <c r="A42">
         <v>1025</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D42" t="s">
@@ -3470,10 +3491,10 @@
       <c r="A43">
         <v>1026</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="3"/>
       <c r="F43">
         <v>13</v>
       </c>
@@ -3482,6 +3503,9 @@
       </c>
       <c r="J43">
         <v>-1</v>
+      </c>
+      <c r="N43">
+        <v>2034</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -3491,10 +3515,10 @@
       <c r="A44">
         <v>1027</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D44" t="s">
@@ -3507,7 +3531,7 @@
         <v>10</v>
       </c>
       <c r="J44">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M44">
         <v>-1</v>
@@ -3520,10 +3544,10 @@
       <c r="A45">
         <v>1028</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D45" t="s">
@@ -3547,22 +3571,28 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46">
-        <v>1029</v>
-      </c>
-      <c r="B46" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
       </c>
+      <c r="F46">
+        <v>32</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
       <c r="M46">
         <v>-1</v>
       </c>
-      <c r="N46">
-        <v>1040</v>
+      <c r="O46">
+        <v>51</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -3570,28 +3600,25 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47">
-        <v>1030</v>
-      </c>
-      <c r="B47" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>32</v>
-      </c>
-      <c r="H47">
-        <v>6</v>
-      </c>
-      <c r="M47">
-        <v>-1</v>
-      </c>
-      <c r="O47">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>1032</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -3599,25 +3626,20 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48">
-        <v>1031</v>
-      </c>
-      <c r="B48" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" t="s">
-        <v>40</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="F48">
-        <v>28</v>
-      </c>
-      <c r="J48">
         <v>2</v>
       </c>
-      <c r="N48">
-        <v>1032</v>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>52</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -3625,20 +3647,28 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49">
-        <v>1032</v>
-      </c>
-      <c r="B49" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
       <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-1</v>
       </c>
       <c r="O49">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -3646,111 +3676,103 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50">
-        <v>1033</v>
-      </c>
-      <c r="B50" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F50">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>-1</v>
-      </c>
-      <c r="O50">
-        <v>303</v>
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>1037</v>
       </c>
       <c r="R50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>1034</v>
-      </c>
-      <c r="B51" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
+      <c r="C51" s="4"/>
       <c r="F51">
-        <v>28</v>
-      </c>
-      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="H51">
         <v>4</v>
       </c>
       <c r="N51">
-        <v>1037</v>
-      </c>
-      <c r="R51">
-        <v>1</v>
+        <v>1036</v>
+      </c>
+      <c r="O51">
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
-        <v>1035</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="5"/>
+        <v>1036</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
-      <c r="N52">
-        <v>1036</v>
-      </c>
       <c r="O52">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
-        <v>1036</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>1037</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="F53">
+        <v>36</v>
+      </c>
+      <c r="J53">
         <v>2</v>
       </c>
-      <c r="H53">
-        <v>4</v>
-      </c>
-      <c r="O53">
-        <v>55</v>
+      <c r="R53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54">
-        <v>1037</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>1038</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="4"/>
       <c r="F54">
-        <v>36</v>
-      </c>
-      <c r="J54">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="M54">
+        <v>-1</v>
+      </c>
+      <c r="O54">
+        <v>56</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -3758,12 +3780,12 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55">
-        <v>1038</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>1039</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="4"/>
       <c r="F55">
         <v>37</v>
       </c>
@@ -3771,7 +3793,7 @@
         <v>-1</v>
       </c>
       <c r="O55">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -3779,12 +3801,14 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56">
-        <v>1039</v>
-      </c>
-      <c r="B56" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="5"/>
       <c r="F56">
         <v>37</v>
       </c>
@@ -3792,7 +3816,7 @@
         <v>-1</v>
       </c>
       <c r="O56">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -3800,20 +3824,26 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57">
-        <v>1040</v>
-      </c>
-      <c r="B57" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="4"/>
       <c r="F57">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="G57">
+        <v>0.3</v>
+      </c>
+      <c r="H57">
+        <v>0.2</v>
       </c>
       <c r="M57">
         <v>-1</v>
       </c>
       <c r="O57">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="R57">
         <v>1</v>
@@ -3821,26 +3851,31 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58">
-        <v>1041</v>
-      </c>
-      <c r="B58" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
       <c r="F58">
-        <v>32</v>
-      </c>
-      <c r="G58">
-        <v>0.3</v>
-      </c>
-      <c r="H58">
-        <v>0.2</v>
+        <v>28</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
       </c>
       <c r="M58">
         <v>-1</v>
       </c>
-      <c r="O58">
-        <v>58</v>
+      <c r="N58">
+        <v>1043</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -3848,31 +3883,23 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59">
-        <v>1042</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" t="s">
-        <v>41</v>
-      </c>
+      <c r="C59" s="4"/>
       <c r="F59">
-        <v>28</v>
-      </c>
-      <c r="J59">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M59">
         <v>-1</v>
       </c>
       <c r="N59">
-        <v>1043</v>
+        <v>1045</v>
+      </c>
+      <c r="O59">
+        <v>59</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -3880,258 +3907,251 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60">
-        <v>1043</v>
-      </c>
-      <c r="B60" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
       <c r="F60">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="H60">
+        <v>33</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
       </c>
       <c r="M60">
         <v>-1</v>
       </c>
-      <c r="N60">
+      <c r="O60">
+        <v>60</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
         <v>1045</v>
       </c>
-      <c r="O60">
-        <v>59</v>
-      </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61">
-        <v>1044</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61" s="4"/>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
+        <v>2000</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" t="s">
         <v>40</v>
       </c>
-      <c r="F61">
-        <v>40</v>
-      </c>
-      <c r="H61">
-        <v>33</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>-1</v>
-      </c>
-      <c r="O61">
-        <v>60</v>
-      </c>
-      <c r="R61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62">
-        <v>1045</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="5"/>
+      <c r="E62" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="F62">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>9</v>
+      </c>
+      <c r="N62">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>2000</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>141</v>
+        <v>2001</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F63">
-        <v>19</v>
-      </c>
-      <c r="J63">
-        <v>9</v>
-      </c>
-      <c r="N63">
-        <v>2002</v>
+        <v>29</v>
+      </c>
+      <c r="O63">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64">
-        <v>2001</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>144</v>
+        <v>2002</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
       </c>
       <c r="C64" t="s">
         <v>145</v>
       </c>
       <c r="F64">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>2000</v>
+      </c>
+      <c r="N64">
+        <v>2001</v>
       </c>
       <c r="O64">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" t="s">
         <v>146</v>
       </c>
-      <c r="F65">
-        <v>5</v>
-      </c>
-      <c r="J65">
-        <v>2000</v>
-      </c>
-      <c r="N65">
-        <v>2001</v>
-      </c>
-      <c r="O65">
+      <c r="C65" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
         <v>2004</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
-        <v>2003</v>
-      </c>
       <c r="B66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>148</v>
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2006</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>2004</v>
-      </c>
-      <c r="B67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" t="s">
-        <v>59</v>
+        <v>2005</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
       </c>
       <c r="N67">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="68" s="7" customFormat="1" spans="1:13">
+      <c r="A68" s="7">
         <v>2006</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68">
-        <v>2005</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="B68" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F68">
-        <v>19</v>
-      </c>
-      <c r="J68">
-        <v>8</v>
-      </c>
-      <c r="N68">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:13">
-      <c r="A69" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="F68" s="7">
+        <v>26</v>
+      </c>
+      <c r="G68" s="7">
+        <v>3</v>
+      </c>
+      <c r="J68" s="7">
+        <v>2000</v>
+      </c>
+      <c r="M68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <v>2007</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F69" s="1">
-        <v>26</v>
-      </c>
-      <c r="G69" s="1">
-        <v>3</v>
-      </c>
-      <c r="J69" s="1">
-        <v>2000</v>
-      </c>
-      <c r="M69" s="1">
-        <v>1</v>
+      <c r="C69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
+      </c>
+      <c r="O69">
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70">
-        <v>2007</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
         <v>155</v>
       </c>
       <c r="F70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O70">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71">
-        <v>2008</v>
-      </c>
-      <c r="B71" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C71" t="s">
@@ -4141,67 +4161,77 @@
         <v>29</v>
       </c>
       <c r="O71">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72">
-        <v>2009</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="C72" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
       <c r="F72">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="G72">
+        <v>23</v>
+      </c>
+      <c r="N72">
+        <v>2015</v>
       </c>
       <c r="O72">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
-        <v>2010</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>159</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
       </c>
       <c r="F73">
-        <v>27</v>
-      </c>
-      <c r="G73">
-        <v>23</v>
-      </c>
-      <c r="N73">
-        <v>2015</v>
+        <v>34</v>
+      </c>
+      <c r="M73">
+        <v>-1</v>
       </c>
       <c r="O73">
-        <v>1500</v>
+        <v>1502</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74">
-        <v>2011</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="C74" s="4"/>
       <c r="D74" t="s">
         <v>40</v>
       </c>
       <c r="F74">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
       </c>
       <c r="M74">
         <v>-1</v>
@@ -4215,12 +4245,12 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75">
-        <v>2012</v>
-      </c>
-      <c r="B75" s="4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="5"/>
+      <c r="C75" s="4"/>
       <c r="D75" t="s">
         <v>40</v>
       </c>
@@ -4228,13 +4258,13 @@
         <v>32</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M75">
         <v>-1</v>
       </c>
       <c r="O75">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="R75">
         <v>1</v>
@@ -4242,12 +4272,14 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76">
-        <v>2013</v>
-      </c>
-      <c r="B76" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="D76" t="s">
         <v>40</v>
       </c>
@@ -4255,185 +4287,185 @@
         <v>32</v>
       </c>
       <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>-1</v>
+      </c>
+      <c r="O76">
+        <v>53</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>2015</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F77">
         <v>4</v>
       </c>
-      <c r="M76">
-        <v>-1</v>
-      </c>
-      <c r="O76">
-        <v>1504</v>
-      </c>
-      <c r="R76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
-      <c r="A77">
-        <v>2014</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="J77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78">
+        <v>2016</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" t="s">
         <v>40</v>
       </c>
-      <c r="F77">
-        <v>32</v>
-      </c>
-      <c r="H77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>-1</v>
-      </c>
-      <c r="O77">
-        <v>53</v>
-      </c>
-      <c r="R77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78">
-        <v>2015</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="F78">
-        <v>4</v>
-      </c>
-      <c r="J78">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>-1</v>
+      </c>
+      <c r="O78">
+        <v>1505</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79">
-        <v>2016</v>
-      </c>
-      <c r="B79" s="4" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="5"/>
+      <c r="C79" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
+        <v>2018</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
-      </c>
-      <c r="M79">
-        <v>-1</v>
-      </c>
-      <c r="O79">
-        <v>1505</v>
-      </c>
-      <c r="R79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="A80">
-        <v>2017</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" t="s">
-        <v>46</v>
+      <c r="E80" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="R80">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="N80">
+        <v>2002</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>2018</v>
-      </c>
-      <c r="B81" s="4" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C81" t="s">
-        <v>142</v>
+      <c r="C81" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>143</v>
+      <c r="E81" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="F81">
         <v>19</v>
       </c>
       <c r="J81">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N81">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
-        <v>2019</v>
-      </c>
-      <c r="B82" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="C82" s="4"/>
       <c r="D82" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="F82">
-        <v>19</v>
-      </c>
-      <c r="J82">
-        <v>20</v>
-      </c>
-      <c r="N82">
-        <v>2001</v>
+        <v>32</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>-1</v>
+      </c>
+      <c r="O82">
+        <v>1502</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83">
-        <v>2020</v>
-      </c>
-      <c r="B83" s="4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="D83" t="s">
         <v>40</v>
       </c>
       <c r="F83">
-        <v>32</v>
-      </c>
-      <c r="H83">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M83">
         <v>-1</v>
       </c>
       <c r="O83">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="R83">
         <v>1</v>
@@ -4441,12 +4473,12 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84">
-        <v>2021</v>
-      </c>
-      <c r="B84" s="4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D84" t="s">
@@ -4458,8 +4490,8 @@
       <c r="M84">
         <v>-1</v>
       </c>
-      <c r="O84">
-        <v>1506</v>
+      <c r="O84" s="11">
+        <v>61</v>
       </c>
       <c r="R84">
         <v>1</v>
@@ -4467,25 +4499,19 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85">
-        <v>2022</v>
-      </c>
-      <c r="B85" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D85" t="s">
-        <v>40</v>
-      </c>
       <c r="F85">
-        <v>34</v>
-      </c>
-      <c r="M85">
-        <v>-1</v>
-      </c>
-      <c r="O85" s="11">
-        <v>61</v>
+        <v>36</v>
+      </c>
+      <c r="J85">
+        <v>-1</v>
       </c>
       <c r="R85">
         <v>1</v>
@@ -4493,40 +4519,53 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86">
-        <v>2023</v>
-      </c>
-      <c r="B86" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
       <c r="F86">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J86">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>-1</v>
+      </c>
+      <c r="O86">
+        <v>1507</v>
       </c>
       <c r="R86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" customFormat="1" spans="1:18">
       <c r="A87">
-        <v>2024</v>
-      </c>
-      <c r="B87" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>175</v>
+      <c r="C87" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F87">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" s="2"/>
       <c r="J87">
         <v>0</v>
       </c>
@@ -4534,7 +4573,7 @@
         <v>-1</v>
       </c>
       <c r="O87">
-        <v>1507</v>
+        <v>65</v>
       </c>
       <c r="R87">
         <v>1</v>
@@ -4542,26 +4581,23 @@
     </row>
     <row r="88" customFormat="1" spans="1:18">
       <c r="A88">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D88" t="s">
         <v>46</v>
       </c>
       <c r="F88">
-        <v>41</v>
-      </c>
-      <c r="H88">
+        <v>42</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88">
         <v>2</v>
-      </c>
-      <c r="I88" s="3"/>
-      <c r="J88">
-        <v>0</v>
       </c>
       <c r="M88">
         <v>-1</v>
@@ -4575,21 +4611,21 @@
     </row>
     <row r="89" customFormat="1" spans="1:18">
       <c r="A89">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>46</v>
       </c>
       <c r="F89">
-        <v>42</v>
-      </c>
-      <c r="I89" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="I89" s="2"/>
       <c r="J89">
         <v>2</v>
       </c>
@@ -4605,21 +4641,21 @@
     </row>
     <row r="90" customFormat="1" spans="1:18">
       <c r="A90">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
         <v>46</v>
       </c>
       <c r="F90">
-        <v>43</v>
-      </c>
-      <c r="I90" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="I90" s="2"/>
       <c r="J90">
         <v>2</v>
       </c>
@@ -4635,565 +4671,535 @@
     </row>
     <row r="91" customFormat="1" spans="1:18">
       <c r="A91">
-        <v>2028</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" s="8" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D91" t="s">
         <v>46</v>
       </c>
+      <c r="E91" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F91">
-        <v>44</v>
-      </c>
-      <c r="I91" s="3"/>
-      <c r="J91">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="I91" s="2"/>
       <c r="M91">
         <v>-1</v>
       </c>
-      <c r="O91">
-        <v>39</v>
-      </c>
       <c r="R91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="1:18">
+    <row r="92" customFormat="1" spans="1:13">
       <c r="A92">
-        <v>2029</v>
-      </c>
-      <c r="B92" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B92" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" t="s">
         <v>184</v>
       </c>
       <c r="D92" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:18">
+      <c r="A93">
+        <v>2031</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>186</v>
+      </c>
+      <c r="F93">
+        <v>29</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="M93">
+        <v>-1</v>
+      </c>
+      <c r="O93">
+        <v>67</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:10">
+      <c r="A94">
+        <v>2032</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94">
+        <v>23</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="J94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:10">
+      <c r="A95">
+        <v>2033</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95">
+        <v>23</v>
+      </c>
+      <c r="I95" s="2"/>
+      <c r="J95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:18">
+      <c r="A96">
+        <v>2034</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:18">
+      <c r="A97">
+        <v>2035</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97">
+        <v>41</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>-1</v>
+      </c>
+      <c r="O97" s="3">
+        <v>70</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:10">
+      <c r="A98">
+        <v>2036</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="I98" s="2"/>
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:18">
+      <c r="A99" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3</v>
+      </c>
+      <c r="J99" s="1">
+        <v>3</v>
+      </c>
+      <c r="M99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N99" s="1">
+        <v>3009</v>
+      </c>
+      <c r="O99" s="12"/>
+      <c r="R99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="1:18">
+      <c r="A100" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="1">
+        <v>29</v>
+      </c>
+      <c r="M100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N100" s="1">
+        <v>3010</v>
+      </c>
+      <c r="O100" s="12">
+        <v>42</v>
+      </c>
+      <c r="R100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:18">
+      <c r="A101" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="1">
+        <v>31</v>
+      </c>
+      <c r="M101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N101" s="1">
+        <v>3012</v>
+      </c>
+      <c r="O101" s="12">
+        <v>44</v>
+      </c>
+      <c r="R101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="1:18">
+      <c r="A102" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="1">
+        <v>23</v>
+      </c>
+      <c r="J102" s="1">
+        <v>60</v>
+      </c>
+      <c r="M102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N102" s="1">
+        <v>3013</v>
+      </c>
+      <c r="O102" s="12"/>
+      <c r="R102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:18">
+      <c r="A103" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="1">
+        <v>26</v>
+      </c>
+      <c r="G103" s="1">
+        <v>8</v>
+      </c>
+      <c r="J103" s="1">
+        <v>3014</v>
+      </c>
+      <c r="M103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O103" s="12"/>
+      <c r="R103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:18">
+      <c r="A104" s="1">
+        <v>3006</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="1">
+        <v>34</v>
+      </c>
+      <c r="M104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N104" s="1">
+        <v>3017</v>
+      </c>
+      <c r="O104" s="12">
+        <v>48</v>
+      </c>
+      <c r="R104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:18">
+      <c r="A105" s="1">
+        <v>3007</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="1">
         <v>4</v>
       </c>
-      <c r="H92"/>
-      <c r="I92" s="3"/>
-      <c r="M92">
-        <v>-1</v>
-      </c>
-      <c r="N92"/>
-      <c r="O92"/>
-      <c r="R92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" s="2" customFormat="1" spans="1:18">
-      <c r="A93" s="2">
-        <v>3001</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N105" s="1">
+        <v>3018</v>
+      </c>
+      <c r="O105" s="12"/>
+      <c r="R105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="1:18">
+      <c r="A106" s="1">
+        <v>3008</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F93" s="2">
-        <v>3</v>
-      </c>
-      <c r="J93" s="2">
-        <v>3</v>
-      </c>
-      <c r="M93" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N93" s="2">
+      <c r="F106" s="1">
+        <v>4</v>
+      </c>
+      <c r="J106" s="1">
+        <v>-2</v>
+      </c>
+      <c r="M106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N106" s="1">
+        <v>3019</v>
+      </c>
+      <c r="O106" s="12"/>
+      <c r="R106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107">
         <v>3009</v>
       </c>
-      <c r="O93" s="12"/>
-      <c r="R93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" s="2" customFormat="1" spans="1:18">
-      <c r="A94" s="2">
-        <v>3002</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="B107" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" t="s">
         <v>40</v>
       </c>
-      <c r="F94" s="2">
-        <v>29</v>
-      </c>
-      <c r="M94" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N94" s="2">
-        <v>3010</v>
-      </c>
-      <c r="O94" s="12">
-        <v>42</v>
-      </c>
-      <c r="R94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" s="2" customFormat="1" spans="1:18">
-      <c r="A95" s="2">
-        <v>3003</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F95" s="2">
-        <v>31</v>
-      </c>
-      <c r="M95" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N95" s="2">
-        <v>3012</v>
-      </c>
-      <c r="O95" s="12">
-        <v>44</v>
-      </c>
-      <c r="R95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" s="2" customFormat="1" spans="1:18">
-      <c r="A96" s="2">
-        <v>3004</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F96" s="2">
-        <v>23</v>
-      </c>
-      <c r="J96" s="2">
-        <v>60</v>
-      </c>
-      <c r="M96" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N96" s="2">
-        <v>3013</v>
-      </c>
-      <c r="O96" s="12"/>
-      <c r="R96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" s="2" customFormat="1" spans="1:18">
-      <c r="A97" s="2">
-        <v>3005</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" s="2">
-        <v>26</v>
-      </c>
-      <c r="G97" s="2">
-        <v>8</v>
-      </c>
-      <c r="J97" s="2">
-        <v>3014</v>
-      </c>
-      <c r="M97" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O97" s="12"/>
-      <c r="R97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" s="2" customFormat="1" spans="1:18">
-      <c r="A98" s="2">
-        <v>3006</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F98" s="2">
-        <v>34</v>
-      </c>
-      <c r="M98" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N98" s="2">
-        <v>3017</v>
-      </c>
-      <c r="O98" s="12">
-        <v>48</v>
-      </c>
-      <c r="R98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" s="2" customFormat="1" spans="1:18">
-      <c r="A99" s="2">
-        <v>3007</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F99" s="2">
-        <v>4</v>
-      </c>
-      <c r="J99" s="2">
-        <v>1</v>
-      </c>
-      <c r="M99" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N99" s="2">
-        <v>3018</v>
-      </c>
-      <c r="O99" s="12"/>
-      <c r="R99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" s="2" customFormat="1" spans="1:18">
-      <c r="A100" s="2">
-        <v>3008</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" s="2">
-        <v>4</v>
-      </c>
-      <c r="J100" s="2">
-        <v>-2</v>
-      </c>
-      <c r="M100" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N100" s="2">
-        <v>3019</v>
-      </c>
-      <c r="O100" s="12"/>
-      <c r="R100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
-      <c r="A101">
-        <v>3009</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D101" t="s">
-        <v>40</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="E107" t="s">
         <v>47</v>
       </c>
-      <c r="F101">
+      <c r="F107">
         <v>22</v>
       </c>
-      <c r="J101">
-        <v>-1</v>
-      </c>
-      <c r="M101">
-        <v>-1</v>
-      </c>
-      <c r="R101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
-      <c r="A102">
-        <v>3010</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D102" t="s">
-        <v>40</v>
-      </c>
-      <c r="F102">
-        <v>38</v>
-      </c>
-      <c r="M102">
-        <v>-1</v>
-      </c>
-      <c r="O102" s="11">
-        <v>43</v>
-      </c>
-      <c r="R102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103">
-        <v>3011</v>
-      </c>
-      <c r="B103" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" t="s">
-        <v>46</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="M103">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104">
-        <v>3012</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" t="s">
-        <v>46</v>
-      </c>
-      <c r="F104">
-        <v>36</v>
-      </c>
-      <c r="J104">
-        <v>-1</v>
-      </c>
-      <c r="R104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="A105">
-        <v>3013</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" t="s">
-        <v>46</v>
-      </c>
-      <c r="F105">
-        <v>2</v>
-      </c>
-      <c r="H105">
-        <v>2</v>
-      </c>
-      <c r="O105">
-        <v>45</v>
-      </c>
-      <c r="R105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="A106">
-        <v>3014</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" t="s">
-        <v>46</v>
-      </c>
-      <c r="F106">
-        <v>32</v>
-      </c>
-      <c r="G106">
-        <v>0.3</v>
-      </c>
-      <c r="H106">
-        <v>0.2</v>
-      </c>
-      <c r="M106">
-        <v>-1</v>
-      </c>
-      <c r="O106">
-        <v>46</v>
-      </c>
-      <c r="R106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107">
-        <v>3015</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" t="s">
-        <v>46</v>
-      </c>
-      <c r="F107">
-        <v>4</v>
-      </c>
       <c r="J107">
         <v>-1</v>
       </c>
-      <c r="N107">
-        <v>3005</v>
+      <c r="M107">
+        <v>-1</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108">
-        <v>3016</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>208</v>
+        <v>3010</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108">
+        <v>38</v>
+      </c>
+      <c r="M108">
+        <v>-1</v>
+      </c>
+      <c r="O108" s="11">
+        <v>43</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
+        <v>3011</v>
+      </c>
+      <c r="B109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
         <v>46</v>
       </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="M108">
-        <v>-1</v>
-      </c>
-      <c r="R108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="A109">
-        <v>3017</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D109" t="s">
-        <v>40</v>
+      <c r="E109" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F109">
-        <v>2</v>
-      </c>
-      <c r="H109">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
       </c>
       <c r="M109">
         <v>-1</v>
-      </c>
-      <c r="O109">
-        <v>49</v>
-      </c>
-      <c r="R109">
-        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="A110">
-        <v>3018</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>210</v>
+        <v>3012</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F110">
-        <v>38</v>
-      </c>
-      <c r="M110">
-        <v>-1</v>
-      </c>
-      <c r="O110" s="11">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="J110">
+        <v>-1</v>
       </c>
       <c r="R110">
         <v>1</v>
@@ -5201,25 +5207,25 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111">
-        <v>3019</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>211</v>
+        <v>3013</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F111">
-        <v>30</v>
-      </c>
-      <c r="M111">
-        <v>-1</v>
-      </c>
-      <c r="O111" s="11">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="O111">
+        <v>45</v>
       </c>
       <c r="R111">
         <v>1</v>
@@ -5227,45 +5233,207 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112">
-        <v>3020</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>212</v>
+        <v>3014</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D112" t="s">
         <v>46</v>
       </c>
       <c r="F112">
+        <v>32</v>
+      </c>
+      <c r="G112">
+        <v>0.3</v>
+      </c>
+      <c r="H112">
+        <v>0.2</v>
+      </c>
+      <c r="M112">
+        <v>-1</v>
+      </c>
+      <c r="O112">
+        <v>46</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
+        <v>3015</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="J113">
+        <v>-1</v>
+      </c>
+      <c r="N113">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114">
+        <v>3016</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114">
         <v>3</v>
       </c>
-      <c r="J112">
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115">
+        <v>3017</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>-1</v>
+      </c>
+      <c r="O115">
+        <v>49</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116">
+        <v>3018</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116">
+        <v>38</v>
+      </c>
+      <c r="M116">
+        <v>-1</v>
+      </c>
+      <c r="O116" s="11">
+        <v>62</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117">
+        <v>3019</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117">
+        <v>30</v>
+      </c>
+      <c r="M117">
+        <v>-1</v>
+      </c>
+      <c r="O117" s="11">
+        <v>63</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118">
+        <v>3020</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="J118">
         <v>9</v>
       </c>
-      <c r="M112">
-        <v>-1</v>
-      </c>
-      <c r="R112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="M118">
+        <v>-1</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -1036,6 +1036,9 @@
     <t>寒冰护体-降低伤害</t>
   </si>
   <si>
+    <t>测试,护甲延长</t>
+  </si>
+  <si>
     <t>激怒</t>
   </si>
   <si>
@@ -1301,9 +1304,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1327,8 +1330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,21 +1346,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1378,7 +1406,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1386,41 +1414,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1448,26 +1445,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1503,13 +1506,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,25 +1608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,19 +1632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,97 +1656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1683,7 +1674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,6 +1697,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1721,17 +1739,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1761,49 +1797,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1812,138 +1815,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1956,7 +1960,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2283,12 +2286,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q94" sqref="Q94"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2299,7 +2302,7 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
@@ -2333,7 +2336,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -2351,7 +2354,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -2386,7 +2389,7 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="s">
@@ -2424,13 +2427,13 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M3">
@@ -2447,7 +2450,7 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -2462,7 +2465,7 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J4">
@@ -2485,7 +2488,7 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F5">
@@ -2494,7 +2497,7 @@
       <c r="G5">
         <v>15</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J5">
@@ -2514,7 +2517,7 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
@@ -2543,7 +2546,7 @@
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
@@ -2566,7 +2569,7 @@
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -2578,7 +2581,7 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J8">
@@ -2595,13 +2598,13 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F9">
@@ -2627,7 +2630,7 @@
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="M10">
@@ -2659,7 +2662,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J11">
@@ -2676,7 +2679,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -2685,7 +2688,7 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F12">
@@ -2717,7 +2720,7 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J13">
@@ -2749,7 +2752,7 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J14">
@@ -2781,7 +2784,7 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J15">
@@ -2798,7 +2801,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C16" t="s">
@@ -2813,7 +2816,7 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J16">
@@ -2830,10 +2833,10 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D17" t="s">
@@ -2856,10 +2859,10 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D18" t="s">
@@ -2885,10 +2888,10 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4"/>
       <c r="R19">
         <v>2</v>
       </c>
@@ -2897,10 +2900,10 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="F20">
         <v>39</v>
       </c>
@@ -2918,10 +2921,10 @@
       <c r="A21">
         <v>33</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="F21">
         <v>33</v>
       </c>
@@ -2942,7 +2945,7 @@
       <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F22">
@@ -3014,10 +3017,10 @@
       <c r="A25">
         <v>1003</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D25" t="s">
@@ -3046,10 +3049,10 @@
       <c r="A26">
         <v>1004</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D26" t="s">
@@ -3072,10 +3075,10 @@
       <c r="A27">
         <v>1005</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D27" t="s">
@@ -3104,7 +3107,7 @@
       <c r="A28">
         <v>1006</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F28">
@@ -3124,10 +3127,10 @@
       <c r="A29">
         <v>1007</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D29" t="s">
@@ -3150,10 +3153,10 @@
       <c r="A30">
         <v>1013</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D30" t="s">
@@ -3176,10 +3179,10 @@
       <c r="A31">
         <v>1014</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D31" t="s">
@@ -3202,10 +3205,10 @@
       <c r="A32">
         <v>1015</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D32" t="s">
@@ -3217,7 +3220,7 @@
       <c r="M32">
         <v>-1</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="4">
         <v>35</v>
       </c>
       <c r="R32">
@@ -3228,10 +3231,10 @@
       <c r="A33">
         <v>1016</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D33" t="s">
@@ -3243,7 +3246,7 @@
       <c r="M33">
         <v>-1</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="4">
         <v>66</v>
       </c>
       <c r="R33">
@@ -3254,10 +3257,10 @@
       <c r="A34">
         <v>1017</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D34" t="s">
@@ -3269,7 +3272,7 @@
       <c r="M34">
         <v>-1</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="4">
         <v>37</v>
       </c>
       <c r="R34">
@@ -3280,10 +3283,10 @@
       <c r="A35">
         <v>1018</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D35" t="s">
@@ -3306,10 +3309,10 @@
       <c r="A36">
         <v>1009</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D36" t="s">
@@ -3329,10 +3332,10 @@
       <c r="A37">
         <v>1010</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D37" t="s">
@@ -3352,7 +3355,7 @@
       <c r="A38">
         <v>1011</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C38" t="s">
@@ -3361,7 +3364,7 @@
       <c r="D38" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F38">
@@ -3381,10 +3384,10 @@
       <c r="A39">
         <v>1012</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D39" t="s">
@@ -3407,10 +3410,10 @@
       <c r="A40">
         <v>1023</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D40" t="s">
@@ -3430,10 +3433,10 @@
       <c r="A41">
         <v>1024</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D41" t="s">
@@ -3459,10 +3462,10 @@
       <c r="A42">
         <v>1025</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D42" t="s">
@@ -3491,10 +3494,10 @@
       <c r="A43">
         <v>1026</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="4"/>
       <c r="F43">
         <v>13</v>
       </c>
@@ -3515,10 +3518,10 @@
       <c r="A44">
         <v>1027</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D44" t="s">
@@ -3544,10 +3547,10 @@
       <c r="A45">
         <v>1028</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D45" t="s">
@@ -3573,10 +3576,10 @@
       <c r="A46">
         <v>1030</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>119</v>
       </c>
       <c r="D46" t="s">
@@ -3602,10 +3605,10 @@
       <c r="A47">
         <v>1031</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D47" t="s">
@@ -3628,10 +3631,10 @@
       <c r="A48">
         <v>1032</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="5"/>
       <c r="F48">
         <v>2</v>
       </c>
@@ -3649,10 +3652,10 @@
       <c r="A49">
         <v>1033</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D49" t="s">
@@ -3678,10 +3681,10 @@
       <c r="A50">
         <v>1034</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>126</v>
       </c>
       <c r="D50" t="s">
@@ -3704,10 +3707,10 @@
       <c r="A51">
         <v>1035</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="5"/>
       <c r="F51">
         <v>2</v>
       </c>
@@ -3725,10 +3728,10 @@
       <c r="A52">
         <v>1036</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="5"/>
       <c r="F52">
         <v>2</v>
       </c>
@@ -3743,10 +3746,10 @@
       <c r="A53">
         <v>1037</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="4"/>
+      <c r="C53" s="5"/>
       <c r="F53">
         <v>36</v>
       </c>
@@ -3761,10 +3764,10 @@
       <c r="A54">
         <v>1038</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="5"/>
       <c r="F54">
         <v>37</v>
       </c>
@@ -3782,10 +3785,10 @@
       <c r="A55">
         <v>1039</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="5"/>
       <c r="F55">
         <v>37</v>
       </c>
@@ -3803,10 +3806,10 @@
       <c r="A56">
         <v>1040</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>132</v>
       </c>
       <c r="F56">
@@ -3826,10 +3829,10 @@
       <c r="A57">
         <v>1041</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="5"/>
       <c r="F57">
         <v>32</v>
       </c>
@@ -3853,10 +3856,10 @@
       <c r="A58">
         <v>1042</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D58" t="s">
@@ -3885,10 +3888,10 @@
       <c r="A59">
         <v>1043</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="5"/>
       <c r="F59">
         <v>38</v>
       </c>
@@ -3909,10 +3912,10 @@
       <c r="A60">
         <v>1044</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D60" t="s">
@@ -3941,10 +3944,10 @@
       <c r="A61">
         <v>1045</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="5"/>
       <c r="F61">
         <v>4</v>
       </c>
@@ -3952,206 +3955,215 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:18">
       <c r="A62">
+        <v>1046</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62">
+        <v>25</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>-1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
         <v>2000</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62">
+      <c r="E63" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63">
         <v>19</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <v>9</v>
       </c>
-      <c r="N62">
+      <c r="N63">
         <v>2002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63">
-        <v>2001</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" t="s">
-        <v>144</v>
-      </c>
-      <c r="F63">
-        <v>29</v>
-      </c>
-      <c r="O63">
-        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64">
-        <v>2002</v>
-      </c>
-      <c r="B64" t="s">
-        <v>143</v>
+        <v>2001</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C64" t="s">
         <v>145</v>
       </c>
       <c r="F64">
+        <v>29</v>
+      </c>
+      <c r="O64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65">
+        <v>2002</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65">
         <v>5</v>
       </c>
-      <c r="J64">
+      <c r="J65">
         <v>2000</v>
       </c>
-      <c r="N64">
+      <c r="N65">
         <v>2001</v>
       </c>
-      <c r="O64">
+      <c r="O65">
         <v>2004</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
+    <row r="66" spans="1:5">
+      <c r="A66">
         <v>2003</v>
       </c>
-      <c r="B65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B66" t="s">
         <v>147</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C66" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" t="s">
         <v>52</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66">
-        <v>2004</v>
-      </c>
-      <c r="B66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>2006</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
+        <v>2004</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
         <v>2005</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F67">
+      <c r="E68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68">
         <v>19</v>
       </c>
-      <c r="J67">
+      <c r="J68">
         <v>8</v>
       </c>
-      <c r="N67">
+      <c r="N68">
         <v>2001</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="1" spans="1:13">
-      <c r="A68" s="7">
+    <row r="69" s="1" customFormat="1" spans="1:13">
+      <c r="A69" s="1">
         <v>2006</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F68" s="7">
+      <c r="C69" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="1">
         <v>26</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="1">
         <v>3</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J69" s="1">
         <v>2000</v>
       </c>
-      <c r="M68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69">
-        <v>2007</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F69">
-        <v>30</v>
-      </c>
-      <c r="O69">
-        <v>29</v>
+      <c r="M69" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70">
-        <v>2008</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="O70">
         <v>29</v>
-      </c>
-      <c r="O70">
-        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71">
-        <v>2009</v>
-      </c>
-      <c r="B71" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C71" t="s">
@@ -4161,77 +4173,67 @@
         <v>29</v>
       </c>
       <c r="O71">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72">
+        <v>2009</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72">
+        <v>29</v>
+      </c>
+      <c r="O72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73">
         <v>2010</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D72" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72">
-        <v>27</v>
-      </c>
-      <c r="G72">
-        <v>23</v>
-      </c>
-      <c r="N72">
-        <v>2015</v>
-      </c>
-      <c r="O72">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="A73">
-        <v>2011</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
       </c>
       <c r="F73">
-        <v>34</v>
-      </c>
-      <c r="M73">
-        <v>-1</v>
+        <v>27</v>
+      </c>
+      <c r="G73">
+        <v>23</v>
+      </c>
+      <c r="N73">
+        <v>2015</v>
       </c>
       <c r="O73">
-        <v>1502</v>
-      </c>
-      <c r="R73">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74">
-        <v>2012</v>
-      </c>
-      <c r="B74" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="4"/>
       <c r="D74" t="s">
         <v>40</v>
       </c>
       <c r="F74">
-        <v>32</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="M74">
         <v>-1</v>
@@ -4245,12 +4247,12 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75">
-        <v>2013</v>
-      </c>
-      <c r="B75" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="4"/>
+      <c r="C75" s="5"/>
       <c r="D75" t="s">
         <v>40</v>
       </c>
@@ -4258,13 +4260,13 @@
         <v>32</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M75">
         <v>-1</v>
       </c>
       <c r="O75">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R75">
         <v>1</v>
@@ -4272,14 +4274,12 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76">
-        <v>2014</v>
-      </c>
-      <c r="B76" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="C76" s="5"/>
       <c r="D76" t="s">
         <v>40</v>
       </c>
@@ -4287,185 +4287,188 @@
         <v>32</v>
       </c>
       <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>-1</v>
+      </c>
+      <c r="O76">
+        <v>1504</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77">
+        <v>2014</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <v>32</v>
+      </c>
+      <c r="H77">
         <v>5</v>
       </c>
-      <c r="M76">
-        <v>-1</v>
-      </c>
-      <c r="O76">
+      <c r="M77">
+        <v>-1</v>
+      </c>
+      <c r="O77">
         <v>53</v>
       </c>
-      <c r="R76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77">
+      <c r="R77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
         <v>2015</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F77">
+      <c r="B78" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="J77">
+      <c r="J78">
         <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
-      <c r="A78">
-        <v>2016</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
-      <c r="M78">
-        <v>-1</v>
-      </c>
-      <c r="O78">
-        <v>1505</v>
-      </c>
-      <c r="R78">
-        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79">
+        <v>2016</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>-1</v>
+      </c>
+      <c r="O79">
+        <v>1505</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80">
         <v>2017</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B80" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>46</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>3</v>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="O79">
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="O80">
         <v>0</v>
       </c>
-      <c r="R79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80">
-        <v>2018</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F80">
-        <v>19</v>
-      </c>
-      <c r="J80">
-        <v>15</v>
-      </c>
-      <c r="N80">
-        <v>2002</v>
+      <c r="R80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>2019</v>
-      </c>
-      <c r="B81" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>149</v>
+      <c r="C81" t="s">
+        <v>142</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>150</v>
+      <c r="E81" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="F81">
         <v>19</v>
       </c>
       <c r="J81">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N81">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
-        <v>2020</v>
-      </c>
-      <c r="B82" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="D82" t="s">
         <v>40</v>
       </c>
+      <c r="E82" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="F82">
-        <v>32</v>
-      </c>
-      <c r="H82">
-        <v>4</v>
-      </c>
-      <c r="M82">
-        <v>-1</v>
-      </c>
-      <c r="O82">
-        <v>1502</v>
-      </c>
-      <c r="R82">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="J82">
+        <v>20</v>
+      </c>
+      <c r="N82">
+        <v>2001</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83">
-        <v>2021</v>
-      </c>
-      <c r="B83" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="C83" s="5"/>
       <c r="D83" t="s">
         <v>40</v>
       </c>
       <c r="F83">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
       </c>
       <c r="M83">
         <v>-1</v>
       </c>
       <c r="O83">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="R83">
         <v>1</v>
@@ -4473,12 +4476,12 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84">
-        <v>2022</v>
-      </c>
-      <c r="B84" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D84" t="s">
@@ -4490,8 +4493,8 @@
       <c r="M84">
         <v>-1</v>
       </c>
-      <c r="O84" s="11">
-        <v>61</v>
+      <c r="O84">
+        <v>1506</v>
       </c>
       <c r="R84">
         <v>1</v>
@@ -4499,19 +4502,25 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85">
-        <v>2023</v>
-      </c>
-      <c r="B85" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="D85" t="s">
+        <v>40</v>
+      </c>
       <c r="F85">
-        <v>36</v>
-      </c>
-      <c r="J85">
-        <v>-1</v>
+        <v>34</v>
+      </c>
+      <c r="M85">
+        <v>-1</v>
+      </c>
+      <c r="O85" s="11">
+        <v>61</v>
       </c>
       <c r="R85">
         <v>1</v>
@@ -4519,53 +4528,40 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86">
+        <v>2023</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86">
+        <v>36</v>
+      </c>
+      <c r="J86">
+        <v>-1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87">
         <v>2024</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="B87" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
         <v>40</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>34</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>-1</v>
-      </c>
-      <c r="O86">
-        <v>1507</v>
-      </c>
-      <c r="R86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:18">
-      <c r="A87">
-        <v>2025</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" t="s">
-        <v>46</v>
-      </c>
-      <c r="F87">
-        <v>41</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="I87" s="2"/>
       <c r="J87">
         <v>0</v>
       </c>
@@ -4573,7 +4569,7 @@
         <v>-1</v>
       </c>
       <c r="O87">
-        <v>65</v>
+        <v>1507</v>
       </c>
       <c r="R87">
         <v>1</v>
@@ -4581,29 +4577,32 @@
     </row>
     <row r="88" customFormat="1" spans="1:18">
       <c r="A88">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="D88" t="s">
         <v>46</v>
       </c>
       <c r="F88">
-        <v>42</v>
-      </c>
-      <c r="I88" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" s="3"/>
       <c r="J88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>-1</v>
       </c>
       <c r="O88">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="R88">
         <v>1</v>
@@ -4611,21 +4610,21 @@
     </row>
     <row r="89" customFormat="1" spans="1:18">
       <c r="A89">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>46</v>
       </c>
       <c r="F89">
-        <v>43</v>
-      </c>
-      <c r="I89" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="I89" s="3"/>
       <c r="J89">
         <v>2</v>
       </c>
@@ -4641,21 +4640,21 @@
     </row>
     <row r="90" customFormat="1" spans="1:18">
       <c r="A90">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="D90" t="s">
         <v>46</v>
       </c>
       <c r="F90">
-        <v>44</v>
-      </c>
-      <c r="I90" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="I90" s="3"/>
       <c r="J90">
         <v>2</v>
       </c>
@@ -4671,561 +4670,565 @@
     </row>
     <row r="91" customFormat="1" spans="1:18">
       <c r="A91">
-        <v>2029</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C91" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D91" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>4</v>
-      </c>
-      <c r="I91" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91">
+        <v>2</v>
+      </c>
       <c r="M91">
         <v>-1</v>
       </c>
+      <c r="O91">
+        <v>39</v>
+      </c>
       <c r="R91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="1:13">
+    <row r="92" customFormat="1" spans="1:18">
       <c r="A92">
-        <v>2030</v>
-      </c>
-      <c r="B92" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D92" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="M92">
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:13">
+      <c r="A93">
+        <v>2030</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
         <v>2</v>
       </c>
-      <c r="I92" s="2"/>
-      <c r="M92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:18">
-      <c r="A93">
+      <c r="I93" s="3"/>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:18">
+      <c r="A94">
         <v>2031</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F93">
+      <c r="C94" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94">
         <v>29</v>
       </c>
-      <c r="I93" s="2"/>
-      <c r="M93">
-        <v>-1</v>
-      </c>
-      <c r="O93">
+      <c r="I94" s="3"/>
+      <c r="M94">
+        <v>-1</v>
+      </c>
+      <c r="O94">
         <v>67</v>
       </c>
-      <c r="R93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:10">
-      <c r="A94">
-        <v>2032</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F94">
-        <v>23</v>
-      </c>
-      <c r="I94" s="2"/>
-      <c r="J94">
-        <v>10</v>
+      <c r="R94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:10">
       <c r="A95">
-        <v>2033</v>
-      </c>
-      <c r="B95" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>188</v>
       </c>
       <c r="F95">
         <v>23</v>
       </c>
-      <c r="I95" s="2"/>
+      <c r="I95" s="3"/>
       <c r="J95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:10">
+      <c r="A96">
+        <v>2033</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96">
+        <v>23</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96">
         <v>20</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:18">
-      <c r="A96">
-        <v>2034</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D96" t="s">
-        <v>46</v>
-      </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-      <c r="I96" s="2"/>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="R96">
-        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:18">
       <c r="A97">
-        <v>2035</v>
-      </c>
-      <c r="B97" s="8" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D97" t="s">
         <v>46</v>
       </c>
       <c r="F97">
-        <v>41</v>
-      </c>
-      <c r="H97">
-        <v>2</v>
-      </c>
-      <c r="I97" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I97" s="3"/>
       <c r="J97">
-        <v>3</v>
-      </c>
-      <c r="M97">
-        <v>-1</v>
-      </c>
-      <c r="O97" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" customFormat="1" spans="1:10">
+    <row r="98" customFormat="1" spans="1:18">
       <c r="A98">
-        <v>2036</v>
-      </c>
-      <c r="B98" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="8" t="s">
         <v>191</v>
       </c>
       <c r="D98" t="s">
         <v>46</v>
       </c>
       <c r="F98">
+        <v>41</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98">
         <v>3</v>
       </c>
-      <c r="I98" s="2"/>
-      <c r="J98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="1:18">
-      <c r="A99" s="1">
+      <c r="M98">
+        <v>-1</v>
+      </c>
+      <c r="O98" s="4">
+        <v>70</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:10">
+      <c r="A99">
+        <v>2036</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="1:18">
+      <c r="A100" s="2">
         <v>3001</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C99" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="C100" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F100" s="2">
         <v>3</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J100" s="2">
         <v>3</v>
       </c>
-      <c r="M99" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N99" s="1">
+      <c r="M100" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N100" s="2">
         <v>3009</v>
       </c>
-      <c r="O99" s="12"/>
-      <c r="R99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="1:18">
-      <c r="A100" s="1">
+      <c r="O100" s="12"/>
+      <c r="R100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="1" spans="1:18">
+      <c r="A101" s="2">
         <v>3002</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" s="10" t="s">
+      <c r="B101" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="C101" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F101" s="2">
         <v>29</v>
       </c>
-      <c r="M100" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N100" s="1">
+      <c r="M101" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N101" s="2">
         <v>3010</v>
       </c>
-      <c r="O100" s="12">
+      <c r="O101" s="12">
         <v>42</v>
       </c>
-      <c r="R100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:18">
-      <c r="A101" s="1">
+      <c r="R101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" s="2" customFormat="1" spans="1:18">
+      <c r="A102" s="2">
         <v>3003</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C101" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="C102" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F102" s="2">
         <v>31</v>
       </c>
-      <c r="M101" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N101" s="1">
+      <c r="M102" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N102" s="2">
         <v>3012</v>
       </c>
-      <c r="O101" s="12">
+      <c r="O102" s="12">
         <v>44</v>
       </c>
-      <c r="R101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="1:18">
-      <c r="A102" s="1">
+      <c r="R102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" s="2" customFormat="1" spans="1:18">
+      <c r="A103" s="2">
         <v>3004</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="10" t="s">
+      <c r="B103" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="C103" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F103" s="2">
         <v>23</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J103" s="2">
         <v>60</v>
       </c>
-      <c r="M102" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N102" s="1">
+      <c r="M103" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N103" s="2">
         <v>3013</v>
       </c>
-      <c r="O102" s="12"/>
-      <c r="R102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" spans="1:18">
-      <c r="A103" s="1">
+      <c r="O103" s="12"/>
+      <c r="R103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" s="2" customFormat="1" spans="1:18">
+      <c r="A104" s="2">
         <v>3005</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C103" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="C104" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F104" s="2">
         <v>26</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G104" s="2">
         <v>8</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J104" s="2">
         <v>3014</v>
       </c>
-      <c r="M103" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O103" s="12"/>
-      <c r="R103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="1" spans="1:18">
-      <c r="A104" s="1">
+      <c r="M104" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O104" s="12"/>
+      <c r="R104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="1:18">
+      <c r="A105" s="2">
         <v>3006</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="10" t="s">
+      <c r="B105" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="C105" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F105" s="2">
         <v>34</v>
       </c>
-      <c r="M104" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N104" s="1">
+      <c r="M105" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N105" s="2">
         <v>3017</v>
       </c>
-      <c r="O104" s="12">
+      <c r="O105" s="12">
         <v>48</v>
       </c>
-      <c r="R104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="1" spans="1:18">
-      <c r="A105" s="1">
+      <c r="R105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" s="2" customFormat="1" spans="1:18">
+      <c r="A106" s="2">
         <v>3007</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C105" s="10" t="s">
+      <c r="B106" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="C106" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F106" s="2">
         <v>4</v>
       </c>
-      <c r="J105" s="1">
-        <v>1</v>
-      </c>
-      <c r="M105" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N105" s="1">
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="M106" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N106" s="2">
         <v>3018</v>
       </c>
-      <c r="O105" s="12"/>
-      <c r="R105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" s="1" customFormat="1" spans="1:18">
-      <c r="A106" s="1">
+      <c r="O106" s="12"/>
+      <c r="R106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" s="2" customFormat="1" spans="1:18">
+      <c r="A107" s="2">
         <v>3008</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="C107" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="2">
         <v>4</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="2">
         <v>-2</v>
       </c>
-      <c r="M106" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N106" s="1">
+      <c r="M107" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N107" s="2">
         <v>3019</v>
       </c>
-      <c r="O106" s="12"/>
-      <c r="R106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="A107">
-        <v>3009</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107" t="s">
-        <v>40</v>
-      </c>
-      <c r="E107" t="s">
-        <v>47</v>
-      </c>
-      <c r="F107">
-        <v>22</v>
-      </c>
-      <c r="J107">
-        <v>-1</v>
-      </c>
-      <c r="M107">
-        <v>-1</v>
-      </c>
-      <c r="R107">
+      <c r="O107" s="12"/>
+      <c r="R107" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108">
-        <v>3010</v>
-      </c>
-      <c r="B108" s="3" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D108" t="s">
         <v>40</v>
       </c>
+      <c r="E108" t="s">
+        <v>47</v>
+      </c>
       <c r="F108">
+        <v>22</v>
+      </c>
+      <c r="J108">
+        <v>-1</v>
+      </c>
+      <c r="M108">
+        <v>-1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109">
+        <v>3010</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109">
         <v>38</v>
       </c>
-      <c r="M108">
-        <v>-1</v>
-      </c>
-      <c r="O108" s="11">
+      <c r="M109">
+        <v>-1</v>
+      </c>
+      <c r="O109" s="11">
         <v>43</v>
       </c>
-      <c r="R108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109">
+      <c r="R109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
         <v>3011</v>
       </c>
-      <c r="B109" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" t="s">
-        <v>46</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="M109">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
-      <c r="A110">
-        <v>3012</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>211</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" t="s">
         <v>211</v>
       </c>
       <c r="D110" t="s">
         <v>46</v>
       </c>
+      <c r="E110" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F110">
-        <v>36</v>
-      </c>
-      <c r="J110">
-        <v>-1</v>
-      </c>
-      <c r="R110">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:18">
       <c r="A111">
-        <v>3013</v>
-      </c>
-      <c r="B111" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D111" t="s">
         <v>46</v>
       </c>
       <c r="F111">
-        <v>2</v>
-      </c>
-      <c r="H111">
-        <v>2</v>
-      </c>
-      <c r="O111">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="J111">
+        <v>-1</v>
       </c>
       <c r="R111">
         <v>1</v>
@@ -5233,109 +5236,106 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112">
-        <v>3014</v>
-      </c>
-      <c r="B112" s="3" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D112" t="s">
         <v>46</v>
       </c>
       <c r="F112">
-        <v>32</v>
-      </c>
-      <c r="G112">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>0.2</v>
-      </c>
-      <c r="M112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O112">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:18">
       <c r="A113">
-        <v>3015</v>
-      </c>
-      <c r="B113" s="3" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D113" t="s">
         <v>46</v>
       </c>
       <c r="F113">
-        <v>4</v>
-      </c>
-      <c r="J113">
-        <v>-1</v>
-      </c>
-      <c r="N113">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18">
+        <v>32</v>
+      </c>
+      <c r="G113">
+        <v>0.3</v>
+      </c>
+      <c r="H113">
+        <v>0.2</v>
+      </c>
+      <c r="M113">
+        <v>-1</v>
+      </c>
+      <c r="O113">
+        <v>46</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114">
-        <v>3016</v>
-      </c>
-      <c r="B114" s="3" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D114" t="s">
         <v>46</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J114">
-        <v>1</v>
-      </c>
-      <c r="M114">
-        <v>-1</v>
-      </c>
-      <c r="R114">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="N114">
+        <v>3005</v>
       </c>
     </row>
     <row r="115" spans="1:18">
       <c r="A115">
-        <v>3017</v>
-      </c>
-      <c r="B115" s="3" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D115" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F115">
-        <v>2</v>
-      </c>
-      <c r="H115">
         <v>3</v>
       </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
       <c r="M115">
         <v>-1</v>
-      </c>
-      <c r="O115">
-        <v>49</v>
       </c>
       <c r="R115">
         <v>1</v>
@@ -5343,25 +5343,28 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116">
-        <v>3018</v>
-      </c>
-      <c r="B116" s="3" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D116" t="s">
         <v>40</v>
       </c>
       <c r="F116">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
       </c>
       <c r="M116">
         <v>-1</v>
       </c>
-      <c r="O116" s="11">
-        <v>62</v>
+      <c r="O116">
+        <v>49</v>
       </c>
       <c r="R116">
         <v>1</v>
@@ -5369,25 +5372,25 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117">
-        <v>3019</v>
-      </c>
-      <c r="B117" s="3" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>218</v>
       </c>
       <c r="D117" t="s">
         <v>40</v>
       </c>
       <c r="F117">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M117">
         <v>-1</v>
       </c>
       <c r="O117" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R117">
         <v>1</v>
@@ -5395,45 +5398,71 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118">
+        <v>3019</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118">
+        <v>30</v>
+      </c>
+      <c r="M118">
+        <v>-1</v>
+      </c>
+      <c r="O118" s="11">
+        <v>63</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119">
         <v>3020</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="B119" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D119" t="s">
         <v>46</v>
       </c>
-      <c r="F118">
+      <c r="F119">
         <v>3</v>
       </c>
-      <c r="J118">
+      <c r="J119">
         <v>9</v>
       </c>
-      <c r="M118">
-        <v>-1</v>
-      </c>
-      <c r="R118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="M119">
+        <v>-1</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Buff.xlsx
+++ b/Client/Assets/Data/Buff.xlsx
@@ -1303,10 +1303,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1330,76 +1330,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,6 +1353,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1421,16 +1383,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,24 +1461,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1506,7 +1506,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,7 +1566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,13 +1584,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,31 +1620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,7 +1632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,49 +1656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,37 +1674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,6 +1697,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1732,8 +1750,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1744,30 +1764,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1787,13 +1783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1803,10 +1803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,133 +1815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" 